--- a/TimeKeepingGenerator/bin/Debug/employees_timestamps.xlsx
+++ b/TimeKeepingGenerator/bin/Debug/employees_timestamps.xlsx
@@ -31,7 +31,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -39,6 +39,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000" tint="0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -62,11 +68,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0"/>
     <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,7 +84,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -99,6695 +106,6765 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>43017.3244791667</v>
+        <v>43017.3260185185</v>
       </c>
       <c r="B2" s="3">
-        <v>43017.3244791667</v>
+        <v>43017.3260185185</v>
       </c>
       <c r="C2" s="3">
-        <v>43017.6991319444</v>
+        <v>43017.7029398148</v>
       </c>
       <c r="D2" s="3">
-        <v>43017.3330092593</v>
+        <v>43017.3400810185</v>
       </c>
       <c r="E2" s="3">
-        <v>43017.7121990741</v>
+        <v>43017.7153472222</v>
       </c>
       <c r="F2" s="3">
-        <v>43017.3366898148</v>
+        <v>43017.332037037</v>
       </c>
       <c r="G2" s="3">
-        <v>43017.7099884259</v>
+        <v>43017.7084027778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>43018.3364467593</v>
+        <v>43018.3372685185</v>
       </c>
       <c r="B3" s="3">
-        <v>43018.3364467593</v>
+        <v>43018.3372685185</v>
       </c>
       <c r="C3" s="3">
-        <v>43018.7083333333</v>
+        <v>43018.7089583333</v>
       </c>
       <c r="D3" s="3">
-        <v>43018.3320717593</v>
+        <v>43018.3297569444</v>
       </c>
       <c r="E3" s="3">
-        <v>43018.7089351852</v>
+        <v>43018.7034143519</v>
       </c>
       <c r="F3" s="3">
-        <v>43018.3411805556</v>
+        <v>43018.3297453704</v>
       </c>
       <c r="G3" s="3">
-        <v>43018.711875</v>
+        <v>43018.7067013889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>43019.3410069444</v>
+        <v>43019.3399421296</v>
       </c>
       <c r="B4" s="3">
-        <v>43019.3410069444</v>
+        <v>43019.3399421296</v>
       </c>
       <c r="C4" s="3">
-        <v>43019.7144212963</v>
+        <v>43019.7181018519</v>
       </c>
       <c r="D4" s="3">
-        <v>43019.3299768519</v>
+        <v>43019.3391898148</v>
       </c>
       <c r="E4" s="3">
-        <v>43019.7061458333</v>
+        <v>43019.7125231481</v>
       </c>
       <c r="F4" s="3">
-        <v>43019.3305902778</v>
+        <v>43019.3407060185</v>
       </c>
       <c r="G4" s="3">
-        <v>43019.7038194444</v>
+        <v>43019.7175925926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>43020.3270486111</v>
+        <v>43020.3242361111</v>
       </c>
       <c r="B5" s="3">
-        <v>43020.3270486111</v>
+        <v>43020.3242361111</v>
       </c>
       <c r="C5" s="3">
-        <v>43020.7057407407</v>
+        <v>43020.6992824074</v>
       </c>
       <c r="D5" s="3">
-        <v>43020.3274305556</v>
+        <v>43020.3287037037</v>
       </c>
       <c r="E5" s="3">
-        <v>43020.7031134259</v>
+        <v>43020.7053009259</v>
       </c>
       <c r="F5" s="3">
-        <v>43020.3341666667</v>
+        <v>43020.3353703704</v>
       </c>
       <c r="G5" s="3">
-        <v>43020.7112268519</v>
+        <v>43020.7103125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>43021.329212963</v>
+        <v>43021.3394328704</v>
       </c>
       <c r="B6" s="3">
-        <v>43021.329212963</v>
+        <v>43021.3394328704</v>
       </c>
       <c r="C6" s="3">
-        <v>43021.7086226852</v>
+        <v>43021.7180555556</v>
       </c>
       <c r="D6" s="3">
-        <v>43021.3430671296</v>
+        <v>43021.3255555556</v>
       </c>
       <c r="E6" s="3">
-        <v>43021.7147337963</v>
+        <v>43021.7013888889</v>
       </c>
       <c r="F6" s="3">
-        <v>43021.3248611111</v>
+        <v>43021.3386689815</v>
       </c>
       <c r="G6" s="3">
-        <v>43021.6991666667</v>
+        <v>43021.7183217593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>43024.3433217593</v>
+        <v>43024.3342939815</v>
       </c>
       <c r="B7" s="3">
-        <v>43024.3433217593</v>
+        <v>43024.3342939815</v>
       </c>
       <c r="C7" s="3">
-        <v>43024.7160532407</v>
+        <v>43024.7054050926</v>
       </c>
       <c r="D7" s="3">
-        <v>43024.3402314815</v>
+        <v>43024.3437268519</v>
       </c>
       <c r="E7" s="3">
-        <v>43024.7123842593</v>
+        <v>43024.7197337963</v>
       </c>
       <c r="F7" s="3">
-        <v>43024.3321064815</v>
+        <v>43024.3258912037</v>
       </c>
       <c r="G7" s="3">
-        <v>43024.7082291667</v>
+        <v>43024.7051967593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>43025.3244791667</v>
+        <v>43025.3234490741</v>
       </c>
       <c r="B8" s="3">
-        <v>43025.3244791667</v>
+        <v>43025.3234490741</v>
       </c>
       <c r="C8" s="3">
-        <v>43025.6992708333</v>
+        <v>43025.7001736111</v>
       </c>
       <c r="D8" s="3">
-        <v>43025.3279398148</v>
+        <v>43025.3355902778</v>
       </c>
       <c r="E8" s="3">
-        <v>43025.7022800926</v>
+        <v>43025.7110648148</v>
       </c>
       <c r="F8" s="3">
-        <v>43025.3299189815</v>
+        <v>43025.3422222222</v>
       </c>
       <c r="G8" s="3">
-        <v>43025.7088194444</v>
+        <v>43025.7146064815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>43026.3286226852</v>
+        <v>43026.3355555556</v>
       </c>
       <c r="B9" s="3">
-        <v>43026.3286226852</v>
+        <v>43026.3355555556</v>
       </c>
       <c r="C9" s="3">
-        <v>43026.699212963</v>
+        <v>43026.7132523148</v>
       </c>
       <c r="D9" s="3">
-        <v>43026.3286458333</v>
+        <v>43026.3385763889</v>
       </c>
       <c r="E9" s="3">
-        <v>43026.7054282407</v>
+        <v>43026.7101041667</v>
       </c>
       <c r="F9" s="3">
-        <v>43026.3319907407</v>
+        <v>43026.3389351852</v>
       </c>
       <c r="G9" s="3">
-        <v>43026.7099189815</v>
+        <v>43026.7131134259</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>43027.3397800926</v>
+        <v>43027.3368287037</v>
       </c>
       <c r="B10" s="3">
-        <v>43027.3397800926</v>
+        <v>43027.3368287037</v>
       </c>
       <c r="C10" s="3">
-        <v>43027.7105324074</v>
+        <v>43027.7078587963</v>
       </c>
       <c r="D10" s="3">
-        <v>43027.3350694444</v>
+        <v>43027.3283449074</v>
       </c>
       <c r="E10" s="3">
-        <v>43027.7105208333</v>
+        <v>43027.7007291667</v>
       </c>
       <c r="F10" s="3">
-        <v>43027.3299652778</v>
+        <v>43027.3256712963</v>
       </c>
       <c r="G10" s="3">
-        <v>43027.7035416667</v>
+        <v>43027.6984722222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>43028.3302430556</v>
+        <v>43028.3233333333</v>
       </c>
       <c r="B11" s="3">
-        <v>43028.3302430556</v>
+        <v>43028.3233333333</v>
       </c>
       <c r="C11" s="3">
-        <v>43028.703912037</v>
+        <v>43028.6992824074</v>
       </c>
       <c r="D11" s="3">
-        <v>43028.3356134259</v>
+        <v>43028.336724537</v>
       </c>
       <c r="E11" s="3">
-        <v>43028.7092013889</v>
+        <v>43028.7122685185</v>
       </c>
       <c r="F11" s="3">
-        <v>43028.3380671296</v>
+        <v>43028.3293865741</v>
       </c>
       <c r="G11" s="3">
-        <v>43028.7115972222</v>
+        <v>43028.7079398148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>43031.3390856481</v>
+        <v>43031.3410185185</v>
       </c>
       <c r="B12" s="3">
-        <v>43031.3390856481</v>
+        <v>43031.3410185185</v>
       </c>
       <c r="C12" s="3">
-        <v>43031.7133217593</v>
+        <v>43031.7123842593</v>
       </c>
       <c r="D12" s="3">
-        <v>43031.3296875</v>
+        <v>43031.3313425926</v>
       </c>
       <c r="E12" s="3">
-        <v>43031.7071180556</v>
+        <v>43031.7093865741</v>
       </c>
       <c r="F12" s="3">
-        <v>43031.3271875</v>
+        <v>43031.3265277778</v>
       </c>
       <c r="G12" s="3">
-        <v>43031.7064467593</v>
+        <v>43031.7025231481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <v>43032.3358449074</v>
+        <v>43032.3307060185</v>
       </c>
       <c r="B13" s="3">
-        <v>43032.3358449074</v>
+        <v>43032.3307060185</v>
       </c>
       <c r="C13" s="3">
-        <v>43032.7088194444</v>
+        <v>43032.7096643519</v>
       </c>
       <c r="D13" s="3">
-        <v>43032.3425</v>
+        <v>43032.3242476852</v>
       </c>
       <c r="E13" s="3">
-        <v>43032.719849537</v>
+        <v>43032.6992824074</v>
       </c>
       <c r="F13" s="3">
-        <v>43032.332337963</v>
+        <v>43032.3362037037</v>
       </c>
       <c r="G13" s="3">
-        <v>43032.7092361111</v>
+        <v>43032.7098958333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <v>43033.329375</v>
+        <v>43033.324525463</v>
       </c>
       <c r="B14" s="3">
-        <v>43033.329375</v>
+        <v>43033.324525463</v>
       </c>
       <c r="C14" s="3">
-        <v>43033.7019675926</v>
+        <v>43033.7043287037</v>
       </c>
       <c r="D14" s="3">
-        <v>43033.3385532407</v>
+        <v>43033.3354282407</v>
       </c>
       <c r="E14" s="3">
-        <v>43033.7101157407</v>
+        <v>43033.7115856481</v>
       </c>
       <c r="F14" s="3">
-        <v>43033.3398842593</v>
+        <v>43033.3371875</v>
       </c>
       <c r="G14" s="3">
-        <v>43033.7137384259</v>
+        <v>43033.7149421296</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <v>43034.343587963</v>
+        <v>43034.3381018518</v>
       </c>
       <c r="B15" s="3">
-        <v>43034.343587963</v>
+        <v>43034.3381018518</v>
       </c>
       <c r="C15" s="3">
-        <v>43034.7182175926</v>
+        <v>43034.7169675926</v>
       </c>
       <c r="D15" s="3">
-        <v>43034.3371296296</v>
+        <v>43034.3369907407</v>
       </c>
       <c r="E15" s="3">
-        <v>43034.7111689815</v>
+        <v>43034.7097569444</v>
       </c>
       <c r="F15" s="3">
-        <v>43034.3407407407</v>
+        <v>43034.3381018518</v>
       </c>
       <c r="G15" s="3">
-        <v>43034.7115277778</v>
+        <v>43034.7107060185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>43035.3272569444</v>
+        <v>43035.3408449074</v>
       </c>
       <c r="B16" s="3">
-        <v>43035.3272569444</v>
+        <v>43035.3408449074</v>
       </c>
       <c r="C16" s="3">
-        <v>43035.6990393519</v>
+        <v>43035.7161921296</v>
       </c>
       <c r="D16" s="3">
-        <v>43035.342025463</v>
+        <v>43035.3322916667</v>
       </c>
       <c r="E16" s="3">
-        <v>43035.7173842593</v>
+        <v>43035.7037615741</v>
       </c>
       <c r="F16" s="3">
-        <v>43035.3246875</v>
+        <v>43035.328587963</v>
       </c>
       <c r="G16" s="3">
-        <v>43035.6964467593</v>
+        <v>43035.7079976852</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <v>43038.323587963</v>
+        <v>43038.3272337963</v>
       </c>
       <c r="B17" s="3">
-        <v>43038.323587963</v>
+        <v>43038.3272337963</v>
       </c>
       <c r="C17" s="3">
-        <v>43038.7001736111</v>
+        <v>43038.70375</v>
       </c>
       <c r="D17" s="3">
-        <v>43038.3426388889</v>
+        <v>43038.3270949074</v>
       </c>
       <c r="E17" s="3">
-        <v>43038.7153703704</v>
+        <v>43038.7052314815</v>
       </c>
       <c r="F17" s="3">
-        <v>43038.3321527778</v>
+        <v>43038.337337963</v>
       </c>
       <c r="G17" s="3">
-        <v>43038.7028703704</v>
+        <v>43038.7162847222</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>43039.3323958333</v>
+        <v>43039.3281712963</v>
       </c>
       <c r="B18" s="3">
-        <v>43039.3323958333</v>
+        <v>43039.3281712963</v>
       </c>
       <c r="C18" s="3">
-        <v>43039.7066782407</v>
+        <v>43039.6984375</v>
       </c>
       <c r="D18" s="3">
-        <v>43039.3299537037</v>
+        <v>43039.3396990741</v>
       </c>
       <c r="E18" s="3">
-        <v>43039.7065509259</v>
+        <v>43039.7183217593</v>
       </c>
       <c r="F18" s="3">
-        <v>43039.3338194444</v>
+        <v>43039.3363078704</v>
       </c>
       <c r="G18" s="3">
-        <v>43039.7052777778</v>
+        <v>43039.7154861111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>43040.3393287037</v>
+        <v>43040.3297685185</v>
       </c>
       <c r="B19" s="3">
-        <v>43040.3393287037</v>
+        <v>43040.3297685185</v>
       </c>
       <c r="C19" s="3">
-        <v>43040.7166782407</v>
+        <v>43040.7038888889</v>
       </c>
       <c r="D19" s="3">
-        <v>43040.3386226852</v>
+        <v>43040.3276736111</v>
       </c>
       <c r="E19" s="3">
-        <v>43040.7107523148</v>
+        <v>43040.69875</v>
       </c>
       <c r="F19" s="3">
-        <v>43040.3242708333</v>
+        <v>43040.3333680556</v>
       </c>
       <c r="G19" s="3">
-        <v>43040.6968287037</v>
+        <v>43040.7090740741</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>43041.3286921296</v>
+        <v>43041.3396643519</v>
       </c>
       <c r="B20" s="3">
-        <v>43041.3286921296</v>
+        <v>43041.3396643519</v>
       </c>
       <c r="C20" s="3">
-        <v>43041.7013541667</v>
+        <v>43041.718287037</v>
       </c>
       <c r="D20" s="3">
-        <v>43041.3265625</v>
+        <v>43041.3236226852</v>
       </c>
       <c r="E20" s="3">
-        <v>43041.7033564815</v>
+        <v>43041.697025463</v>
       </c>
       <c r="F20" s="3">
-        <v>43041.3273263889</v>
+        <v>43041.3257291667</v>
       </c>
       <c r="G20" s="3">
-        <v>43041.703125</v>
+        <v>43041.7027893519</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>43042.3273726852</v>
+        <v>43042.324537037</v>
       </c>
       <c r="B21" s="3">
-        <v>43042.3273726852</v>
+        <v>43042.324537037</v>
       </c>
       <c r="C21" s="3">
-        <v>43042.7056481481</v>
+        <v>43042.6968402778</v>
       </c>
       <c r="D21" s="3">
-        <v>43042.3247569444</v>
+        <v>43042.3409375</v>
       </c>
       <c r="E21" s="3">
-        <v>43042.6999537037</v>
+        <v>43042.7176041667</v>
       </c>
       <c r="F21" s="3">
-        <v>43042.3276967593</v>
+        <v>43042.3328240741</v>
       </c>
       <c r="G21" s="3">
-        <v>43042.7072222222</v>
+        <v>43042.7045138889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>43045.3267476852</v>
+        <v>43045.3252662037</v>
       </c>
       <c r="B22" s="3">
-        <v>43045.3267476852</v>
+        <v>43045.3252662037</v>
       </c>
       <c r="C22" s="3">
-        <v>43045.7038888889</v>
+        <v>43045.7001157407</v>
       </c>
       <c r="D22" s="3">
-        <v>43045.3269560185</v>
+        <v>43045.3339351852</v>
       </c>
       <c r="E22" s="3">
-        <v>43045.7035069444</v>
+        <v>43045.7049537037</v>
       </c>
       <c r="F22" s="3">
-        <v>43045.3306944444</v>
+        <v>43045.329224537</v>
       </c>
       <c r="G22" s="3">
-        <v>43045.7105092593</v>
+        <v>43045.7042361111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>43046.3394328704</v>
+        <v>43046.3353935185</v>
       </c>
       <c r="B23" s="3">
-        <v>43046.3394328704</v>
+        <v>43046.3353935185</v>
       </c>
       <c r="C23" s="3">
-        <v>43046.7154861111</v>
+        <v>43046.7150231482</v>
       </c>
       <c r="D23" s="3">
-        <v>43046.3268981481</v>
+        <v>43046.3296296296</v>
       </c>
       <c r="E23" s="3">
-        <v>43046.7017013889</v>
+        <v>43046.7050115741</v>
       </c>
       <c r="F23" s="3">
-        <v>43046.3272106481</v>
+        <v>43046.3299768519</v>
       </c>
       <c r="G23" s="3">
-        <v>43046.7055092593</v>
+        <v>43046.7025810185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>43047.3278125</v>
+        <v>43047.329837963</v>
       </c>
       <c r="B24" s="3">
-        <v>43047.3278125</v>
+        <v>43047.329837963</v>
       </c>
       <c r="C24" s="3">
-        <v>43047.7004050926</v>
+        <v>43047.7075810185</v>
       </c>
       <c r="D24" s="3">
-        <v>43047.3387037037</v>
+        <v>43047.3406712963</v>
       </c>
       <c r="E24" s="3">
-        <v>43047.7107523148</v>
+        <v>43047.7151851852</v>
       </c>
       <c r="F24" s="3">
-        <v>43047.3417592593</v>
+        <v>43047.3363310185</v>
       </c>
       <c r="G24" s="3">
-        <v>43047.7204166667</v>
+        <v>43047.7141319444</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>43048.327025463</v>
+        <v>43048.3347337963</v>
       </c>
       <c r="B25" s="3">
-        <v>43048.327025463</v>
+        <v>43048.3347337963</v>
       </c>
       <c r="C25" s="3">
-        <v>43048.7032986111</v>
+        <v>43048.7096412037</v>
       </c>
       <c r="D25" s="3">
-        <v>43048.3311111111</v>
+        <v>43048.3327314815</v>
       </c>
       <c r="E25" s="3">
-        <v>43048.7044328704</v>
+        <v>43048.7079513889</v>
       </c>
       <c r="F25" s="3">
-        <v>43048.3279282407</v>
+        <v>43048.3387962963</v>
       </c>
       <c r="G25" s="3">
-        <v>43048.7029976852</v>
+        <v>43048.7174305556</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>43049.328599537</v>
+        <v>43049.3317708333</v>
       </c>
       <c r="B26" s="3">
-        <v>43049.328599537</v>
+        <v>43049.3317708333</v>
       </c>
       <c r="C26" s="3">
-        <v>43049.7063078704</v>
+        <v>43049.7099768519</v>
       </c>
       <c r="D26" s="3">
-        <v>43049.3318634259</v>
+        <v>43049.3300115741</v>
       </c>
       <c r="E26" s="3">
-        <v>43049.7116319444</v>
+        <v>43049.7091087963</v>
       </c>
       <c r="F26" s="3">
-        <v>43049.3230787037</v>
+        <v>43049.3284722222</v>
       </c>
       <c r="G26" s="3">
-        <v>43049.6978935185</v>
+        <v>43049.7036111111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>43052.3302430556</v>
+        <v>43052.3240046296</v>
       </c>
       <c r="B27" s="3">
-        <v>43052.3302430556</v>
+        <v>43052.3240046296</v>
       </c>
       <c r="C27" s="3">
-        <v>43052.7044097222</v>
+        <v>43052.6976273148</v>
       </c>
       <c r="D27" s="3">
-        <v>43052.3341435185</v>
+        <v>43052.3371875</v>
       </c>
       <c r="E27" s="3">
-        <v>43052.7089583333</v>
+        <v>43052.7157291667</v>
       </c>
       <c r="F27" s="3">
-        <v>43052.3338310185</v>
+        <v>43052.3429513889</v>
       </c>
       <c r="G27" s="3">
-        <v>43052.7051851852</v>
+        <v>43052.7185185185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>43053.3245138889</v>
+        <v>43053.323287037</v>
       </c>
       <c r="B28" s="3">
-        <v>43053.3245138889</v>
+        <v>43053.323287037</v>
       </c>
       <c r="C28" s="3">
-        <v>43053.6954166667</v>
+        <v>43053.6940740741</v>
       </c>
       <c r="D28" s="3">
-        <v>43053.3392824074</v>
+        <v>43053.3357291667</v>
       </c>
       <c r="E28" s="3">
-        <v>43053.7187847222</v>
+        <v>43053.707650463</v>
       </c>
       <c r="F28" s="3">
-        <v>43053.3245717593</v>
+        <v>43053.334224537</v>
       </c>
       <c r="G28" s="3">
-        <v>43053.7036574074</v>
+        <v>43053.7050462963</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>43054.3358333333</v>
+        <v>43054.3360300926</v>
       </c>
       <c r="B29" s="3">
-        <v>43054.3358333333</v>
+        <v>43054.3360300926</v>
       </c>
       <c r="C29" s="3">
-        <v>43054.7123148148</v>
+        <v>43054.7063773148</v>
       </c>
       <c r="D29" s="3">
-        <v>43054.3359837963</v>
+        <v>43054.3326967593</v>
       </c>
       <c r="E29" s="3">
-        <v>43054.7132638889</v>
+        <v>43054.7029282407</v>
       </c>
       <c r="F29" s="3">
-        <v>43054.3239467593</v>
+        <v>43054.3232638889</v>
       </c>
       <c r="G29" s="3">
-        <v>43054.7011111111</v>
+        <v>43054.7015046296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>43055.3404861111</v>
+        <v>43055.3296643519</v>
       </c>
       <c r="B30" s="3">
-        <v>43055.3404861111</v>
+        <v>43055.3296643519</v>
       </c>
       <c r="C30" s="3">
-        <v>43055.7140972222</v>
+        <v>43055.7073958333</v>
       </c>
       <c r="D30" s="3">
-        <v>43055.3435648148</v>
+        <v>43055.3325810185</v>
       </c>
       <c r="E30" s="3">
-        <v>43055.720474537</v>
+        <v>43055.7107407407</v>
       </c>
       <c r="F30" s="3">
-        <v>43055.341099537</v>
+        <v>43055.3229861111</v>
       </c>
       <c r="G30" s="3">
-        <v>43055.7129976852</v>
+        <v>43055.7024768519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>43056.3410416667</v>
+        <v>43056.3246412037</v>
       </c>
       <c r="B31" s="3">
-        <v>43056.3410416667</v>
+        <v>43056.3246412037</v>
       </c>
       <c r="C31" s="3">
-        <v>43056.7171643519</v>
+        <v>43056.7027777778</v>
       </c>
       <c r="D31" s="3">
-        <v>43056.3425231481</v>
+        <v>43056.3387847222</v>
       </c>
       <c r="E31" s="3">
-        <v>43056.714525463</v>
+        <v>43056.7104861111</v>
       </c>
       <c r="F31" s="3">
-        <v>43056.327974537</v>
+        <v>43056.3232638889</v>
       </c>
       <c r="G31" s="3">
-        <v>43056.7076851852</v>
+        <v>43056.6940740741</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>43059.3301041667</v>
+        <v>43059.3249305556</v>
       </c>
       <c r="B32" s="3">
-        <v>43059.3301041667</v>
+        <v>43059.3249305556</v>
       </c>
       <c r="C32" s="3">
-        <v>43059.7073958333</v>
+        <v>43059.6966666667</v>
       </c>
       <c r="D32" s="3">
-        <v>43059.3424652778</v>
+        <v>43059.3365162037</v>
       </c>
       <c r="E32" s="3">
-        <v>43059.7205208333</v>
+        <v>43059.706724537</v>
       </c>
       <c r="F32" s="3">
-        <v>43059.3325462963</v>
+        <v>43059.3430208333</v>
       </c>
       <c r="G32" s="3">
-        <v>43059.7072800926</v>
+        <v>43059.7164930556</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>43060.3368981481</v>
+        <v>43060.3363425926</v>
       </c>
       <c r="B33" s="3">
-        <v>43060.3368981481</v>
+        <v>43060.3363425926</v>
       </c>
       <c r="C33" s="3">
-        <v>43060.7083217593</v>
+        <v>43060.7089699074</v>
       </c>
       <c r="D33" s="3">
-        <v>43060.3365393519</v>
+        <v>43060.3273726852</v>
       </c>
       <c r="E33" s="3">
-        <v>43060.7108564815</v>
+        <v>43060.7071180556</v>
       </c>
       <c r="F33" s="3">
-        <v>43060.3359837963</v>
+        <v>43060.3275462963</v>
       </c>
       <c r="G33" s="3">
-        <v>43060.7151273148</v>
+        <v>43060.705474537</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>43061.3421180556</v>
+        <v>43061.3367708333</v>
       </c>
       <c r="B34" s="3">
-        <v>43061.3421180556</v>
+        <v>43061.3367708333</v>
       </c>
       <c r="C34" s="3">
-        <v>43061.7153240741</v>
+        <v>43061.7155555556</v>
       </c>
       <c r="D34" s="3">
-        <v>43061.3273032407</v>
+        <v>43061.3309490741</v>
       </c>
       <c r="E34" s="3">
-        <v>43061.7029166667</v>
+        <v>43061.7027893519</v>
       </c>
       <c r="F34" s="3">
-        <v>43061.3434490741</v>
+        <v>43061.3288773148</v>
       </c>
       <c r="G34" s="3">
-        <v>43061.7172916667</v>
+        <v>43061.7013078704</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>43062.339837963</v>
+        <v>43062.3405787037</v>
       </c>
       <c r="B35" s="3">
-        <v>43062.339837963</v>
+        <v>43062.3405787037</v>
       </c>
       <c r="C35" s="3">
-        <v>43062.7162731482</v>
+        <v>43062.7108217593</v>
       </c>
       <c r="D35" s="3">
-        <v>43062.3410416667</v>
+        <v>43062.3395486111</v>
       </c>
       <c r="E35" s="3">
-        <v>43062.7167824074</v>
+        <v>43062.7168287037</v>
       </c>
       <c r="F35" s="3">
-        <v>43062.3248263889</v>
+        <v>43062.3291666667</v>
       </c>
       <c r="G35" s="3">
-        <v>43062.6968981481</v>
+        <v>43062.7089930556</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>43063.3373148148</v>
+        <v>43063.3301736111</v>
       </c>
       <c r="B36" s="3">
-        <v>43063.3373148148</v>
+        <v>43063.3301736111</v>
       </c>
       <c r="C36" s="3">
-        <v>43063.7126157407</v>
+        <v>43063.7022222222</v>
       </c>
       <c r="D36" s="3">
-        <v>43063.3370601852</v>
+        <v>43063.3296064815</v>
       </c>
       <c r="E36" s="3">
-        <v>43063.7078703704</v>
+        <v>43063.706099537</v>
       </c>
       <c r="F36" s="3">
-        <v>43063.3403356482</v>
+        <v>43063.3381134259</v>
       </c>
       <c r="G36" s="3">
-        <v>43063.7122800926</v>
+        <v>43063.710150463</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>43066.3389351852</v>
+        <v>43066.3432060185</v>
       </c>
       <c r="B37" s="3">
-        <v>43066.3389351852</v>
+        <v>43066.3432060185</v>
       </c>
       <c r="C37" s="3">
-        <v>43066.7144097222</v>
+        <v>43066.7210648148</v>
       </c>
       <c r="D37" s="3">
-        <v>43066.3334953704</v>
+        <v>43066.3251851852</v>
       </c>
       <c r="E37" s="3">
-        <v>43066.7123611111</v>
+        <v>43066.7043055556</v>
       </c>
       <c r="F37" s="3">
-        <v>43066.3351967593</v>
+        <v>43066.32875</v>
       </c>
       <c r="G37" s="3">
-        <v>43066.7126736111</v>
+        <v>43066.702962963</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>43067.3406134259</v>
+        <v>43067.3232060185</v>
       </c>
       <c r="B38" s="3">
-        <v>43067.3406134259</v>
+        <v>43067.3232060185</v>
       </c>
       <c r="C38" s="3">
-        <v>43067.7157407407</v>
+        <v>43067.701087963</v>
       </c>
       <c r="D38" s="3">
-        <v>43067.3324537037</v>
+        <v>43067.3305439815</v>
       </c>
       <c r="E38" s="3">
-        <v>43067.7034490741</v>
+        <v>43067.7103125</v>
       </c>
       <c r="F38" s="3">
-        <v>43067.3255208333</v>
+        <v>43067.3395486111</v>
       </c>
       <c r="G38" s="3">
-        <v>43067.7030555556</v>
+        <v>43067.7111458333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>43068.3266550926</v>
+        <v>43068.3330324074</v>
       </c>
       <c r="B39" s="3">
-        <v>43068.3266550926</v>
+        <v>43068.3330324074</v>
       </c>
       <c r="C39" s="3">
-        <v>43068.6973263889</v>
+        <v>43068.7068981482</v>
       </c>
       <c r="D39" s="3">
-        <v>43068.3262615741</v>
+        <v>43068.3234953704</v>
       </c>
       <c r="E39" s="3">
-        <v>43068.7028587963</v>
+        <v>43068.6966782407</v>
       </c>
       <c r="F39" s="3">
-        <v>43068.3432523148</v>
+        <v>43068.3346296296</v>
       </c>
       <c r="G39" s="3">
-        <v>43068.7154282407</v>
+        <v>43068.7112962963</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
-        <v>43073.3360300926</v>
-      </c>
-      <c r="B40" s="3">
-        <v>43073.3360300926</v>
-      </c>
-      <c r="C40" s="3">
-        <v>43073.7062847222</v>
-      </c>
-      <c r="D40" s="3">
-        <v>43073.3345601852</v>
-      </c>
-      <c r="E40" s="3">
-        <v>43073.7091550926</v>
-      </c>
-      <c r="F40" s="3">
-        <v>43073.3381597222</v>
-      </c>
-      <c r="G40" s="3">
-        <v>43073.7142592593</v>
+      <c r="A40" s="4">
+        <v>43069</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2">
-        <v>43074.3240856482</v>
-      </c>
-      <c r="B41" s="3">
-        <v>43074.3240856482</v>
-      </c>
-      <c r="C41" s="3">
-        <v>43074.6947800926</v>
-      </c>
-      <c r="D41" s="3">
-        <v>43074.3434259259</v>
-      </c>
-      <c r="E41" s="3">
-        <v>43074.7189351852</v>
-      </c>
-      <c r="F41" s="3">
-        <v>43074.3393865741</v>
-      </c>
-      <c r="G41" s="3">
-        <v>43074.7186342593</v>
+      <c r="A41" s="4">
+        <v>43070</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>43075.3240625</v>
+        <v>43073.333912037</v>
       </c>
       <c r="B42" s="3">
-        <v>43075.3240625</v>
+        <v>43073.333912037</v>
       </c>
       <c r="C42" s="3">
-        <v>43075.6976967593</v>
+        <v>43073.7079166667</v>
       </c>
       <c r="D42" s="3">
-        <v>43075.338599537</v>
+        <v>43073.3331481482</v>
       </c>
       <c r="E42" s="3">
-        <v>43075.7121759259</v>
+        <v>43073.7083796296</v>
       </c>
       <c r="F42" s="3">
-        <v>43075.3258680556</v>
+        <v>43073.3284143519</v>
       </c>
       <c r="G42" s="3">
-        <v>43075.6993865741</v>
+        <v>43073.7022800926</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>43076.3268518519</v>
+        <v>43074.3348842593</v>
       </c>
       <c r="B43" s="3">
-        <v>43076.3268518519</v>
+        <v>43074.3348842593</v>
       </c>
       <c r="C43" s="3">
-        <v>43076.7011574074</v>
+        <v>43074.7078819444</v>
       </c>
       <c r="D43" s="3">
-        <v>43076.3431712963</v>
+        <v>43074.3364699074</v>
       </c>
       <c r="E43" s="3">
-        <v>43076.7223148148</v>
+        <v>43074.7080671296</v>
       </c>
       <c r="F43" s="3">
-        <v>43076.3241435185</v>
+        <v>43074.3379398148</v>
       </c>
       <c r="G43" s="3">
-        <v>43076.700150463</v>
+        <v>43074.7167939815</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>43077.3399421296</v>
+        <v>43075.3318055556</v>
       </c>
       <c r="B44" s="3">
-        <v>43077.3399421296</v>
+        <v>43075.3318055556</v>
       </c>
       <c r="C44" s="3">
-        <v>43077.716087963</v>
+        <v>43075.7042476852</v>
       </c>
       <c r="D44" s="3">
-        <v>43077.3437037037</v>
+        <v>43075.3259953704</v>
       </c>
       <c r="E44" s="3">
-        <v>43077.7183564815</v>
+        <v>43075.6976157407</v>
       </c>
       <c r="F44" s="3">
-        <v>43077.3363194444</v>
+        <v>43075.3233564815</v>
       </c>
       <c r="G44" s="3">
-        <v>43077.7095486111</v>
+        <v>43075.7017939815</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>43080.3351273148</v>
+        <v>43076.3327546296</v>
       </c>
       <c r="B45" s="3">
-        <v>43080.3351273148</v>
+        <v>43076.3327546296</v>
       </c>
       <c r="C45" s="3">
-        <v>43080.708912037</v>
+        <v>43076.7031828704</v>
       </c>
       <c r="D45" s="3">
-        <v>43080.3329398148</v>
+        <v>43076.3422916667</v>
       </c>
       <c r="E45" s="3">
-        <v>43080.706712963</v>
+        <v>43076.7175694444</v>
       </c>
       <c r="F45" s="3">
-        <v>43080.3433333333</v>
+        <v>43076.3434722222</v>
       </c>
       <c r="G45" s="3">
-        <v>43080.7193287037</v>
+        <v>43076.7209722222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>43081.3397222222</v>
+        <v>43077.3329861111</v>
       </c>
       <c r="B46" s="3">
-        <v>43081.3397222222</v>
+        <v>43077.3329861111</v>
       </c>
       <c r="C46" s="3">
-        <v>43081.7111689815</v>
+        <v>43077.7113773148</v>
       </c>
       <c r="D46" s="3">
-        <v>43081.3236805556</v>
+        <v>43077.332337963</v>
       </c>
       <c r="E46" s="3">
-        <v>43081.6940046296</v>
+        <v>43077.7057291667</v>
       </c>
       <c r="F46" s="3">
-        <v>43081.3247222222</v>
+        <v>43077.3435763889</v>
       </c>
       <c r="G46" s="3">
-        <v>43081.6981828704</v>
+        <v>43077.7150115741</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>43082.3416319444</v>
+        <v>43080.3362152778</v>
       </c>
       <c r="B47" s="3">
-        <v>43082.3416319444</v>
+        <v>43080.3362152778</v>
       </c>
       <c r="C47" s="3">
-        <v>43082.7207060185</v>
+        <v>43080.7081481482</v>
       </c>
       <c r="D47" s="3">
-        <v>43082.3273726852</v>
+        <v>43080.3272337963</v>
       </c>
       <c r="E47" s="3">
-        <v>43082.7021527778</v>
+        <v>43080.7034143519</v>
       </c>
       <c r="F47" s="3">
-        <v>43082.3307407407</v>
+        <v>43080.3304976852</v>
       </c>
       <c r="G47" s="3">
-        <v>43082.7011689815</v>
+        <v>43080.7061921296</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>43083.3310300926</v>
+        <v>43081.3309143518</v>
       </c>
       <c r="B48" s="3">
-        <v>43083.3310300926</v>
+        <v>43081.3309143518</v>
       </c>
       <c r="C48" s="3">
-        <v>43083.7069791667</v>
+        <v>43081.7040277778</v>
       </c>
       <c r="D48" s="3">
-        <v>43083.3384027778</v>
+        <v>43081.3313310185</v>
       </c>
       <c r="E48" s="3">
-        <v>43083.7172569444</v>
+        <v>43081.703587963</v>
       </c>
       <c r="F48" s="3">
-        <v>43083.33</v>
+        <v>43081.3419328704</v>
       </c>
       <c r="G48" s="3">
-        <v>43083.7025</v>
+        <v>43081.7185532407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>43084.3331828704</v>
+        <v>43082.3246875</v>
       </c>
       <c r="B49" s="3">
-        <v>43084.3331828704</v>
+        <v>43082.3246875</v>
       </c>
       <c r="C49" s="3">
-        <v>43084.7076736111</v>
+        <v>43082.6950347222</v>
       </c>
       <c r="D49" s="3">
-        <v>43084.3350462963</v>
+        <v>43082.336099537</v>
       </c>
       <c r="E49" s="3">
-        <v>43084.7088657407</v>
+        <v>43082.7082638889</v>
       </c>
       <c r="F49" s="3">
-        <v>43084.3334143519</v>
+        <v>43082.3347916667</v>
       </c>
       <c r="G49" s="3">
-        <v>43084.7123032407</v>
+        <v>43082.7066087963</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>43087.3239467593</v>
+        <v>43083.3393865741</v>
       </c>
       <c r="B50" s="3">
-        <v>43087.3239467593</v>
+        <v>43083.3393865741</v>
       </c>
       <c r="C50" s="3">
-        <v>43087.7004976852</v>
+        <v>43083.7120023148</v>
       </c>
       <c r="D50" s="3">
-        <v>43087.3230324074</v>
+        <v>43083.3348842593</v>
       </c>
       <c r="E50" s="3">
-        <v>43087.7005671296</v>
+        <v>43083.7118634259</v>
       </c>
       <c r="F50" s="3">
-        <v>43087.3305787037</v>
+        <v>43083.3374074074</v>
       </c>
       <c r="G50" s="3">
-        <v>43087.7034259259</v>
+        <v>43083.7114814815</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>43088.3372222222</v>
+        <v>43084.3255324074</v>
       </c>
       <c r="B51" s="3">
-        <v>43088.3372222222</v>
+        <v>43084.3255324074</v>
       </c>
       <c r="C51" s="3">
-        <v>43088.7162847222</v>
+        <v>43084.7048726852</v>
       </c>
       <c r="D51" s="3">
-        <v>43088.3285416667</v>
+        <v>43084.3233101852</v>
       </c>
       <c r="E51" s="3">
-        <v>43088.7005555556</v>
+        <v>43084.6985185185</v>
       </c>
       <c r="F51" s="3">
-        <v>43088.3406944444</v>
+        <v>43084.3269675926</v>
       </c>
       <c r="G51" s="3">
-        <v>43088.7159143519</v>
+        <v>43084.7064236111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>43089.3320949074</v>
+        <v>43087.3404282407</v>
       </c>
       <c r="B52" s="3">
-        <v>43089.3320949074</v>
+        <v>43087.3404282407</v>
       </c>
       <c r="C52" s="3">
-        <v>43089.7075694444</v>
+        <v>43087.7138888889</v>
       </c>
       <c r="D52" s="3">
-        <v>43089.3297337963</v>
+        <v>43087.3411805556</v>
       </c>
       <c r="E52" s="3">
-        <v>43089.7078125</v>
+        <v>43087.7145601852</v>
       </c>
       <c r="F52" s="3">
-        <v>43089.3392592593</v>
+        <v>43087.3287268519</v>
       </c>
       <c r="G52" s="3">
-        <v>43089.7097916667</v>
+        <v>43087.7040740741</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>43090.3425</v>
+        <v>43088.3293981481</v>
       </c>
       <c r="B53" s="3">
-        <v>43090.3425</v>
+        <v>43088.3293981481</v>
       </c>
       <c r="C53" s="3">
-        <v>43090.719837963</v>
+        <v>43088.7038425926</v>
       </c>
       <c r="D53" s="3">
-        <v>43090.3364351852</v>
+        <v>43088.3261226852</v>
       </c>
       <c r="E53" s="3">
-        <v>43090.7100694444</v>
+        <v>43088.7028356481</v>
       </c>
       <c r="F53" s="3">
-        <v>43090.3368865741</v>
+        <v>43088.3430787037</v>
       </c>
       <c r="G53" s="3">
-        <v>43090.7150115741</v>
+        <v>43088.7171875</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>43091.323125</v>
+        <v>43089.3423726852</v>
       </c>
       <c r="B54" s="3">
-        <v>43091.323125</v>
+        <v>43089.3423726852</v>
       </c>
       <c r="C54" s="3">
-        <v>43091.7010532407</v>
+        <v>43089.7179050926</v>
       </c>
       <c r="D54" s="3">
-        <v>43091.332962963</v>
+        <v>43089.3364814815</v>
       </c>
       <c r="E54" s="3">
-        <v>43091.7093287037</v>
+        <v>43089.7137731481</v>
       </c>
       <c r="F54" s="3">
-        <v>43091.3414814815</v>
+        <v>43089.3330787037</v>
       </c>
       <c r="G54" s="3">
-        <v>43091.7190856481</v>
+        <v>43089.7106481481</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>43096.3346875</v>
+        <v>43090.3258912037</v>
       </c>
       <c r="B55" s="3">
-        <v>43096.3346875</v>
+        <v>43090.3258912037</v>
       </c>
       <c r="C55" s="3">
-        <v>43096.7103009259</v>
+        <v>43090.6982407407</v>
       </c>
       <c r="D55" s="3">
-        <v>43096.3234027778</v>
+        <v>43090.3271180556</v>
       </c>
       <c r="E55" s="3">
-        <v>43096.7003125</v>
+        <v>43090.7039236111</v>
       </c>
       <c r="F55" s="3">
-        <v>43096.3229166667</v>
+        <v>43090.3259375</v>
       </c>
       <c r="G55" s="3">
-        <v>43096.6961458333</v>
+        <v>43090.6967708333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>43097.3416550926</v>
+        <v>43091.3407638889</v>
       </c>
       <c r="B56" s="3">
-        <v>43097.3416550926</v>
+        <v>43091.3407638889</v>
       </c>
       <c r="C56" s="3">
-        <v>43097.7172800926</v>
+        <v>43091.7134143518</v>
       </c>
       <c r="D56" s="3">
-        <v>43097.3396296296</v>
+        <v>43091.339837963</v>
       </c>
       <c r="E56" s="3">
-        <v>43097.7191203704</v>
+        <v>43091.7173726852</v>
       </c>
       <c r="F56" s="3">
-        <v>43097.3425925926</v>
+        <v>43091.3277893519</v>
       </c>
       <c r="G56" s="3">
-        <v>43097.7208912037</v>
+        <v>43091.7031944444</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
-        <v>43098.3233912037</v>
-      </c>
-      <c r="B57" s="3">
-        <v>43098.3233912037</v>
-      </c>
-      <c r="C57" s="3">
-        <v>43098.7016087963</v>
-      </c>
-      <c r="D57" s="3">
-        <v>43098.3265740741</v>
-      </c>
-      <c r="E57" s="3">
-        <v>43098.7018865741</v>
-      </c>
-      <c r="F57" s="3">
-        <v>43098.3435648148</v>
-      </c>
-      <c r="G57" s="3">
-        <v>43098.7162268519</v>
+      <c r="A57" s="4">
+        <v>43094</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
-        <v>43103.3291898148</v>
-      </c>
-      <c r="B58" s="3">
-        <v>43103.3291898148</v>
-      </c>
-      <c r="C58" s="3">
-        <v>43103.7072337963</v>
-      </c>
-      <c r="D58" s="3">
-        <v>43103.3377546296</v>
-      </c>
-      <c r="E58" s="3">
-        <v>43103.7116666667</v>
-      </c>
-      <c r="F58" s="3">
-        <v>43103.3310532407</v>
-      </c>
-      <c r="G58" s="3">
-        <v>43103.7041550926</v>
+      <c r="A58" s="4">
+        <v>43095</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>43104.3345949074</v>
+        <v>43096.3300810185</v>
       </c>
       <c r="B59" s="3">
-        <v>43104.3345949074</v>
+        <v>43096.3300810185</v>
       </c>
       <c r="C59" s="3">
-        <v>43104.7142939815</v>
+        <v>43096.7023611111</v>
       </c>
       <c r="D59" s="3">
-        <v>43104.3320486111</v>
+        <v>43096.3332986111</v>
       </c>
       <c r="E59" s="3">
-        <v>43104.7078587963</v>
+        <v>43096.7095023148</v>
       </c>
       <c r="F59" s="3">
-        <v>43104.3404861111</v>
+        <v>43096.3387615741</v>
       </c>
       <c r="G59" s="3">
-        <v>43104.711724537</v>
+        <v>43096.7127083333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>43105.3343055556</v>
+        <v>43097.3350231481</v>
       </c>
       <c r="B60" s="3">
-        <v>43105.3343055556</v>
+        <v>43097.3350231481</v>
       </c>
       <c r="C60" s="3">
-        <v>43105.7067939815</v>
+        <v>43097.7075462963</v>
       </c>
       <c r="D60" s="3">
-        <v>43105.3404513889</v>
+        <v>43097.3261574074</v>
       </c>
       <c r="E60" s="3">
-        <v>43105.717662037</v>
+        <v>43097.6978125</v>
       </c>
       <c r="F60" s="3">
-        <v>43105.3315277778</v>
+        <v>43097.3335069444</v>
       </c>
       <c r="G60" s="3">
-        <v>43105.7018865741</v>
+        <v>43097.7069907407</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>43108.3294907407</v>
+        <v>43098.3332175926</v>
       </c>
       <c r="B61" s="3">
-        <v>43108.3294907407</v>
+        <v>43098.3332175926</v>
       </c>
       <c r="C61" s="3">
-        <v>43108.7025810185</v>
+        <v>43098.7123611111</v>
       </c>
       <c r="D61" s="3">
-        <v>43108.3319212963</v>
+        <v>43098.3337268519</v>
       </c>
       <c r="E61" s="3">
-        <v>43108.7093055556</v>
+        <v>43098.7129976852</v>
       </c>
       <c r="F61" s="3">
-        <v>43108.3288078704</v>
+        <v>43098.3347916667</v>
       </c>
       <c r="G61" s="3">
-        <v>43108.7054282407</v>
+        <v>43098.7109490741</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
-        <v>43109.338125</v>
-      </c>
-      <c r="B62" s="3">
-        <v>43109.338125</v>
-      </c>
-      <c r="C62" s="3">
-        <v>43109.7125</v>
-      </c>
-      <c r="D62" s="3">
-        <v>43109.3246296296</v>
-      </c>
-      <c r="E62" s="3">
-        <v>43109.6995833333</v>
-      </c>
-      <c r="F62" s="3">
-        <v>43109.3312731481</v>
-      </c>
-      <c r="G62" s="3">
-        <v>43109.7061689815</v>
+      <c r="A62" s="4">
+        <v>43101</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
-        <v>43110.3404513889</v>
-      </c>
-      <c r="B63" s="3">
-        <v>43110.3404513889</v>
-      </c>
-      <c r="C63" s="3">
-        <v>43110.7159953704</v>
-      </c>
-      <c r="D63" s="3">
-        <v>43110.3341666667</v>
-      </c>
-      <c r="E63" s="3">
-        <v>43110.7107175926</v>
-      </c>
-      <c r="F63" s="3">
-        <v>43110.3252662037</v>
-      </c>
-      <c r="G63" s="3">
-        <v>43110.7002083333</v>
+      <c r="A63" s="4">
+        <v>43102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>43111.336099537</v>
+        <v>43103.3272222222</v>
       </c>
       <c r="B64" s="3">
-        <v>43111.336099537</v>
+        <v>43103.3272222222</v>
       </c>
       <c r="C64" s="3">
-        <v>43111.7144907407</v>
+        <v>43103.7050115741</v>
       </c>
       <c r="D64" s="3">
-        <v>43111.3407407407</v>
+        <v>43103.3265393519</v>
       </c>
       <c r="E64" s="3">
-        <v>43111.7111574074</v>
+        <v>43103.7026157407</v>
       </c>
       <c r="F64" s="3">
-        <v>43111.3397916667</v>
+        <v>43103.3279398148</v>
       </c>
       <c r="G64" s="3">
-        <v>43111.7153587963</v>
+        <v>43103.6992361111</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>43112.32625</v>
+        <v>43104.3311689815</v>
       </c>
       <c r="B65" s="3">
-        <v>43112.32625</v>
+        <v>43104.3311689815</v>
       </c>
       <c r="C65" s="3">
-        <v>43112.6988194444</v>
+        <v>43104.7096527778</v>
       </c>
       <c r="D65" s="3">
-        <v>43112.3261342593</v>
+        <v>43104.3231944444</v>
       </c>
       <c r="E65" s="3">
-        <v>43112.701724537</v>
+        <v>43104.6981944444</v>
       </c>
       <c r="F65" s="3">
-        <v>43112.3315625</v>
+        <v>43104.3239236111</v>
       </c>
       <c r="G65" s="3">
-        <v>43112.7102662037</v>
+        <v>43104.6951388889</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>43115.3233449074</v>
+        <v>43105.337349537</v>
       </c>
       <c r="B66" s="3">
-        <v>43115.3233449074</v>
+        <v>43105.337349537</v>
       </c>
       <c r="C66" s="3">
-        <v>43115.7005902778</v>
+        <v>43105.7134606481</v>
       </c>
       <c r="D66" s="3">
-        <v>43115.3334606482</v>
+        <v>43105.3245138889</v>
       </c>
       <c r="E66" s="3">
-        <v>43115.7111921296</v>
+        <v>43105.7013078704</v>
       </c>
       <c r="F66" s="3">
-        <v>43115.328275463</v>
+        <v>43105.3303472222</v>
       </c>
       <c r="G66" s="3">
-        <v>43115.6991435185</v>
+        <v>43105.705</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>43116.3230208333</v>
+        <v>43108.3390162037</v>
       </c>
       <c r="B67" s="3">
-        <v>43116.3230208333</v>
+        <v>43108.3390162037</v>
       </c>
       <c r="C67" s="3">
-        <v>43116.7025810185</v>
+        <v>43108.7170833333</v>
       </c>
       <c r="D67" s="3">
-        <v>43116.3366435185</v>
+        <v>43108.3340856481</v>
       </c>
       <c r="E67" s="3">
-        <v>43116.714537037</v>
+        <v>43108.7047106481</v>
       </c>
       <c r="F67" s="3">
-        <v>43116.3404513889</v>
+        <v>43108.3397916667</v>
       </c>
       <c r="G67" s="3">
-        <v>43116.7149768519</v>
+        <v>43108.711412037</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>43117.3296875</v>
+        <v>43109.3281365741</v>
       </c>
       <c r="B68" s="3">
-        <v>43117.3296875</v>
+        <v>43109.3281365741</v>
       </c>
       <c r="C68" s="3">
-        <v>43117.7011574074</v>
+        <v>43109.7047106481</v>
       </c>
       <c r="D68" s="3">
-        <v>43117.3268518519</v>
+        <v>43109.3430902778</v>
       </c>
       <c r="E68" s="3">
-        <v>43117.7046759259</v>
+        <v>43109.7149421296</v>
       </c>
       <c r="F68" s="3">
-        <v>43117.3387384259</v>
+        <v>43109.3410763889</v>
       </c>
       <c r="G68" s="3">
-        <v>43117.7114699074</v>
+        <v>43109.718287037</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>43118.3357523148</v>
+        <v>43110.3359837963</v>
       </c>
       <c r="B69" s="3">
-        <v>43118.3357523148</v>
+        <v>43110.3359837963</v>
       </c>
       <c r="C69" s="3">
-        <v>43118.7108101852</v>
+        <v>43110.7065162037</v>
       </c>
       <c r="D69" s="3">
-        <v>43118.3276157407</v>
+        <v>43110.3298032407</v>
       </c>
       <c r="E69" s="3">
-        <v>43118.7068518519</v>
+        <v>43110.7009375</v>
       </c>
       <c r="F69" s="3">
-        <v>43118.326099537</v>
+        <v>43110.3246643519</v>
       </c>
       <c r="G69" s="3">
-        <v>43118.6972106481</v>
+        <v>43110.6954050926</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>43119.3316666667</v>
+        <v>43111.3252430556</v>
       </c>
       <c r="B70" s="3">
-        <v>43119.3316666667</v>
+        <v>43111.3252430556</v>
       </c>
       <c r="C70" s="3">
-        <v>43119.7061458333</v>
+        <v>43111.7046296296</v>
       </c>
       <c r="D70" s="3">
-        <v>43119.3376157407</v>
+        <v>43111.3233564815</v>
       </c>
       <c r="E70" s="3">
-        <v>43119.7137037037</v>
+        <v>43111.7022337963</v>
       </c>
       <c r="F70" s="3">
-        <v>43119.337025463</v>
+        <v>43111.3359375</v>
       </c>
       <c r="G70" s="3">
-        <v>43119.7094675926</v>
+        <v>43111.7071180556</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>43122.3316319444</v>
+        <v>43112.3229861111</v>
       </c>
       <c r="B71" s="3">
-        <v>43122.3316319444</v>
+        <v>43112.3229861111</v>
       </c>
       <c r="C71" s="3">
-        <v>43122.7019097222</v>
+        <v>43112.7004976852</v>
       </c>
       <c r="D71" s="3">
-        <v>43122.3321643519</v>
+        <v>43112.3301967593</v>
       </c>
       <c r="E71" s="3">
-        <v>43122.705775463</v>
+        <v>43112.7067708333</v>
       </c>
       <c r="F71" s="3">
-        <v>43122.3377662037</v>
+        <v>43112.3379861111</v>
       </c>
       <c r="G71" s="3">
-        <v>43122.716400463</v>
+        <v>43112.7119328704</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>43123.3240162037</v>
+        <v>43115.3368981481</v>
       </c>
       <c r="B72" s="3">
-        <v>43123.3240162037</v>
+        <v>43115.3368981481</v>
       </c>
       <c r="C72" s="3">
-        <v>43123.694375</v>
+        <v>43115.7122685185</v>
       </c>
       <c r="D72" s="3">
-        <v>43123.3321064815</v>
+        <v>43115.3431597222</v>
       </c>
       <c r="E72" s="3">
-        <v>43123.7098611111</v>
+        <v>43115.7182060185</v>
       </c>
       <c r="F72" s="3">
-        <v>43123.329525463</v>
+        <v>43115.3428356481</v>
       </c>
       <c r="G72" s="3">
-        <v>43123.706087963</v>
+        <v>43115.7188310185</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>43125.3328356482</v>
+        <v>43116.334212963</v>
       </c>
       <c r="B73" s="3">
-        <v>43125.3328356482</v>
+        <v>43116.334212963</v>
       </c>
       <c r="C73" s="3">
-        <v>43125.7053125</v>
+        <v>43116.7061458333</v>
       </c>
       <c r="D73" s="3">
-        <v>43125.334837963</v>
+        <v>43116.3320023148</v>
       </c>
       <c r="E73" s="3">
-        <v>43125.7056944444</v>
+        <v>43116.7036689815</v>
       </c>
       <c r="F73" s="3">
-        <v>43125.3366203704</v>
+        <v>43116.331099537</v>
       </c>
       <c r="G73" s="3">
-        <v>43125.7091550926</v>
+        <v>43116.7083101852</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>43126.3252430556</v>
+        <v>43117.3247106482</v>
       </c>
       <c r="B74" s="3">
-        <v>43126.3252430556</v>
+        <v>43117.3247106482</v>
       </c>
       <c r="C74" s="3">
-        <v>43126.6960300926</v>
+        <v>43117.6961226852</v>
       </c>
       <c r="D74" s="3">
-        <v>43126.340474537</v>
+        <v>43117.3306134259</v>
       </c>
       <c r="E74" s="3">
-        <v>43126.7172337963</v>
+        <v>43117.7102199074</v>
       </c>
       <c r="F74" s="3">
-        <v>43126.3302199074</v>
+        <v>43117.3315856481</v>
       </c>
       <c r="G74" s="3">
-        <v>43126.7014814815</v>
+        <v>43117.7047569444</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>43129.335787037</v>
+        <v>43118.3304398148</v>
       </c>
       <c r="B75" s="3">
-        <v>43129.335787037</v>
+        <v>43118.3304398148</v>
       </c>
       <c r="C75" s="3">
-        <v>43129.7115162037</v>
+        <v>43118.7090393519</v>
       </c>
       <c r="D75" s="3">
-        <v>43129.3388657407</v>
+        <v>43118.3333217593</v>
       </c>
       <c r="E75" s="3">
-        <v>43129.7124537037</v>
+        <v>43118.7074537037</v>
       </c>
       <c r="F75" s="3">
-        <v>43129.3362384259</v>
+        <v>43118.3314236111</v>
       </c>
       <c r="G75" s="3">
-        <v>43129.706712963</v>
+        <v>43118.7040509259</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <v>43130.3236921296</v>
+        <v>43119.3248842593</v>
       </c>
       <c r="B76" s="3">
-        <v>43130.3236921296</v>
+        <v>43119.3248842593</v>
       </c>
       <c r="C76" s="3">
-        <v>43130.6987731481</v>
+        <v>43119.6973958333</v>
       </c>
       <c r="D76" s="3">
-        <v>43130.3324537037</v>
+        <v>43119.3427199074</v>
       </c>
       <c r="E76" s="3">
-        <v>43130.7122916667</v>
+        <v>43119.7152199074</v>
       </c>
       <c r="F76" s="3">
-        <v>43130.33125</v>
+        <v>43119.3376851852</v>
       </c>
       <c r="G76" s="3">
-        <v>43130.7051736111</v>
+        <v>43119.716712963</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <v>43131.3416782407</v>
+        <v>43122.3265162037</v>
       </c>
       <c r="B77" s="3">
-        <v>43131.3416782407</v>
+        <v>43122.3265162037</v>
       </c>
       <c r="C77" s="3">
-        <v>43131.7196643519</v>
+        <v>43122.6988310185</v>
       </c>
       <c r="D77" s="3">
-        <v>43131.3341087963</v>
+        <v>43122.3378356481</v>
       </c>
       <c r="E77" s="3">
-        <v>43131.7069444444</v>
+        <v>43122.7146875</v>
       </c>
       <c r="F77" s="3">
-        <v>43131.3330555556</v>
+        <v>43122.3338194444</v>
       </c>
       <c r="G77" s="3">
-        <v>43131.7065393519</v>
+        <v>43122.7083217593</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <v>43132.3300810185</v>
+        <v>43123.3334259259</v>
       </c>
       <c r="B78" s="3">
-        <v>43132.3300810185</v>
+        <v>43123.3334259259</v>
       </c>
       <c r="C78" s="3">
-        <v>43132.7039351852</v>
+        <v>43123.7076273148</v>
       </c>
       <c r="D78" s="3">
-        <v>43132.3297569444</v>
+        <v>43123.3403472222</v>
       </c>
       <c r="E78" s="3">
-        <v>43132.7049884259</v>
+        <v>43123.7161458333</v>
       </c>
       <c r="F78" s="3">
-        <v>43132.3436805556</v>
+        <v>43123.3306712963</v>
       </c>
       <c r="G78" s="3">
-        <v>43132.7156134259</v>
+        <v>43123.7102546296</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2">
-        <v>43133.3268402778</v>
-      </c>
-      <c r="B79" s="3">
-        <v>43133.3268402778</v>
-      </c>
-      <c r="C79" s="3">
-        <v>43133.6970138889</v>
-      </c>
-      <c r="D79" s="3">
-        <v>43133.3252199074</v>
-      </c>
-      <c r="E79" s="3">
-        <v>43133.7034375</v>
-      </c>
-      <c r="F79" s="3">
-        <v>43133.3254513889</v>
-      </c>
-      <c r="G79" s="3">
-        <v>43133.6984606481</v>
+      <c r="A79" s="4">
+        <v>43124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <v>43136.337650463</v>
+        <v>43125.3354976852</v>
       </c>
       <c r="B80" s="3">
-        <v>43136.337650463</v>
+        <v>43125.3354976852</v>
       </c>
       <c r="C80" s="3">
-        <v>43136.7115162037</v>
+        <v>43125.7069791667</v>
       </c>
       <c r="D80" s="3">
-        <v>43136.3286689815</v>
+        <v>43125.3326041667</v>
       </c>
       <c r="E80" s="3">
-        <v>43136.7084143519</v>
+        <v>43125.7051388889</v>
       </c>
       <c r="F80" s="3">
-        <v>43136.3422453704</v>
+        <v>43125.324224537</v>
       </c>
       <c r="G80" s="3">
-        <v>43136.7140856481</v>
+        <v>43125.6998842593</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <v>43137.3251736111</v>
+        <v>43126.339837963</v>
       </c>
       <c r="B81" s="3">
-        <v>43137.3251736111</v>
+        <v>43126.339837963</v>
       </c>
       <c r="C81" s="3">
-        <v>43137.696875</v>
+        <v>43126.7115162037</v>
       </c>
       <c r="D81" s="3">
-        <v>43137.3334143519</v>
+        <v>43126.3374652778</v>
       </c>
       <c r="E81" s="3">
-        <v>43137.7079513889</v>
+        <v>43126.7143402778</v>
       </c>
       <c r="F81" s="3">
-        <v>43137.3231481481</v>
+        <v>43126.3249421296</v>
       </c>
       <c r="G81" s="3">
-        <v>43137.6965046296</v>
+        <v>43126.7043171296</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <v>43138.3362847222</v>
+        <v>43129.3398842593</v>
       </c>
       <c r="B82" s="3">
-        <v>43138.3362847222</v>
+        <v>43129.3398842593</v>
       </c>
       <c r="C82" s="3">
-        <v>43138.7094675926</v>
+        <v>43129.7100462963</v>
       </c>
       <c r="D82" s="3">
-        <v>43138.3330439815</v>
+        <v>43129.3236458333</v>
       </c>
       <c r="E82" s="3">
-        <v>43138.7076736111</v>
+        <v>43129.7031481481</v>
       </c>
       <c r="F82" s="3">
-        <v>43138.3302777778</v>
+        <v>43129.3423148148</v>
       </c>
       <c r="G82" s="3">
-        <v>43138.7015740741</v>
+        <v>43129.7180439815</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <v>43139.334212963</v>
+        <v>43130.3407986111</v>
       </c>
       <c r="B83" s="3">
-        <v>43139.334212963</v>
+        <v>43130.3407986111</v>
       </c>
       <c r="C83" s="3">
-        <v>43139.7059722222</v>
+        <v>43130.7135300926</v>
       </c>
       <c r="D83" s="3">
-        <v>43139.3268865741</v>
+        <v>43130.3372916667</v>
       </c>
       <c r="E83" s="3">
-        <v>43139.6972222222</v>
+        <v>43130.7124652778</v>
       </c>
       <c r="F83" s="3">
-        <v>43139.3241898148</v>
+        <v>43130.3303587963</v>
       </c>
       <c r="G83" s="3">
-        <v>43139.7027777778</v>
+        <v>43130.7012962963</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <v>43140.3345717593</v>
+        <v>43131.3282175926</v>
       </c>
       <c r="B84" s="3">
-        <v>43140.3345717593</v>
+        <v>43131.3282175926</v>
       </c>
       <c r="C84" s="3">
-        <v>43140.7052314815</v>
+        <v>43131.7005555556</v>
       </c>
       <c r="D84" s="3">
-        <v>43140.3292361111</v>
+        <v>43131.3321875</v>
       </c>
       <c r="E84" s="3">
-        <v>43140.7030439815</v>
+        <v>43131.7041898148</v>
       </c>
       <c r="F84" s="3">
-        <v>43140.3437037037</v>
+        <v>43131.335462963</v>
       </c>
       <c r="G84" s="3">
-        <v>43140.7190740741</v>
+        <v>43131.7135185185</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <v>43143.3334606482</v>
+        <v>43132.3347685185</v>
       </c>
       <c r="B85" s="3">
-        <v>43143.3334606482</v>
+        <v>43132.3347685185</v>
       </c>
       <c r="C85" s="3">
-        <v>43143.7051851852</v>
+        <v>43132.7097222222</v>
       </c>
       <c r="D85" s="3">
-        <v>43143.3300578704</v>
+        <v>43132.3395138889</v>
       </c>
       <c r="E85" s="3">
-        <v>43143.7091435185</v>
+        <v>43132.7106597222</v>
       </c>
       <c r="F85" s="3">
-        <v>43143.3333217593</v>
+        <v>43132.3380439815</v>
       </c>
       <c r="G85" s="3">
-        <v>43143.7046527778</v>
+        <v>43132.716099537</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <v>43144.3270138889</v>
+        <v>43133.3269212963</v>
       </c>
       <c r="B86" s="3">
-        <v>43144.3270138889</v>
+        <v>43133.3269212963</v>
       </c>
       <c r="C86" s="3">
-        <v>43144.6976736111</v>
+        <v>43133.6996875</v>
       </c>
       <c r="D86" s="3">
-        <v>43144.3262847222</v>
+        <v>43133.337662037</v>
       </c>
       <c r="E86" s="3">
-        <v>43144.7012962963</v>
+        <v>43133.7124074074</v>
       </c>
       <c r="F86" s="3">
-        <v>43144.3260763889</v>
+        <v>43133.3340856481</v>
       </c>
       <c r="G86" s="3">
-        <v>43144.7034375</v>
+        <v>43133.7116087963</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <v>43145.3346643519</v>
+        <v>43136.3422453704</v>
       </c>
       <c r="B87" s="3">
-        <v>43145.3346643519</v>
+        <v>43136.3422453704</v>
       </c>
       <c r="C87" s="3">
-        <v>43145.7057638889</v>
+        <v>43136.7133680556</v>
       </c>
       <c r="D87" s="3">
-        <v>43145.3412152778</v>
+        <v>43136.3313657407</v>
       </c>
       <c r="E87" s="3">
-        <v>43145.7135763889</v>
+        <v>43136.7024537037</v>
       </c>
       <c r="F87" s="3">
-        <v>43145.3320023148</v>
+        <v>43136.3371064815</v>
       </c>
       <c r="G87" s="3">
-        <v>43145.7038541667</v>
+        <v>43136.7080439815</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <v>43146.3400694444</v>
+        <v>43137.3253240741</v>
       </c>
       <c r="B88" s="3">
-        <v>43146.3400694444</v>
+        <v>43137.3253240741</v>
       </c>
       <c r="C88" s="3">
-        <v>43146.713125</v>
+        <v>43137.7042476852</v>
       </c>
       <c r="D88" s="3">
-        <v>43146.3288078704</v>
+        <v>43137.3367708333</v>
       </c>
       <c r="E88" s="3">
-        <v>43146.6996759259</v>
+        <v>43137.715775463</v>
       </c>
       <c r="F88" s="3">
-        <v>43146.329375</v>
+        <v>43137.3322106482</v>
       </c>
       <c r="G88" s="3">
-        <v>43146.7034837963</v>
+        <v>43137.7035763889</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <v>43147.3281481481</v>
+        <v>43138.3282175926</v>
       </c>
       <c r="B89" s="3">
-        <v>43147.3281481481</v>
+        <v>43138.3282175926</v>
       </c>
       <c r="C89" s="3">
-        <v>43147.705162037</v>
+        <v>43138.7040393519</v>
       </c>
       <c r="D89" s="3">
-        <v>43147.3292592593</v>
+        <v>43138.3314814815</v>
       </c>
       <c r="E89" s="3">
-        <v>43147.7022916667</v>
+        <v>43138.7097453704</v>
       </c>
       <c r="F89" s="3">
-        <v>43147.3302083333</v>
+        <v>43138.3399652778</v>
       </c>
       <c r="G89" s="3">
-        <v>43147.7075347222</v>
+        <v>43138.7136805556</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <v>43150.3429166667</v>
+        <v>43139.3343518519</v>
       </c>
       <c r="B90" s="3">
-        <v>43150.3429166667</v>
+        <v>43139.3343518519</v>
       </c>
       <c r="C90" s="3">
-        <v>43150.7188888889</v>
+        <v>43139.7049074074</v>
       </c>
       <c r="D90" s="3">
-        <v>43150.3421412037</v>
+        <v>43139.3365162037</v>
       </c>
       <c r="E90" s="3">
-        <v>43150.7168055556</v>
+        <v>43139.712974537</v>
       </c>
       <c r="F90" s="3">
-        <v>43150.3402314815</v>
+        <v>43139.3319791667</v>
       </c>
       <c r="G90" s="3">
-        <v>43150.7187847222</v>
+        <v>43139.7109143519</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <v>43151.3321759259</v>
+        <v>43140.3375694444</v>
       </c>
       <c r="B91" s="3">
-        <v>43151.3321759259</v>
+        <v>43140.3375694444</v>
       </c>
       <c r="C91" s="3">
-        <v>43151.7078125</v>
+        <v>43140.7107060185</v>
       </c>
       <c r="D91" s="3">
-        <v>43151.3399189815</v>
+        <v>43140.3379166667</v>
       </c>
       <c r="E91" s="3">
-        <v>43151.7117476852</v>
+        <v>43140.7115625</v>
       </c>
       <c r="F91" s="3">
-        <v>43151.3259143519</v>
+        <v>43140.3427430556</v>
       </c>
       <c r="G91" s="3">
-        <v>43151.7028009259</v>
+        <v>43140.7210648148</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>43152.3277314815</v>
+        <v>43143.3404166667</v>
       </c>
       <c r="B92" s="3">
-        <v>43152.3277314815</v>
+        <v>43143.3404166667</v>
       </c>
       <c r="C92" s="3">
-        <v>43152.7035416667</v>
+        <v>43143.7112847222</v>
       </c>
       <c r="D92" s="3">
-        <v>43152.3284027778</v>
+        <v>43143.3347916667</v>
       </c>
       <c r="E92" s="3">
-        <v>43152.7063078704</v>
+        <v>43143.7068634259</v>
       </c>
       <c r="F92" s="3">
-        <v>43152.3420601852</v>
+        <v>43143.3271412037</v>
       </c>
       <c r="G92" s="3">
-        <v>43152.7158912037</v>
+        <v>43143.7063078704</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>43153.3273611111</v>
+        <v>43144.3318055556</v>
       </c>
       <c r="B93" s="3">
-        <v>43153.3273611111</v>
+        <v>43144.3318055556</v>
       </c>
       <c r="C93" s="3">
-        <v>43153.7024768519</v>
+        <v>43144.7070486111</v>
       </c>
       <c r="D93" s="3">
-        <v>43153.3250694444</v>
+        <v>43144.3252314815</v>
       </c>
       <c r="E93" s="3">
-        <v>43153.700150463</v>
+        <v>43144.7012152778</v>
       </c>
       <c r="F93" s="3">
-        <v>43153.3329282407</v>
+        <v>43144.3377314815</v>
       </c>
       <c r="G93" s="3">
-        <v>43153.7114930556</v>
+        <v>43144.7155671296</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>43154.3402199074</v>
+        <v>43145.3388425926</v>
       </c>
       <c r="B94" s="3">
-        <v>43154.3402199074</v>
+        <v>43145.3388425926</v>
       </c>
       <c r="C94" s="3">
-        <v>43154.7122800926</v>
+        <v>43145.7133333333</v>
       </c>
       <c r="D94" s="3">
-        <v>43154.3279861111</v>
+        <v>43145.3343634259</v>
       </c>
       <c r="E94" s="3">
-        <v>43154.7018171296</v>
+        <v>43145.7125925926</v>
       </c>
       <c r="F94" s="3">
-        <v>43154.3351736111</v>
+        <v>43145.3312962963</v>
       </c>
       <c r="G94" s="3">
-        <v>43154.7101388889</v>
+        <v>43145.7057175926</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>43157.3359490741</v>
+        <v>43146.3321064815</v>
       </c>
       <c r="B95" s="3">
-        <v>43157.3359490741</v>
+        <v>43146.3321064815</v>
       </c>
       <c r="C95" s="3">
-        <v>43157.7152430556</v>
+        <v>43146.7075694444</v>
       </c>
       <c r="D95" s="3">
-        <v>43157.3326967593</v>
+        <v>43146.3431018519</v>
       </c>
       <c r="E95" s="3">
-        <v>43157.7092939815</v>
+        <v>43146.7214467593</v>
       </c>
       <c r="F95" s="3">
-        <v>43157.3324074074</v>
+        <v>43146.3425115741</v>
       </c>
       <c r="G95" s="3">
-        <v>43157.708125</v>
+        <v>43146.7161458333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>43158.3426736111</v>
+        <v>43147.3293981481</v>
       </c>
       <c r="B96" s="3">
-        <v>43158.3426736111</v>
+        <v>43147.3293981481</v>
       </c>
       <c r="C96" s="3">
-        <v>43158.71875</v>
+        <v>43147.7076273148</v>
       </c>
       <c r="D96" s="3">
-        <v>43158.3370833333</v>
+        <v>43147.3273611111</v>
       </c>
       <c r="E96" s="3">
-        <v>43158.7110416667</v>
+        <v>43147.7012384259</v>
       </c>
       <c r="F96" s="3">
-        <v>43158.3259490741</v>
+        <v>43147.3391666667</v>
       </c>
       <c r="G96" s="3">
-        <v>43158.7044212963</v>
+        <v>43147.7180439815</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>43159.3395486111</v>
+        <v>43150.3241435185</v>
       </c>
       <c r="B97" s="3">
-        <v>43159.3395486111</v>
+        <v>43150.3241435185</v>
       </c>
       <c r="C97" s="3">
-        <v>43159.7100347222</v>
+        <v>43150.6990277778</v>
       </c>
       <c r="D97" s="3">
-        <v>43159.3366550926</v>
+        <v>43150.3377314815</v>
       </c>
       <c r="E97" s="3">
-        <v>43159.71375</v>
+        <v>43150.7086805556</v>
       </c>
       <c r="F97" s="3">
-        <v>43159.3265046296</v>
+        <v>43150.3367708333</v>
       </c>
       <c r="G97" s="3">
-        <v>43159.7015162037</v>
+        <v>43150.7119212963</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>43160.3299652778</v>
+        <v>43151.3276851852</v>
       </c>
       <c r="B98" s="3">
-        <v>43160.3299652778</v>
+        <v>43151.3276851852</v>
       </c>
       <c r="C98" s="3">
-        <v>43160.7026041667</v>
+        <v>43151.7070833333</v>
       </c>
       <c r="D98" s="3">
-        <v>43160.3251736111</v>
+        <v>43151.3313425926</v>
       </c>
       <c r="E98" s="3">
-        <v>43160.7049421296</v>
+        <v>43151.7046643519</v>
       </c>
       <c r="F98" s="3">
-        <v>43160.3276157407</v>
+        <v>43151.3430092593</v>
       </c>
       <c r="G98" s="3">
-        <v>43160.7014467593</v>
+        <v>43151.7196990741</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>43161.3306828704</v>
+        <v>43152.3257638889</v>
       </c>
       <c r="B99" s="3">
-        <v>43161.3306828704</v>
+        <v>43152.3257638889</v>
       </c>
       <c r="C99" s="3">
-        <v>43161.7079976852</v>
+        <v>43152.6959027778</v>
       </c>
       <c r="D99" s="3">
-        <v>43161.3410532407</v>
+        <v>43152.3409259259</v>
       </c>
       <c r="E99" s="3">
-        <v>43161.7207060185</v>
+        <v>43152.7148148148</v>
       </c>
       <c r="F99" s="3">
-        <v>43161.3337615741</v>
+        <v>43152.3265856481</v>
       </c>
       <c r="G99" s="3">
-        <v>43161.7058217593</v>
+        <v>43152.6981597222</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>43164.3329166667</v>
+        <v>43153.3416666667</v>
       </c>
       <c r="B100" s="3">
-        <v>43164.3329166667</v>
+        <v>43153.3416666667</v>
       </c>
       <c r="C100" s="3">
-        <v>43164.7060532407</v>
+        <v>43153.7157291667</v>
       </c>
       <c r="D100" s="3">
-        <v>43164.3352777778</v>
+        <v>43153.3431712963</v>
       </c>
       <c r="E100" s="3">
-        <v>43164.710775463</v>
+        <v>43153.7177083333</v>
       </c>
       <c r="F100" s="3">
-        <v>43164.3354282407</v>
+        <v>43153.3236458333</v>
       </c>
       <c r="G100" s="3">
-        <v>43164.7132291667</v>
+        <v>43153.7022685185</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>43165.3371180556</v>
+        <v>43154.3288194444</v>
       </c>
       <c r="B101" s="3">
-        <v>43165.3371180556</v>
+        <v>43154.3288194444</v>
       </c>
       <c r="C101" s="3">
-        <v>43165.7078125</v>
+        <v>43154.702025463</v>
       </c>
       <c r="D101" s="3">
-        <v>43165.3389699074</v>
+        <v>43154.3241782407</v>
       </c>
       <c r="E101" s="3">
-        <v>43165.7136342593</v>
+        <v>43154.6966898148</v>
       </c>
       <c r="F101" s="3">
-        <v>43165.3281018519</v>
+        <v>43154.3229166667</v>
       </c>
       <c r="G101" s="3">
-        <v>43165.7061226852</v>
+        <v>43154.6986805556</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>43166.3345949074</v>
+        <v>43157.3357523148</v>
       </c>
       <c r="B102" s="3">
-        <v>43166.3345949074</v>
+        <v>43157.3357523148</v>
       </c>
       <c r="C102" s="3">
-        <v>43166.7091435185</v>
+        <v>43157.7116319444</v>
       </c>
       <c r="D102" s="3">
-        <v>43166.3299652778</v>
+        <v>43157.3304282407</v>
       </c>
       <c r="E102" s="3">
-        <v>43166.7083101852</v>
+        <v>43157.7031481481</v>
       </c>
       <c r="F102" s="3">
-        <v>43166.3357523148</v>
+        <v>43157.3229282407</v>
       </c>
       <c r="G102" s="3">
-        <v>43166.7109143519</v>
+        <v>43157.698912037</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>43167.3308101852</v>
+        <v>43158.3424768519</v>
       </c>
       <c r="B103" s="3">
-        <v>43167.3308101852</v>
+        <v>43158.3424768519</v>
       </c>
       <c r="C103" s="3">
-        <v>43167.7104976852</v>
+        <v>43158.7134837963</v>
       </c>
       <c r="D103" s="3">
-        <v>43167.3269444444</v>
+        <v>43158.3284490741</v>
       </c>
       <c r="E103" s="3">
-        <v>43167.7063657407</v>
+        <v>43158.6988310185</v>
       </c>
       <c r="F103" s="3">
-        <v>43167.3412962963</v>
+        <v>43158.3390856481</v>
       </c>
       <c r="G103" s="3">
-        <v>43167.7178125</v>
+        <v>43158.7155324074</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>43168.3425810185</v>
+        <v>43159.3425578704</v>
       </c>
       <c r="B104" s="3">
-        <v>43168.3425810185</v>
+        <v>43159.3425578704</v>
       </c>
       <c r="C104" s="3">
-        <v>43168.7204976852</v>
+        <v>43159.722349537</v>
       </c>
       <c r="D104" s="3">
-        <v>43168.3253935185</v>
+        <v>43159.3230324074</v>
       </c>
       <c r="E104" s="3">
-        <v>43168.6985300926</v>
+        <v>43159.7014467593</v>
       </c>
       <c r="F104" s="3">
-        <v>43168.3427662037</v>
+        <v>43159.3348842593</v>
       </c>
       <c r="G104" s="3">
-        <v>43168.7159143519</v>
+        <v>43159.711099537</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>43171.3434027778</v>
+        <v>43160.3255787037</v>
       </c>
       <c r="B105" s="3">
-        <v>43171.3434027778</v>
+        <v>43160.3255787037</v>
       </c>
       <c r="C105" s="3">
-        <v>43171.7139583333</v>
+        <v>43160.6983217593</v>
       </c>
       <c r="D105" s="3">
-        <v>43171.3436458333</v>
+        <v>43160.3349652778</v>
       </c>
       <c r="E105" s="3">
-        <v>43171.7162384259</v>
+        <v>43160.7129050926</v>
       </c>
       <c r="F105" s="3">
-        <v>43171.3236342593</v>
+        <v>43160.3326736111</v>
       </c>
       <c r="G105" s="3">
-        <v>43171.6994907407</v>
+        <v>43160.7066666667</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>43172.3256481482</v>
+        <v>43161.3431134259</v>
       </c>
       <c r="B106" s="3">
-        <v>43172.3256481482</v>
+        <v>43161.3431134259</v>
       </c>
       <c r="C106" s="3">
-        <v>43172.700462963</v>
+        <v>43161.7221875</v>
       </c>
       <c r="D106" s="3">
-        <v>43172.3274884259</v>
+        <v>43161.32875</v>
       </c>
       <c r="E106" s="3">
-        <v>43172.7055208333</v>
+        <v>43161.6988888889</v>
       </c>
       <c r="F106" s="3">
-        <v>43172.3403125</v>
+        <v>43161.3360648148</v>
       </c>
       <c r="G106" s="3">
-        <v>43172.7141666667</v>
+        <v>43161.7062384259</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>43173.3238310185</v>
+        <v>43164.3410069444</v>
       </c>
       <c r="B107" s="3">
-        <v>43173.3238310185</v>
+        <v>43164.3410069444</v>
       </c>
       <c r="C107" s="3">
-        <v>43173.695</v>
+        <v>43164.7165972222</v>
       </c>
       <c r="D107" s="3">
-        <v>43173.3418518519</v>
+        <v>43164.3422800926</v>
       </c>
       <c r="E107" s="3">
-        <v>43173.7198611111</v>
+        <v>43164.7203356481</v>
       </c>
       <c r="F107" s="3">
-        <v>43173.3325810185</v>
+        <v>43164.3340972222</v>
       </c>
       <c r="G107" s="3">
-        <v>43173.7033217593</v>
+        <v>43164.7057638889</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>43174.3424884259</v>
+        <v>43165.3319560185</v>
       </c>
       <c r="B108" s="3">
-        <v>43174.3424884259</v>
+        <v>43165.3319560185</v>
       </c>
       <c r="C108" s="3">
-        <v>43174.7179050926</v>
+        <v>43165.7069791667</v>
       </c>
       <c r="D108" s="3">
-        <v>43174.3265162037</v>
+        <v>43165.333900463</v>
       </c>
       <c r="E108" s="3">
-        <v>43174.6998611111</v>
+        <v>43165.7073148148</v>
       </c>
       <c r="F108" s="3">
-        <v>43174.3235763889</v>
+        <v>43165.3357638889</v>
       </c>
       <c r="G108" s="3">
-        <v>43174.6967939815</v>
+        <v>43165.7083796296</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>43175.3422800926</v>
+        <v>43166.329537037</v>
       </c>
       <c r="B109" s="3">
-        <v>43175.3422800926</v>
+        <v>43166.329537037</v>
       </c>
       <c r="C109" s="3">
-        <v>43175.712974537</v>
+        <v>43166.7068518519</v>
       </c>
       <c r="D109" s="3">
-        <v>43175.3268518519</v>
+        <v>43166.325462963</v>
       </c>
       <c r="E109" s="3">
-        <v>43175.7036689815</v>
+        <v>43166.7037268519</v>
       </c>
       <c r="F109" s="3">
-        <v>43175.3315046296</v>
+        <v>43166.3384953704</v>
       </c>
       <c r="G109" s="3">
-        <v>43175.711099537</v>
+        <v>43166.7086574074</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>43178.325</v>
+        <v>43167.3349074074</v>
       </c>
       <c r="B110" s="3">
-        <v>43178.325</v>
+        <v>43167.3349074074</v>
       </c>
       <c r="C110" s="3">
-        <v>43178.6954282407</v>
+        <v>43167.708287037</v>
       </c>
       <c r="D110" s="3">
-        <v>43178.3303819444</v>
+        <v>43167.3406597222</v>
       </c>
       <c r="E110" s="3">
-        <v>43178.7071527778</v>
+        <v>43167.7116550926</v>
       </c>
       <c r="F110" s="3">
-        <v>43178.3362152778</v>
+        <v>43167.3409259259</v>
       </c>
       <c r="G110" s="3">
-        <v>43178.7082291667</v>
+        <v>43167.7165509259</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>43179.3299305556</v>
+        <v>43168.3333796296</v>
       </c>
       <c r="B111" s="3">
-        <v>43179.3299305556</v>
+        <v>43168.3333796296</v>
       </c>
       <c r="C111" s="3">
-        <v>43179.7035763889</v>
+        <v>43168.7113541667</v>
       </c>
       <c r="D111" s="3">
-        <v>43179.3391087963</v>
+        <v>43168.3431018519</v>
       </c>
       <c r="E111" s="3">
-        <v>43179.7182175926</v>
+        <v>43168.7191782407</v>
       </c>
       <c r="F111" s="3">
-        <v>43179.3287615741</v>
+        <v>43168.3370949074</v>
       </c>
       <c r="G111" s="3">
-        <v>43179.7037731481</v>
+        <v>43168.7087962963</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>43180.3318287037</v>
+        <v>43171.3392592593</v>
       </c>
       <c r="B112" s="3">
-        <v>43180.3318287037</v>
+        <v>43171.3392592593</v>
       </c>
       <c r="C112" s="3">
-        <v>43180.7074421296</v>
+        <v>43171.7095949074</v>
       </c>
       <c r="D112" s="3">
-        <v>43180.3418287037</v>
+        <v>43171.3275462963</v>
       </c>
       <c r="E112" s="3">
-        <v>43180.7185532407</v>
+        <v>43171.7069328704</v>
       </c>
       <c r="F112" s="3">
-        <v>43180.3246412037</v>
+        <v>43171.3411111111</v>
       </c>
       <c r="G112" s="3">
-        <v>43180.7037731481</v>
+        <v>43171.7148032407</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>43181.3274074074</v>
+        <v>43172.3267476852</v>
       </c>
       <c r="B113" s="3">
-        <v>43181.3274074074</v>
+        <v>43172.3267476852</v>
       </c>
       <c r="C113" s="3">
-        <v>43181.7032291667</v>
+        <v>43172.7003703704</v>
       </c>
       <c r="D113" s="3">
-        <v>43181.3279398148</v>
+        <v>43172.3414583333</v>
       </c>
       <c r="E113" s="3">
-        <v>43181.7055439815</v>
+        <v>43172.7147337963</v>
       </c>
       <c r="F113" s="3">
-        <v>43181.343275463</v>
+        <v>43172.3236226852</v>
       </c>
       <c r="G113" s="3">
-        <v>43181.7162731482</v>
+        <v>43172.6999537037</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>43182.3282407407</v>
+        <v>43173.3273263889</v>
       </c>
       <c r="B114" s="3">
-        <v>43182.3282407407</v>
+        <v>43173.3273263889</v>
       </c>
       <c r="C114" s="3">
-        <v>43182.7035069444</v>
+        <v>43173.701724537</v>
       </c>
       <c r="D114" s="3">
-        <v>43182.340462963</v>
+        <v>43173.3388078704</v>
       </c>
       <c r="E114" s="3">
-        <v>43182.7121759259</v>
+        <v>43173.7120717593</v>
       </c>
       <c r="F114" s="3">
-        <v>43182.3348032407</v>
+        <v>43173.3248842593</v>
       </c>
       <c r="G114" s="3">
-        <v>43182.7140277778</v>
+        <v>43173.6966319444</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>43185.3387615741</v>
+        <v>43174.3410763889</v>
       </c>
       <c r="B115" s="3">
-        <v>43185.3387615741</v>
+        <v>43174.3410763889</v>
       </c>
       <c r="C115" s="3">
-        <v>43185.7143981481</v>
+        <v>43174.7127893519</v>
       </c>
       <c r="D115" s="3">
-        <v>43185.3254166667</v>
+        <v>43174.3373726852</v>
       </c>
       <c r="E115" s="3">
-        <v>43185.6983912037</v>
+        <v>43174.710787037</v>
       </c>
       <c r="F115" s="3">
-        <v>43185.3427199074</v>
+        <v>43174.3253819444</v>
       </c>
       <c r="G115" s="3">
-        <v>43185.7218865741</v>
+        <v>43174.7030208333</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>43186.3422337963</v>
+        <v>43175.338900463</v>
       </c>
       <c r="B116" s="3">
-        <v>43186.3422337963</v>
+        <v>43175.338900463</v>
       </c>
       <c r="C116" s="3">
-        <v>43186.717349537</v>
+        <v>43175.7115046296</v>
       </c>
       <c r="D116" s="3">
-        <v>43186.3271759259</v>
+        <v>43175.323912037</v>
       </c>
       <c r="E116" s="3">
-        <v>43186.700474537</v>
+        <v>43175.6942824074</v>
       </c>
       <c r="F116" s="3">
-        <v>43186.341400463</v>
+        <v>43175.3427199074</v>
       </c>
       <c r="G116" s="3">
-        <v>43186.7130092593</v>
+        <v>43175.719375</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>43187.3276388889</v>
+        <v>43178.3371759259</v>
       </c>
       <c r="B117" s="3">
-        <v>43187.3276388889</v>
+        <v>43178.3371759259</v>
       </c>
       <c r="C117" s="3">
-        <v>43187.7041087963</v>
+        <v>43178.7087152778</v>
       </c>
       <c r="D117" s="3">
-        <v>43187.3376041667</v>
+        <v>43178.3408912037</v>
       </c>
       <c r="E117" s="3">
-        <v>43187.7113541667</v>
+        <v>43178.712962963</v>
       </c>
       <c r="F117" s="3">
-        <v>43187.3258101852</v>
+        <v>43178.3298611111</v>
       </c>
       <c r="G117" s="3">
-        <v>43187.6963541667</v>
+        <v>43178.7054513889</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <v>43188.3420486111</v>
+        <v>43179.3387268518</v>
       </c>
       <c r="B118" s="3">
-        <v>43188.3420486111</v>
+        <v>43179.3387268518</v>
       </c>
       <c r="C118" s="3">
-        <v>43188.7159375</v>
+        <v>43179.7126273148</v>
       </c>
       <c r="D118" s="3">
-        <v>43188.3373958333</v>
+        <v>43179.3351967593</v>
       </c>
       <c r="E118" s="3">
-        <v>43188.7109375</v>
+        <v>43179.7099537037</v>
       </c>
       <c r="F118" s="3">
-        <v>43188.3357523148</v>
+        <v>43179.3417592593</v>
       </c>
       <c r="G118" s="3">
-        <v>43188.7091087963</v>
+        <v>43179.7155208333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <v>43189.3230208333</v>
+        <v>43180.337349537</v>
       </c>
       <c r="B119" s="3">
-        <v>43189.3230208333</v>
+        <v>43180.337349537</v>
       </c>
       <c r="C119" s="3">
-        <v>43189.7007060185</v>
+        <v>43180.7099074074</v>
       </c>
       <c r="D119" s="3">
-        <v>43189.3403125</v>
+        <v>43180.3229282407</v>
       </c>
       <c r="E119" s="3">
-        <v>43189.714525463</v>
+        <v>43180.6960185185</v>
       </c>
       <c r="F119" s="3">
-        <v>43189.324537037</v>
+        <v>43180.3404398148</v>
       </c>
       <c r="G119" s="3">
-        <v>43189.698587963</v>
+        <v>43180.7164236111</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <v>43192.3271759259</v>
+        <v>43181.3257523148</v>
       </c>
       <c r="B120" s="3">
-        <v>43192.3271759259</v>
+        <v>43181.3257523148</v>
       </c>
       <c r="C120" s="3">
-        <v>43192.6995486111</v>
+        <v>43181.6991550926</v>
       </c>
       <c r="D120" s="3">
-        <v>43192.3355208333</v>
+        <v>43181.3423611111</v>
       </c>
       <c r="E120" s="3">
-        <v>43192.7070949074</v>
+        <v>43181.7133333333</v>
       </c>
       <c r="F120" s="3">
-        <v>43192.333275463</v>
+        <v>43181.326087963</v>
       </c>
       <c r="G120" s="3">
-        <v>43192.7114236111</v>
+        <v>43181.6968287037</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <v>43193.3347337963</v>
+        <v>43182.3350347222</v>
       </c>
       <c r="B121" s="3">
-        <v>43193.3347337963</v>
+        <v>43182.3350347222</v>
       </c>
       <c r="C121" s="3">
-        <v>43193.705162037</v>
+        <v>43182.712662037</v>
       </c>
       <c r="D121" s="3">
-        <v>43193.3310185185</v>
+        <v>43182.3353356481</v>
       </c>
       <c r="E121" s="3">
-        <v>43193.7102430556</v>
+        <v>43182.7122453704</v>
       </c>
       <c r="F121" s="3">
-        <v>43193.3419560185</v>
+        <v>43182.3274421296</v>
       </c>
       <c r="G121" s="3">
-        <v>43193.7147916667</v>
+        <v>43182.7051273148</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <v>43194.3273842593</v>
+        <v>43185.3295833333</v>
       </c>
       <c r="B122" s="3">
-        <v>43194.3273842593</v>
+        <v>43185.3295833333</v>
       </c>
       <c r="C122" s="3">
-        <v>43194.7031828704</v>
+        <v>43185.701400463</v>
       </c>
       <c r="D122" s="3">
-        <v>43194.3309375</v>
+        <v>43185.3282175926</v>
       </c>
       <c r="E122" s="3">
-        <v>43194.7031828704</v>
+        <v>43185.6999652778</v>
       </c>
       <c r="F122" s="3">
-        <v>43194.3325231482</v>
+        <v>43185.3431712963</v>
       </c>
       <c r="G122" s="3">
-        <v>43194.711087963</v>
+        <v>43185.718587963</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <v>43195.3398148148</v>
+        <v>43186.3349652778</v>
       </c>
       <c r="B123" s="3">
-        <v>43195.3398148148</v>
+        <v>43186.3349652778</v>
       </c>
       <c r="C123" s="3">
-        <v>43195.7144907407</v>
+        <v>43186.708900463</v>
       </c>
       <c r="D123" s="3">
-        <v>43195.3321875</v>
+        <v>43186.3346759259</v>
       </c>
       <c r="E123" s="3">
-        <v>43195.7107523148</v>
+        <v>43186.706875</v>
       </c>
       <c r="F123" s="3">
-        <v>43195.3383101852</v>
+        <v>43186.3381018518</v>
       </c>
       <c r="G123" s="3">
-        <v>43195.7158680556</v>
+        <v>43186.715787037</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <v>43196.3347337963</v>
+        <v>43187.3429976852</v>
       </c>
       <c r="B124" s="3">
-        <v>43196.3347337963</v>
+        <v>43187.3429976852</v>
       </c>
       <c r="C124" s="3">
-        <v>43196.7115972222</v>
+        <v>43187.717974537</v>
       </c>
       <c r="D124" s="3">
-        <v>43196.3330092593</v>
+        <v>43187.3324074074</v>
       </c>
       <c r="E124" s="3">
-        <v>43196.711400463</v>
+        <v>43187.71125</v>
       </c>
       <c r="F124" s="3">
-        <v>43196.3311111111</v>
+        <v>43187.3304513889</v>
       </c>
       <c r="G124" s="3">
-        <v>43196.7023148148</v>
+        <v>43187.7055208333</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <v>43200.3249189815</v>
+        <v>43188.3240509259</v>
       </c>
       <c r="B125" s="3">
-        <v>43200.3249189815</v>
+        <v>43188.3240509259</v>
       </c>
       <c r="C125" s="3">
-        <v>43200.7027893519</v>
+        <v>43188.7012384259</v>
       </c>
       <c r="D125" s="3">
-        <v>43200.3342361111</v>
+        <v>43188.3344907407</v>
       </c>
       <c r="E125" s="3">
-        <v>43200.7119444444</v>
+        <v>43188.7052777778</v>
       </c>
       <c r="F125" s="3">
-        <v>43200.3326851852</v>
+        <v>43188.3416319444</v>
       </c>
       <c r="G125" s="3">
-        <v>43200.7116435185</v>
+        <v>43188.7186689815</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <v>43201.3297453704</v>
+        <v>43189.3361458333</v>
       </c>
       <c r="B126" s="3">
-        <v>43201.3297453704</v>
+        <v>43189.3361458333</v>
       </c>
       <c r="C126" s="3">
-        <v>43201.7029398148</v>
+        <v>43189.710150463</v>
       </c>
       <c r="D126" s="3">
-        <v>43201.3396296296</v>
+        <v>43189.3271990741</v>
       </c>
       <c r="E126" s="3">
-        <v>43201.7115393519</v>
+        <v>43189.6976157407</v>
       </c>
       <c r="F126" s="3">
-        <v>43201.3430787037</v>
+        <v>43189.3421990741</v>
       </c>
       <c r="G126" s="3">
-        <v>43201.7185300926</v>
+        <v>43189.7140162037</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <v>43202.3362152778</v>
+        <v>43192.3317592593</v>
       </c>
       <c r="B127" s="3">
-        <v>43202.3362152778</v>
+        <v>43192.3317592593</v>
       </c>
       <c r="C127" s="3">
-        <v>43202.7107175926</v>
+        <v>43192.7074074074</v>
       </c>
       <c r="D127" s="3">
-        <v>43202.3358333333</v>
+        <v>43192.3340509259</v>
       </c>
       <c r="E127" s="3">
-        <v>43202.7148263889</v>
+        <v>43192.7127777778</v>
       </c>
       <c r="F127" s="3">
-        <v>43202.3345717593</v>
+        <v>43192.3288078704</v>
       </c>
       <c r="G127" s="3">
-        <v>43202.7086574074</v>
+        <v>43192.7035069444</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <v>43203.3431481481</v>
+        <v>43193.341712963</v>
       </c>
       <c r="B128" s="3">
-        <v>43203.3431481481</v>
+        <v>43193.341712963</v>
       </c>
       <c r="C128" s="3">
-        <v>43203.716400463</v>
+        <v>43193.7164930556</v>
       </c>
       <c r="D128" s="3">
-        <v>43203.3390277778</v>
+        <v>43193.3329976852</v>
       </c>
       <c r="E128" s="3">
-        <v>43203.7174074074</v>
+        <v>43193.7075</v>
       </c>
       <c r="F128" s="3">
-        <v>43203.3334953704</v>
+        <v>43193.3269212963</v>
       </c>
       <c r="G128" s="3">
-        <v>43203.7109027778</v>
+        <v>43193.7052083333</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <v>43206.3360416667</v>
+        <v>43194.3339814815</v>
       </c>
       <c r="B129" s="3">
-        <v>43206.3360416667</v>
+        <v>43194.3339814815</v>
       </c>
       <c r="C129" s="3">
-        <v>43206.7158680556</v>
+        <v>43194.7099074074</v>
       </c>
       <c r="D129" s="3">
-        <v>43206.334525463</v>
+        <v>43194.3233680556</v>
       </c>
       <c r="E129" s="3">
-        <v>43206.7110763889</v>
+        <v>43194.6974768518</v>
       </c>
       <c r="F129" s="3">
-        <v>43206.3380902778</v>
+        <v>43194.3376041667</v>
       </c>
       <c r="G129" s="3">
-        <v>43206.7149421296</v>
+        <v>43194.713912037</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <v>43207.3278819444</v>
+        <v>43195.3313888889</v>
       </c>
       <c r="B130" s="3">
-        <v>43207.3278819444</v>
+        <v>43195.3313888889</v>
       </c>
       <c r="C130" s="3">
-        <v>43207.7057291667</v>
+        <v>43195.7071643519</v>
       </c>
       <c r="D130" s="3">
-        <v>43207.3354861111</v>
+        <v>43195.3307291667</v>
       </c>
       <c r="E130" s="3">
-        <v>43207.7097569444</v>
+        <v>43195.7100347222</v>
       </c>
       <c r="F130" s="3">
-        <v>43207.3341550926</v>
+        <v>43195.3347222222</v>
       </c>
       <c r="G130" s="3">
-        <v>43207.7100115741</v>
+        <v>43195.7062037037</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <v>43208.3380555556</v>
+        <v>43196.3412037037</v>
       </c>
       <c r="B131" s="3">
-        <v>43208.3380555556</v>
+        <v>43196.3412037037</v>
       </c>
       <c r="C131" s="3">
-        <v>43208.7122337963</v>
+        <v>43196.7162384259</v>
       </c>
       <c r="D131" s="3">
-        <v>43208.3252662037</v>
+        <v>43196.3283796296</v>
       </c>
       <c r="E131" s="3">
-        <v>43208.7047106481</v>
+        <v>43196.705162037</v>
       </c>
       <c r="F131" s="3">
-        <v>43208.3246990741</v>
+        <v>43196.3344675926</v>
       </c>
       <c r="G131" s="3">
-        <v>43208.6950115741</v>
+        <v>43196.7085763889</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2">
-        <v>43209.32375</v>
-      </c>
-      <c r="B132" s="3">
-        <v>43209.32375</v>
-      </c>
-      <c r="C132" s="3">
-        <v>43209.6979398148</v>
-      </c>
-      <c r="D132" s="3">
-        <v>43209.3268287037</v>
-      </c>
-      <c r="E132" s="3">
-        <v>43209.7037962963</v>
-      </c>
-      <c r="F132" s="3">
-        <v>43209.3303935185</v>
-      </c>
-      <c r="G132" s="3">
-        <v>43209.7015509259</v>
+      <c r="A132" s="4">
+        <v>43199</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <v>43210.3253240741</v>
+        <v>43200.3254398148</v>
       </c>
       <c r="B133" s="3">
-        <v>43210.3253240741</v>
+        <v>43200.3254398148</v>
       </c>
       <c r="C133" s="3">
-        <v>43210.7014699074</v>
+        <v>43200.7049652778</v>
       </c>
       <c r="D133" s="3">
-        <v>43210.3239236111</v>
+        <v>43200.3262037037</v>
       </c>
       <c r="E133" s="3">
-        <v>43210.7027546296</v>
+        <v>43200.6986921296</v>
       </c>
       <c r="F133" s="3">
-        <v>43210.3375115741</v>
+        <v>43200.3334722222</v>
       </c>
       <c r="G133" s="3">
-        <v>43210.7142824074</v>
+        <v>43200.7103703704</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <v>43213.3282175926</v>
+        <v>43201.3333449074</v>
       </c>
       <c r="B134" s="3">
-        <v>43213.3282175926</v>
+        <v>43201.3333449074</v>
       </c>
       <c r="C134" s="3">
-        <v>43213.7021643519</v>
+        <v>43201.7104398148</v>
       </c>
       <c r="D134" s="3">
-        <v>43213.325150463</v>
+        <v>43201.3386458333</v>
       </c>
       <c r="E134" s="3">
-        <v>43213.7005092593</v>
+        <v>43201.7112615741</v>
       </c>
       <c r="F134" s="3">
-        <v>43213.327974537</v>
+        <v>43201.3322106482</v>
       </c>
       <c r="G134" s="3">
-        <v>43213.7022106481</v>
+        <v>43201.7116782407</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <v>43214.3268402778</v>
+        <v>43202.3278125</v>
       </c>
       <c r="B135" s="3">
-        <v>43214.3268402778</v>
+        <v>43202.3278125</v>
       </c>
       <c r="C135" s="3">
-        <v>43214.702349537</v>
+        <v>43202.7049884259</v>
       </c>
       <c r="D135" s="3">
-        <v>43214.3253009259</v>
+        <v>43202.325787037</v>
       </c>
       <c r="E135" s="3">
-        <v>43214.7034259259</v>
+        <v>43202.7030208333</v>
       </c>
       <c r="F135" s="3">
-        <v>43214.3321990741</v>
+        <v>43202.336875</v>
       </c>
       <c r="G135" s="3">
-        <v>43214.7091435185</v>
+        <v>43202.7164930556</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <v>43215.3341087963</v>
+        <v>43203.3396064815</v>
       </c>
       <c r="B136" s="3">
-        <v>43215.3341087963</v>
+        <v>43203.3396064815</v>
       </c>
       <c r="C136" s="3">
-        <v>43215.7057291667</v>
+        <v>43203.7101967593</v>
       </c>
       <c r="D136" s="3">
-        <v>43215.3332175926</v>
+        <v>43203.3276157407</v>
       </c>
       <c r="E136" s="3">
-        <v>43215.7108333333</v>
+        <v>43203.6982523148</v>
       </c>
       <c r="F136" s="3">
-        <v>43215.3279050926</v>
+        <v>43203.3281828704</v>
       </c>
       <c r="G136" s="3">
-        <v>43215.6981365741</v>
+        <v>43203.7006828704</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <v>43216.3406828704</v>
+        <v>43206.3397916667</v>
       </c>
       <c r="B137" s="3">
-        <v>43216.3406828704</v>
+        <v>43206.3397916667</v>
       </c>
       <c r="C137" s="3">
-        <v>43216.7192708333</v>
+        <v>43206.7105902778</v>
       </c>
       <c r="D137" s="3">
-        <v>43216.3246180556</v>
+        <v>43206.3299189815</v>
       </c>
       <c r="E137" s="3">
-        <v>43216.6968055556</v>
+        <v>43206.7079976852</v>
       </c>
       <c r="F137" s="3">
-        <v>43216.3328240741</v>
+        <v>43206.3315277778</v>
       </c>
       <c r="G137" s="3">
-        <v>43216.7108680556</v>
+        <v>43206.7030902778</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <v>43217.3325578704</v>
+        <v>43207.335462963</v>
       </c>
       <c r="B138" s="3">
-        <v>43217.3325578704</v>
+        <v>43207.335462963</v>
       </c>
       <c r="C138" s="3">
-        <v>43217.7056712963</v>
+        <v>43207.7079282407</v>
       </c>
       <c r="D138" s="3">
-        <v>43217.3290162037</v>
+        <v>43207.341712963</v>
       </c>
       <c r="E138" s="3">
-        <v>43217.707337963</v>
+        <v>43207.7192939815</v>
       </c>
       <c r="F138" s="3">
-        <v>43217.3287268519</v>
+        <v>43207.3406134259</v>
       </c>
       <c r="G138" s="3">
-        <v>43217.6988888889</v>
+        <v>43207.7185532407</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <v>43220.3259606482</v>
+        <v>43208.3385648148</v>
       </c>
       <c r="B139" s="3">
-        <v>43220.3259606482</v>
+        <v>43208.3385648148</v>
       </c>
       <c r="C139" s="3">
-        <v>43220.7043171296</v>
+        <v>43208.7158101852</v>
       </c>
       <c r="D139" s="3">
-        <v>43220.3341087963</v>
+        <v>43208.3331597222</v>
       </c>
       <c r="E139" s="3">
-        <v>43220.7109606481</v>
+        <v>43208.7059375</v>
       </c>
       <c r="F139" s="3">
-        <v>43220.3237384259</v>
+        <v>43208.330150463</v>
       </c>
       <c r="G139" s="3">
-        <v>43220.6959722222</v>
+        <v>43208.7090740741</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <v>43222.3385763889</v>
+        <v>43209.3330324074</v>
       </c>
       <c r="B140" s="3">
-        <v>43222.3385763889</v>
+        <v>43209.3330324074</v>
       </c>
       <c r="C140" s="3">
-        <v>43222.7159953704</v>
+        <v>43209.7091087963</v>
       </c>
       <c r="D140" s="3">
-        <v>43222.3277777778</v>
+        <v>43209.3303587963</v>
       </c>
       <c r="E140" s="3">
-        <v>43222.7015393519</v>
+        <v>43209.7010416667</v>
       </c>
       <c r="F140" s="3">
-        <v>43222.3267939815</v>
+        <v>43209.3268518519</v>
       </c>
       <c r="G140" s="3">
-        <v>43222.6990046296</v>
+        <v>43209.7001851852</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <v>43223.323275463</v>
+        <v>43210.3321296296</v>
       </c>
       <c r="B141" s="3">
-        <v>43223.323275463</v>
+        <v>43210.3321296296</v>
       </c>
       <c r="C141" s="3">
-        <v>43223.6988888889</v>
+        <v>43210.7099652778</v>
       </c>
       <c r="D141" s="3">
-        <v>43223.3288078704</v>
+        <v>43210.3309837963</v>
       </c>
       <c r="E141" s="3">
-        <v>43223.708587963</v>
+        <v>43210.7077083333</v>
       </c>
       <c r="F141" s="3">
-        <v>43223.3416782407</v>
+        <v>43210.3361921296</v>
       </c>
       <c r="G141" s="3">
-        <v>43223.7162847222</v>
+        <v>43210.7088310185</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <v>43224.3319097222</v>
+        <v>43213.3311458333</v>
       </c>
       <c r="B142" s="3">
-        <v>43224.3319097222</v>
+        <v>43213.3311458333</v>
       </c>
       <c r="C142" s="3">
-        <v>43224.7114236111</v>
+        <v>43213.7082175926</v>
       </c>
       <c r="D142" s="3">
-        <v>43224.3357986111</v>
+        <v>43213.3409722222</v>
       </c>
       <c r="E142" s="3">
-        <v>43224.7092592593</v>
+        <v>43213.719525463</v>
       </c>
       <c r="F142" s="3">
-        <v>43224.3326157407</v>
+        <v>43213.3286458333</v>
       </c>
       <c r="G142" s="3">
-        <v>43224.7031712963</v>
+        <v>43213.7044907407</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <v>43227.3278587963</v>
+        <v>43214.3309143518</v>
       </c>
       <c r="B143" s="3">
-        <v>43227.3278587963</v>
+        <v>43214.3309143518</v>
       </c>
       <c r="C143" s="3">
-        <v>43227.7039467593</v>
+        <v>43214.7024652778</v>
       </c>
       <c r="D143" s="3">
-        <v>43227.3331134259</v>
+        <v>43214.3388773148</v>
       </c>
       <c r="E143" s="3">
-        <v>43227.7034606481</v>
+        <v>43214.7151041667</v>
       </c>
       <c r="F143" s="3">
-        <v>43227.3429398148</v>
+        <v>43214.3284722222</v>
       </c>
       <c r="G143" s="3">
-        <v>43227.7163773148</v>
+        <v>43214.7025810185</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <v>43228.3411226852</v>
+        <v>43215.3338888889</v>
       </c>
       <c r="B144" s="3">
-        <v>43228.3411226852</v>
+        <v>43215.3338888889</v>
       </c>
       <c r="C144" s="3">
-        <v>43228.7188194444</v>
+        <v>43215.7076157407</v>
       </c>
       <c r="D144" s="3">
-        <v>43228.3376157407</v>
+        <v>43215.3256481482</v>
       </c>
       <c r="E144" s="3">
-        <v>43228.715462963</v>
+        <v>43215.6959722222</v>
       </c>
       <c r="F144" s="3">
-        <v>43228.3352546296</v>
+        <v>43215.3405555556</v>
       </c>
       <c r="G144" s="3">
-        <v>43228.7125</v>
+        <v>43215.7182407407</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <v>43229.3370833333</v>
+        <v>43216.3401851852</v>
       </c>
       <c r="B145" s="3">
-        <v>43229.3370833333</v>
+        <v>43216.3401851852</v>
       </c>
       <c r="C145" s="3">
-        <v>43229.7130324074</v>
+        <v>43216.7114583333</v>
       </c>
       <c r="D145" s="3">
-        <v>43229.3353703704</v>
+        <v>43216.333125</v>
       </c>
       <c r="E145" s="3">
-        <v>43229.7137384259</v>
+        <v>43216.7127777778</v>
       </c>
       <c r="F145" s="3">
-        <v>43229.3340509259</v>
+        <v>43216.3309837963</v>
       </c>
       <c r="G145" s="3">
-        <v>43229.7126273148</v>
+        <v>43216.7095138889</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <v>43230.3386689815</v>
+        <v>43217.3279513889</v>
       </c>
       <c r="B146" s="3">
-        <v>43230.3386689815</v>
+        <v>43217.3279513889</v>
       </c>
       <c r="C146" s="3">
-        <v>43230.7088773148</v>
+        <v>43217.7008217593</v>
       </c>
       <c r="D146" s="3">
-        <v>43230.3394328704</v>
+        <v>43217.3378125</v>
       </c>
       <c r="E146" s="3">
-        <v>43230.7112731481</v>
+        <v>43217.7093055556</v>
       </c>
       <c r="F146" s="3">
-        <v>43230.3354861111</v>
+        <v>43217.3306018518</v>
       </c>
       <c r="G146" s="3">
-        <v>43230.7093865741</v>
+        <v>43217.7013773148</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <v>43231.3341319444</v>
+        <v>43220.3407523148</v>
       </c>
       <c r="B147" s="3">
-        <v>43231.3341319444</v>
+        <v>43220.3407523148</v>
       </c>
       <c r="C147" s="3">
-        <v>43231.7082638889</v>
+        <v>43220.7118287037</v>
       </c>
       <c r="D147" s="3">
-        <v>43231.3399074074</v>
+        <v>43220.332349537</v>
       </c>
       <c r="E147" s="3">
-        <v>43231.7117939815</v>
+        <v>43220.7082407407</v>
       </c>
       <c r="F147" s="3">
-        <v>43231.3408912037</v>
+        <v>43220.3368287037</v>
       </c>
       <c r="G147" s="3">
-        <v>43231.7198611111</v>
+        <v>43220.7089699074</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2">
-        <v>43234.3334027778</v>
-      </c>
-      <c r="B148" s="3">
-        <v>43234.3334027778</v>
-      </c>
-      <c r="C148" s="3">
-        <v>43234.7050115741</v>
-      </c>
-      <c r="D148" s="3">
-        <v>43234.3236342593</v>
-      </c>
-      <c r="E148" s="3">
-        <v>43234.697962963</v>
-      </c>
-      <c r="F148" s="3">
-        <v>43234.338287037</v>
-      </c>
-      <c r="G148" s="3">
-        <v>43234.7171296296</v>
+      <c r="A148" s="4">
+        <v>43221</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <v>43235.3435300926</v>
+        <v>43222.340462963</v>
       </c>
       <c r="B149" s="3">
-        <v>43235.3435300926</v>
+        <v>43222.340462963</v>
       </c>
       <c r="C149" s="3">
-        <v>43235.721412037</v>
+        <v>43222.7160069444</v>
       </c>
       <c r="D149" s="3">
-        <v>43235.3384837963</v>
+        <v>43222.3422685185</v>
       </c>
       <c r="E149" s="3">
-        <v>43235.7152430556</v>
+        <v>43222.722025463</v>
       </c>
       <c r="F149" s="3">
-        <v>43235.3420486111</v>
+        <v>43222.3236226852</v>
       </c>
       <c r="G149" s="3">
-        <v>43235.7156481482</v>
+        <v>43222.6938888889</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <v>43236.3326388889</v>
+        <v>43223.3324652778</v>
       </c>
       <c r="B150" s="3">
-        <v>43236.3326388889</v>
+        <v>43223.3324652778</v>
       </c>
       <c r="C150" s="3">
-        <v>43236.7046527778</v>
+        <v>43223.7033564815</v>
       </c>
       <c r="D150" s="3">
-        <v>43236.326412037</v>
+        <v>43223.3400810185</v>
       </c>
       <c r="E150" s="3">
-        <v>43236.7018981481</v>
+        <v>43223.7190856481</v>
       </c>
       <c r="F150" s="3">
-        <v>43236.3263773148</v>
+        <v>43223.3334837963</v>
       </c>
       <c r="G150" s="3">
-        <v>43236.6970486111</v>
+        <v>43223.7114814815</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <v>43237.3273263889</v>
+        <v>43224.3364467593</v>
       </c>
       <c r="B151" s="3">
-        <v>43237.3273263889</v>
+        <v>43224.3364467593</v>
       </c>
       <c r="C151" s="3">
-        <v>43237.6991666667</v>
+        <v>43224.7100231481</v>
       </c>
       <c r="D151" s="3">
-        <v>43237.33875</v>
+        <v>43224.3341435185</v>
       </c>
       <c r="E151" s="3">
-        <v>43237.7180902778</v>
+        <v>43224.7043981481</v>
       </c>
       <c r="F151" s="3">
-        <v>43237.33375</v>
+        <v>43224.3285185185</v>
       </c>
       <c r="G151" s="3">
-        <v>43237.7133333333</v>
+        <v>43224.7013425926</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <v>43238.3333912037</v>
+        <v>43227.3369212963</v>
       </c>
       <c r="B152" s="3">
-        <v>43238.3333912037</v>
+        <v>43227.3369212963</v>
       </c>
       <c r="C152" s="3">
-        <v>43238.7087962963</v>
+        <v>43227.7154398148</v>
       </c>
       <c r="D152" s="3">
-        <v>43238.3382175926</v>
+        <v>43227.3314699074</v>
       </c>
       <c r="E152" s="3">
-        <v>43238.7153703704</v>
+        <v>43227.7046064815</v>
       </c>
       <c r="F152" s="3">
-        <v>43238.3367476852</v>
+        <v>43227.3249537037</v>
       </c>
       <c r="G152" s="3">
-        <v>43238.7143634259</v>
+        <v>43227.7025578704</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <v>43241.328287037</v>
+        <v>43228.3261689815</v>
       </c>
       <c r="B153" s="3">
-        <v>43241.328287037</v>
+        <v>43228.3261689815</v>
       </c>
       <c r="C153" s="3">
-        <v>43241.7001273148</v>
+        <v>43228.6986342593</v>
       </c>
       <c r="D153" s="3">
-        <v>43241.3288310185</v>
+        <v>43228.3244675926</v>
       </c>
       <c r="E153" s="3">
-        <v>43241.6992824074</v>
+        <v>43228.7016550926</v>
       </c>
       <c r="F153" s="3">
-        <v>43241.3368402778</v>
+        <v>43228.3251273148</v>
       </c>
       <c r="G153" s="3">
-        <v>43241.7162847222</v>
+        <v>43228.6990162037</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <v>43242.3325347222</v>
+        <v>43229.3374305556</v>
       </c>
       <c r="B154" s="3">
-        <v>43242.3325347222</v>
+        <v>43229.3374305556</v>
       </c>
       <c r="C154" s="3">
-        <v>43242.7101388889</v>
+        <v>43229.7076388889</v>
       </c>
       <c r="D154" s="3">
-        <v>43242.3250115741</v>
+        <v>43229.336875</v>
       </c>
       <c r="E154" s="3">
-        <v>43242.6991203704</v>
+        <v>43229.7119097222</v>
       </c>
       <c r="F154" s="3">
-        <v>43242.3243981482</v>
+        <v>43229.3282060185</v>
       </c>
       <c r="G154" s="3">
-        <v>43242.7017824074</v>
+        <v>43229.7047106481</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <v>43243.3434606481</v>
+        <v>43230.3419907407</v>
       </c>
       <c r="B155" s="3">
-        <v>43243.3434606481</v>
+        <v>43230.3419907407</v>
       </c>
       <c r="C155" s="3">
-        <v>43243.7200578704</v>
+        <v>43230.7176388889</v>
       </c>
       <c r="D155" s="3">
-        <v>43243.335787037</v>
+        <v>43230.3381365741</v>
       </c>
       <c r="E155" s="3">
-        <v>43243.7149768519</v>
+        <v>43230.712037037</v>
       </c>
       <c r="F155" s="3">
-        <v>43243.3255787037</v>
+        <v>43230.3290856481</v>
       </c>
       <c r="G155" s="3">
-        <v>43243.700625</v>
+        <v>43230.7067939815</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <v>43244.3265277778</v>
+        <v>43231.3394791667</v>
       </c>
       <c r="B156" s="3">
-        <v>43244.3265277778</v>
+        <v>43231.3394791667</v>
       </c>
       <c r="C156" s="3">
-        <v>43244.7042939815</v>
+        <v>43231.711412037</v>
       </c>
       <c r="D156" s="3">
-        <v>43244.329375</v>
+        <v>43231.3255439815</v>
       </c>
       <c r="E156" s="3">
-        <v>43244.7079282407</v>
+        <v>43231.7031481481</v>
       </c>
       <c r="F156" s="3">
-        <v>43244.337662037</v>
+        <v>43231.3296527778</v>
       </c>
       <c r="G156" s="3">
-        <v>43244.7127777778</v>
+        <v>43231.7044560185</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <v>43245.3280208333</v>
+        <v>43234.3398958333</v>
       </c>
       <c r="B157" s="3">
-        <v>43245.3280208333</v>
+        <v>43234.3398958333</v>
       </c>
       <c r="C157" s="3">
-        <v>43245.7029166667</v>
+        <v>43234.7116898148</v>
       </c>
       <c r="D157" s="3">
-        <v>43245.3318055556</v>
+        <v>43234.331087963</v>
       </c>
       <c r="E157" s="3">
-        <v>43245.7041666667</v>
+        <v>43234.703287037</v>
       </c>
       <c r="F157" s="3">
-        <v>43245.3334143519</v>
+        <v>43234.325462963</v>
       </c>
       <c r="G157" s="3">
-        <v>43245.706712963</v>
+        <v>43234.6984027778</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <v>43250.3390856481</v>
+        <v>43235.3435648148</v>
       </c>
       <c r="B158" s="3">
-        <v>43250.3390856481</v>
+        <v>43235.3435648148</v>
       </c>
       <c r="C158" s="3">
-        <v>43250.7107986111</v>
+        <v>43235.7226388889</v>
       </c>
       <c r="D158" s="3">
-        <v>43250.3258796296</v>
+        <v>43235.3248148148</v>
       </c>
       <c r="E158" s="3">
-        <v>43250.6971875</v>
+        <v>43235.7043287037</v>
       </c>
       <c r="F158" s="3">
-        <v>43250.3372337963</v>
+        <v>43235.3364583333</v>
       </c>
       <c r="G158" s="3">
-        <v>43250.7134490741</v>
+        <v>43235.7102430556</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <v>43251.3434143519</v>
+        <v>43236.326087963</v>
       </c>
       <c r="B159" s="3">
-        <v>43251.3434143519</v>
+        <v>43236.326087963</v>
       </c>
       <c r="C159" s="3">
-        <v>43251.7142708333</v>
+        <v>43236.7021990741</v>
       </c>
       <c r="D159" s="3">
-        <v>43251.3299652778</v>
+        <v>43236.3233564815</v>
       </c>
       <c r="E159" s="3">
-        <v>43251.7083217593</v>
+        <v>43236.7002777778</v>
       </c>
       <c r="F159" s="3">
-        <v>43251.3344212963</v>
+        <v>43236.3436921296</v>
       </c>
       <c r="G159" s="3">
-        <v>43251.7076273148</v>
+        <v>43236.7168287037</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <v>43255.3266550926</v>
+        <v>43237.3267592593</v>
       </c>
       <c r="B160" s="3">
-        <v>43255.3266550926</v>
+        <v>43237.3267592593</v>
       </c>
       <c r="C160" s="3">
-        <v>43255.7016782407</v>
+        <v>43237.6984953704</v>
       </c>
       <c r="D160" s="3">
-        <v>43255.3273726852</v>
+        <v>43237.3244907407</v>
       </c>
       <c r="E160" s="3">
-        <v>43255.6977662037</v>
+        <v>43237.6984722222</v>
       </c>
       <c r="F160" s="3">
-        <v>43255.3259143519</v>
+        <v>43237.3409027778</v>
       </c>
       <c r="G160" s="3">
-        <v>43255.6995601852</v>
+        <v>43237.7204398148</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <v>43256.3384259259</v>
+        <v>43238.3254050926</v>
       </c>
       <c r="B161" s="3">
-        <v>43256.3384259259</v>
+        <v>43238.3254050926</v>
       </c>
       <c r="C161" s="3">
-        <v>43256.7131944444</v>
+        <v>43238.7050231481</v>
       </c>
       <c r="D161" s="3">
-        <v>43256.3268402778</v>
+        <v>43238.3420138889</v>
       </c>
       <c r="E161" s="3">
-        <v>43256.7000231482</v>
+        <v>43238.7173148148</v>
       </c>
       <c r="F161" s="3">
-        <v>43256.3248032407</v>
+        <v>43238.3258564815</v>
       </c>
       <c r="G161" s="3">
-        <v>43256.6999074074</v>
+        <v>43238.6969444444</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <v>43257.3377546296</v>
+        <v>43241.3320486111</v>
       </c>
       <c r="B162" s="3">
-        <v>43257.3377546296</v>
+        <v>43241.3320486111</v>
       </c>
       <c r="C162" s="3">
-        <v>43257.7136342593</v>
+        <v>43241.7034606481</v>
       </c>
       <c r="D162" s="3">
-        <v>43257.3424884259</v>
+        <v>43241.3252083333</v>
       </c>
       <c r="E162" s="3">
-        <v>43257.7152199074</v>
+        <v>43241.7025</v>
       </c>
       <c r="F162" s="3">
-        <v>43257.3413888889</v>
+        <v>43241.3406134259</v>
       </c>
       <c r="G162" s="3">
-        <v>43257.7171412037</v>
+        <v>43241.7172569444</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <v>43258.339525463</v>
+        <v>43242.3413888889</v>
       </c>
       <c r="B163" s="3">
-        <v>43258.339525463</v>
+        <v>43242.3413888889</v>
       </c>
       <c r="C163" s="3">
-        <v>43258.7148032407</v>
+        <v>43242.712662037</v>
       </c>
       <c r="D163" s="3">
-        <v>43258.3235185185</v>
+        <v>43242.3388541667</v>
       </c>
       <c r="E163" s="3">
-        <v>43258.6967592593</v>
+        <v>43242.7105324074</v>
       </c>
       <c r="F163" s="3">
-        <v>43258.3249305556</v>
+        <v>43242.334849537</v>
       </c>
       <c r="G163" s="3">
-        <v>43258.7033449074</v>
+        <v>43242.7128240741</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <v>43259.3357060185</v>
+        <v>43243.332962963</v>
       </c>
       <c r="B164" s="3">
-        <v>43259.3357060185</v>
+        <v>43243.332962963</v>
       </c>
       <c r="C164" s="3">
-        <v>43259.7101388889</v>
+        <v>43243.7081481482</v>
       </c>
       <c r="D164" s="3">
-        <v>43259.3427893519</v>
+        <v>43243.3232291667</v>
       </c>
       <c r="E164" s="3">
-        <v>43259.7216898148</v>
+        <v>43243.6941898148</v>
       </c>
       <c r="F164" s="3">
-        <v>43259.3259837963</v>
+        <v>43243.3355324074</v>
       </c>
       <c r="G164" s="3">
-        <v>43259.7016319444</v>
+        <v>43243.7074884259</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <v>43262.3305555556</v>
+        <v>43244.3268634259</v>
       </c>
       <c r="B165" s="3">
-        <v>43262.3305555556</v>
+        <v>43244.3268634259</v>
       </c>
       <c r="C165" s="3">
-        <v>43262.7037152778</v>
+        <v>43244.7039236111</v>
       </c>
       <c r="D165" s="3">
-        <v>43262.3265740741</v>
+        <v>43244.3353935185</v>
       </c>
       <c r="E165" s="3">
-        <v>43262.7050810185</v>
+        <v>43244.7127546296</v>
       </c>
       <c r="F165" s="3">
-        <v>43262.3244907407</v>
+        <v>43244.3349074074</v>
       </c>
       <c r="G165" s="3">
-        <v>43262.6983449074</v>
+        <v>43244.7070486111</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <v>43263.329525463</v>
+        <v>43245.3276157407</v>
       </c>
       <c r="B166" s="3">
-        <v>43263.329525463</v>
+        <v>43245.3276157407</v>
       </c>
       <c r="C166" s="3">
-        <v>43263.7030555556</v>
+        <v>43245.6981944444</v>
       </c>
       <c r="D166" s="3">
-        <v>43263.3248958333</v>
+        <v>43245.3414236111</v>
       </c>
       <c r="E166" s="3">
-        <v>43263.7033449074</v>
+        <v>43245.7204282407</v>
       </c>
       <c r="F166" s="3">
-        <v>43263.3246643519</v>
+        <v>43245.3252430556</v>
       </c>
       <c r="G166" s="3">
-        <v>43263.7014467593</v>
+        <v>43245.7035069444</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2">
-        <v>43264.3307986111</v>
-      </c>
-      <c r="B167" s="3">
-        <v>43264.3307986111</v>
-      </c>
-      <c r="C167" s="3">
-        <v>43264.7063657407</v>
-      </c>
-      <c r="D167" s="3">
-        <v>43264.3338078704</v>
-      </c>
-      <c r="E167" s="3">
-        <v>43264.7105787037</v>
-      </c>
-      <c r="F167" s="3">
-        <v>43264.3239467593</v>
-      </c>
-      <c r="G167" s="3">
-        <v>43264.6953472222</v>
+      <c r="A167" s="4">
+        <v>43248</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2">
-        <v>43265.3340972222</v>
-      </c>
-      <c r="B168" s="3">
-        <v>43265.3340972222</v>
-      </c>
-      <c r="C168" s="3">
-        <v>43265.7124189815</v>
-      </c>
-      <c r="D168" s="3">
-        <v>43265.3356944444</v>
-      </c>
-      <c r="E168" s="3">
-        <v>43265.7090972222</v>
-      </c>
-      <c r="F168" s="3">
-        <v>43265.3373611111</v>
-      </c>
-      <c r="G168" s="3">
-        <v>43265.7165277778</v>
+      <c r="A168" s="4">
+        <v>43249</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <v>43266.3241782407</v>
+        <v>43250.3391782407</v>
       </c>
       <c r="B169" s="3">
-        <v>43266.3241782407</v>
+        <v>43250.3391782407</v>
       </c>
       <c r="C169" s="3">
-        <v>43266.7029513889</v>
+        <v>43250.7158680556</v>
       </c>
       <c r="D169" s="3">
-        <v>43266.328287037</v>
+        <v>43250.3425231481</v>
       </c>
       <c r="E169" s="3">
-        <v>43266.7071412037</v>
+        <v>43250.718287037</v>
       </c>
       <c r="F169" s="3">
-        <v>43266.3395023148</v>
+        <v>43250.3290625</v>
       </c>
       <c r="G169" s="3">
-        <v>43266.716412037</v>
+        <v>43250.7044328704</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <v>43269.337650463</v>
+        <v>43251.3246180556</v>
       </c>
       <c r="B170" s="3">
-        <v>43269.337650463</v>
+        <v>43251.3246180556</v>
       </c>
       <c r="C170" s="3">
-        <v>43269.7083912037</v>
+        <v>43251.6960300926</v>
       </c>
       <c r="D170" s="3">
-        <v>43269.3241203704</v>
+        <v>43251.3381712963</v>
       </c>
       <c r="E170" s="3">
-        <v>43269.6986921296</v>
+        <v>43251.7116550926</v>
       </c>
       <c r="F170" s="3">
-        <v>43269.3307175926</v>
+        <v>43251.3361342593</v>
       </c>
       <c r="G170" s="3">
-        <v>43269.7008912037</v>
+        <v>43251.7151388889</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2">
-        <v>43270.3260416667</v>
-      </c>
-      <c r="B171" s="3">
-        <v>43270.3260416667</v>
-      </c>
-      <c r="C171" s="3">
-        <v>43270.6971990741</v>
-      </c>
-      <c r="D171" s="3">
-        <v>43270.3420949074</v>
-      </c>
-      <c r="E171" s="3">
-        <v>43270.7151041667</v>
-      </c>
-      <c r="F171" s="3">
-        <v>43270.3284953704</v>
-      </c>
-      <c r="G171" s="3">
-        <v>43270.7068634259</v>
+      <c r="A171" s="4">
+        <v>43252</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <v>43271.3393865741</v>
+        <v>43255.3424768519</v>
       </c>
       <c r="B172" s="3">
-        <v>43271.3393865741</v>
+        <v>43255.3424768519</v>
       </c>
       <c r="C172" s="3">
-        <v>43271.7096759259</v>
+        <v>43255.7182523148</v>
       </c>
       <c r="D172" s="3">
-        <v>43271.3265740741</v>
+        <v>43255.3363657407</v>
       </c>
       <c r="E172" s="3">
-        <v>43271.7031828704</v>
+        <v>43255.7072569444</v>
       </c>
       <c r="F172" s="3">
-        <v>43271.3354976852</v>
+        <v>43255.3277430556</v>
       </c>
       <c r="G172" s="3">
-        <v>43271.7059143518</v>
+        <v>43255.7063194444</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <v>43272.3317476852</v>
+        <v>43256.3361574074</v>
       </c>
       <c r="B173" s="3">
-        <v>43272.3317476852</v>
+        <v>43256.3361574074</v>
       </c>
       <c r="C173" s="3">
-        <v>43272.7113310185</v>
+        <v>43256.7078009259</v>
       </c>
       <c r="D173" s="3">
-        <v>43272.3340972222</v>
+        <v>43256.335474537</v>
       </c>
       <c r="E173" s="3">
-        <v>43272.7132407407</v>
+        <v>43256.7069907407</v>
       </c>
       <c r="F173" s="3">
-        <v>43272.32625</v>
+        <v>43256.3260648148</v>
       </c>
       <c r="G173" s="3">
-        <v>43272.6972685185</v>
+        <v>43256.704837963</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <v>43273.3388078704</v>
+        <v>43257.3232638889</v>
       </c>
       <c r="B174" s="3">
-        <v>43273.3388078704</v>
+        <v>43257.3232638889</v>
       </c>
       <c r="C174" s="3">
-        <v>43273.7094212963</v>
+        <v>43257.6970486111</v>
       </c>
       <c r="D174" s="3">
-        <v>43273.3385069444</v>
+        <v>43257.3270023148</v>
       </c>
       <c r="E174" s="3">
-        <v>43273.7143402778</v>
+        <v>43257.6996875</v>
       </c>
       <c r="F174" s="3">
-        <v>43273.3413194444</v>
+        <v>43257.329849537</v>
       </c>
       <c r="G174" s="3">
-        <v>43273.7166782407</v>
+        <v>43257.7059375</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <v>43276.3361342593</v>
+        <v>43258.3277083333</v>
       </c>
       <c r="B175" s="3">
-        <v>43276.3361342593</v>
+        <v>43258.3277083333</v>
       </c>
       <c r="C175" s="3">
-        <v>43276.7095717593</v>
+        <v>43258.7071759259</v>
       </c>
       <c r="D175" s="3">
-        <v>43276.3236921296</v>
+        <v>43258.3415740741</v>
       </c>
       <c r="E175" s="3">
-        <v>43276.7027199074</v>
+        <v>43258.7189351852</v>
       </c>
       <c r="F175" s="3">
-        <v>43276.3275231481</v>
+        <v>43258.3252546296</v>
       </c>
       <c r="G175" s="3">
-        <v>43276.69875</v>
+        <v>43258.6960416667</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <v>43277.326400463</v>
+        <v>43259.3348842593</v>
       </c>
       <c r="B176" s="3">
-        <v>43277.326400463</v>
+        <v>43259.3348842593</v>
       </c>
       <c r="C176" s="3">
-        <v>43277.7054282407</v>
+        <v>43259.7112731481</v>
       </c>
       <c r="D176" s="3">
-        <v>43277.324849537</v>
+        <v>43259.3415162037</v>
       </c>
       <c r="E176" s="3">
-        <v>43277.70375</v>
+        <v>43259.7186574074</v>
       </c>
       <c r="F176" s="3">
-        <v>43277.3300810185</v>
+        <v>43259.332349537</v>
       </c>
       <c r="G176" s="3">
-        <v>43277.7060763889</v>
+        <v>43259.7112962963</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <v>43278.335775463</v>
+        <v>43262.329212963</v>
       </c>
       <c r="B177" s="3">
-        <v>43278.335775463</v>
+        <v>43262.329212963</v>
       </c>
       <c r="C177" s="3">
-        <v>43278.7152777778</v>
+        <v>43262.7000347222</v>
       </c>
       <c r="D177" s="3">
-        <v>43278.332662037</v>
+        <v>43262.3351157407</v>
       </c>
       <c r="E177" s="3">
-        <v>43278.7041666667</v>
+        <v>43262.7101273148</v>
       </c>
       <c r="F177" s="3">
-        <v>43278.327337963</v>
+        <v>43262.3383564815</v>
       </c>
       <c r="G177" s="3">
-        <v>43278.7053009259</v>
+        <v>43262.7092708333</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <v>43279.3322569444</v>
+        <v>43263.3289583333</v>
       </c>
       <c r="B178" s="3">
-        <v>43279.3322569444</v>
+        <v>43263.3289583333</v>
       </c>
       <c r="C178" s="3">
-        <v>43279.709537037</v>
+        <v>43263.7082060185</v>
       </c>
       <c r="D178" s="3">
-        <v>43279.330462963</v>
+        <v>43263.3239236111</v>
       </c>
       <c r="E178" s="3">
-        <v>43279.7049421296</v>
+        <v>43263.6987962963</v>
       </c>
       <c r="F178" s="3">
-        <v>43279.3430208333</v>
+        <v>43263.3315625</v>
       </c>
       <c r="G178" s="3">
-        <v>43279.7132407407</v>
+        <v>43263.704537037</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <v>43280.3325578704</v>
+        <v>43264.3425925926</v>
       </c>
       <c r="B179" s="3">
-        <v>43280.3325578704</v>
+        <v>43264.3425925926</v>
       </c>
       <c r="C179" s="3">
-        <v>43280.7115625</v>
+        <v>43264.7149421296</v>
       </c>
       <c r="D179" s="3">
-        <v>43280.3230671296</v>
+        <v>43264.3348148148</v>
       </c>
       <c r="E179" s="3">
-        <v>43280.6977430556</v>
+        <v>43264.7071990741</v>
       </c>
       <c r="F179" s="3">
-        <v>43280.3246875</v>
+        <v>43264.3272685185</v>
       </c>
       <c r="G179" s="3">
-        <v>43280.6956597222</v>
+        <v>43264.7044444444</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <v>43283.3384490741</v>
+        <v>43265.3306597222</v>
       </c>
       <c r="B180" s="3">
-        <v>43283.3384490741</v>
+        <v>43265.3306597222</v>
       </c>
       <c r="C180" s="3">
-        <v>43283.7156597222</v>
+        <v>43265.7036574074</v>
       </c>
       <c r="D180" s="3">
-        <v>43283.337337963</v>
+        <v>43265.3419560185</v>
       </c>
       <c r="E180" s="3">
-        <v>43283.7168518519</v>
+        <v>43265.71625</v>
       </c>
       <c r="F180" s="3">
-        <v>43283.3369212963</v>
+        <v>43265.3260300926</v>
       </c>
       <c r="G180" s="3">
-        <v>43283.7149884259</v>
+        <v>43265.701412037</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <v>43284.3346064815</v>
+        <v>43266.3428703704</v>
       </c>
       <c r="B181" s="3">
-        <v>43284.3346064815</v>
+        <v>43266.3428703704</v>
       </c>
       <c r="C181" s="3">
-        <v>43284.7049305556</v>
+        <v>43266.7195601852</v>
       </c>
       <c r="D181" s="3">
-        <v>43284.3245486111</v>
+        <v>43266.3436574074</v>
       </c>
       <c r="E181" s="3">
-        <v>43284.6966087963</v>
+        <v>43266.7138657407</v>
       </c>
       <c r="F181" s="3">
-        <v>43284.3397916667</v>
+        <v>43266.3368171296</v>
       </c>
       <c r="G181" s="3">
-        <v>43284.714837963</v>
+        <v>43266.7086111111</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <v>43285.3312731481</v>
+        <v>43269.3419791667</v>
       </c>
       <c r="B182" s="3">
-        <v>43285.3312731481</v>
+        <v>43269.3419791667</v>
       </c>
       <c r="C182" s="3">
-        <v>43285.707962963</v>
+        <v>43269.7173726852</v>
       </c>
       <c r="D182" s="3">
-        <v>43285.3277777778</v>
+        <v>43269.3417013889</v>
       </c>
       <c r="E182" s="3">
-        <v>43285.7052662037</v>
+        <v>43269.7184027778</v>
       </c>
       <c r="F182" s="3">
-        <v>43285.3368634259</v>
+        <v>43269.3318055556</v>
       </c>
       <c r="G182" s="3">
-        <v>43285.7142361111</v>
+        <v>43269.706099537</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <v>43286.330150463</v>
+        <v>43270.3432407407</v>
       </c>
       <c r="B183" s="3">
-        <v>43286.330150463</v>
+        <v>43270.3432407407</v>
       </c>
       <c r="C183" s="3">
-        <v>43286.7082986111</v>
+        <v>43270.71375</v>
       </c>
       <c r="D183" s="3">
-        <v>43286.3403356482</v>
+        <v>43270.3342476852</v>
       </c>
       <c r="E183" s="3">
-        <v>43286.7148958333</v>
+        <v>43270.713275463</v>
       </c>
       <c r="F183" s="3">
-        <v>43286.3316898148</v>
+        <v>43270.3269791667</v>
       </c>
       <c r="G183" s="3">
-        <v>43286.7020601852</v>
+        <v>43270.7000231482</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>43287.3313657407</v>
+        <v>43271.3386805556</v>
       </c>
       <c r="B184" s="3">
-        <v>43287.3313657407</v>
+        <v>43271.3386805556</v>
       </c>
       <c r="C184" s="3">
-        <v>43287.7081712963</v>
+        <v>43271.7105324074</v>
       </c>
       <c r="D184" s="3">
-        <v>43287.3300694444</v>
+        <v>43271.3376967593</v>
       </c>
       <c r="E184" s="3">
-        <v>43287.7074421296</v>
+        <v>43271.7135185185</v>
       </c>
       <c r="F184" s="3">
-        <v>43287.3325578704</v>
+        <v>43271.3391782407</v>
       </c>
       <c r="G184" s="3">
-        <v>43287.7063194444</v>
+        <v>43271.7099652778</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <v>43290.3427546296</v>
+        <v>43272.3399537037</v>
       </c>
       <c r="B185" s="3">
-        <v>43290.3427546296</v>
+        <v>43272.3399537037</v>
       </c>
       <c r="C185" s="3">
-        <v>43290.7219675926</v>
+        <v>43272.7120601852</v>
       </c>
       <c r="D185" s="3">
-        <v>43290.3357523148</v>
+        <v>43272.3417592593</v>
       </c>
       <c r="E185" s="3">
-        <v>43290.7137268518</v>
+        <v>43272.7214930556</v>
       </c>
       <c r="F185" s="3">
-        <v>43290.3360763889</v>
+        <v>43272.3245717593</v>
       </c>
       <c r="G185" s="3">
-        <v>43290.713587963</v>
+        <v>43272.6955787037</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <v>43291.3250347222</v>
+        <v>43273.3300231481</v>
       </c>
       <c r="B186" s="3">
-        <v>43291.3250347222</v>
+        <v>43273.3300231481</v>
       </c>
       <c r="C186" s="3">
-        <v>43291.696087963</v>
+        <v>43273.7074421296</v>
       </c>
       <c r="D186" s="3">
-        <v>43291.3408680556</v>
+        <v>43273.3333101852</v>
       </c>
       <c r="E186" s="3">
-        <v>43291.7153009259</v>
+        <v>43273.7055324074</v>
       </c>
       <c r="F186" s="3">
-        <v>43291.3401736111</v>
+        <v>43273.3368055556</v>
       </c>
       <c r="G186" s="3">
-        <v>43291.7186226852</v>
+        <v>43273.7116782407</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <v>43292.3305671296</v>
+        <v>43276.3313425926</v>
       </c>
       <c r="B187" s="3">
-        <v>43292.3305671296</v>
+        <v>43276.3313425926</v>
       </c>
       <c r="C187" s="3">
-        <v>43292.7018402778</v>
+        <v>43276.7028472222</v>
       </c>
       <c r="D187" s="3">
-        <v>43292.3393287037</v>
+        <v>43276.340150463</v>
       </c>
       <c r="E187" s="3">
-        <v>43292.7168171296</v>
+        <v>43276.7181944444</v>
       </c>
       <c r="F187" s="3">
-        <v>43292.3425347222</v>
+        <v>43276.3267708333</v>
       </c>
       <c r="G187" s="3">
-        <v>43292.7140277778</v>
+        <v>43276.7025810185</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <v>43293.3302546296</v>
+        <v>43277.3247685185</v>
       </c>
       <c r="B188" s="3">
-        <v>43293.3302546296</v>
+        <v>43277.3247685185</v>
       </c>
       <c r="C188" s="3">
-        <v>43293.7065972222</v>
+        <v>43277.7032638889</v>
       </c>
       <c r="D188" s="3">
-        <v>43293.3251273148</v>
+        <v>43277.3329166667</v>
       </c>
       <c r="E188" s="3">
-        <v>43293.7039351852</v>
+        <v>43277.7103125</v>
       </c>
       <c r="F188" s="3">
-        <v>43293.324849537</v>
+        <v>43277.3365277778</v>
       </c>
       <c r="G188" s="3">
-        <v>43293.697349537</v>
+        <v>43277.7138310185</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <v>43294.3372106481</v>
+        <v>43278.3433449074</v>
       </c>
       <c r="B189" s="3">
-        <v>43294.3372106481</v>
+        <v>43278.3433449074</v>
       </c>
       <c r="C189" s="3">
-        <v>43294.7141203704</v>
+        <v>43278.7190509259</v>
       </c>
       <c r="D189" s="3">
-        <v>43294.325775463</v>
+        <v>43278.3295717593</v>
       </c>
       <c r="E189" s="3">
-        <v>43294.6985648148</v>
+        <v>43278.7088773148</v>
       </c>
       <c r="F189" s="3">
-        <v>43294.3418055556</v>
+        <v>43278.3259027778</v>
       </c>
       <c r="G189" s="3">
-        <v>43294.7202777778</v>
+        <v>43278.6972916667</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <v>43297.3263888889</v>
+        <v>43279.3432986111</v>
       </c>
       <c r="B190" s="3">
-        <v>43297.3263888889</v>
+        <v>43279.3432986111</v>
       </c>
       <c r="C190" s="3">
-        <v>43297.7045486111</v>
+        <v>43279.7137152778</v>
       </c>
       <c r="D190" s="3">
-        <v>43297.338125</v>
+        <v>43279.3248726852</v>
       </c>
       <c r="E190" s="3">
-        <v>43297.7092476852</v>
+        <v>43279.7040856481</v>
       </c>
       <c r="F190" s="3">
-        <v>43297.3316087963</v>
+        <v>43279.3262037037</v>
       </c>
       <c r="G190" s="3">
-        <v>43297.7018055556</v>
+        <v>43279.7058217593</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <v>43298.3388773148</v>
+        <v>43280.3259837963</v>
       </c>
       <c r="B191" s="3">
-        <v>43298.3388773148</v>
+        <v>43280.3259837963</v>
       </c>
       <c r="C191" s="3">
-        <v>43298.7145023148</v>
+        <v>43280.7033449074</v>
       </c>
       <c r="D191" s="3">
-        <v>43298.3348032407</v>
+        <v>43280.3270717593</v>
       </c>
       <c r="E191" s="3">
-        <v>43298.7085185185</v>
+        <v>43280.7035648148</v>
       </c>
       <c r="F191" s="3">
-        <v>43298.3430902778</v>
+        <v>43280.3361226852</v>
       </c>
       <c r="G191" s="3">
-        <v>43298.7191550926</v>
+        <v>43280.711400463</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <v>43299.3397337963</v>
+        <v>43283.3384375</v>
       </c>
       <c r="B192" s="3">
-        <v>43299.3397337963</v>
+        <v>43283.3384375</v>
       </c>
       <c r="C192" s="3">
-        <v>43299.7101273148</v>
+        <v>43283.7132291667</v>
       </c>
       <c r="D192" s="3">
-        <v>43299.3409259259</v>
+        <v>43283.3361574074</v>
       </c>
       <c r="E192" s="3">
-        <v>43299.713599537</v>
+        <v>43283.7098611111</v>
       </c>
       <c r="F192" s="3">
-        <v>43299.3301041667</v>
+        <v>43283.3434375</v>
       </c>
       <c r="G192" s="3">
-        <v>43299.7096064815</v>
+        <v>43283.7211689815</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <v>43300.3259143519</v>
+        <v>43284.3345023148</v>
       </c>
       <c r="B193" s="3">
-        <v>43300.3259143519</v>
+        <v>43284.3345023148</v>
       </c>
       <c r="C193" s="3">
-        <v>43300.6999537037</v>
+        <v>43284.7070023148</v>
       </c>
       <c r="D193" s="3">
-        <v>43300.338912037</v>
+        <v>43284.340474537</v>
       </c>
       <c r="E193" s="3">
-        <v>43300.7109259259</v>
+        <v>43284.7110300926</v>
       </c>
       <c r="F193" s="3">
-        <v>43300.3237268519</v>
+        <v>43284.3274189815</v>
       </c>
       <c r="G193" s="3">
-        <v>43300.6985416667</v>
+        <v>43284.7040277778</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <v>43301.3381597222</v>
+        <v>43285.3398842593</v>
       </c>
       <c r="B194" s="3">
-        <v>43301.3381597222</v>
+        <v>43285.3398842593</v>
       </c>
       <c r="C194" s="3">
-        <v>43301.7123263889</v>
+        <v>43285.7140277778</v>
       </c>
       <c r="D194" s="3">
-        <v>43301.3309837963</v>
+        <v>43285.3348611111</v>
       </c>
       <c r="E194" s="3">
-        <v>43301.7048263889</v>
+        <v>43285.7099768519</v>
       </c>
       <c r="F194" s="3">
-        <v>43301.3327199074</v>
+        <v>43285.3242824074</v>
       </c>
       <c r="G194" s="3">
-        <v>43301.7052314815</v>
+        <v>43285.699525463</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <v>43304.3252199074</v>
+        <v>43286.3276851852</v>
       </c>
       <c r="B195" s="3">
-        <v>43304.3252199074</v>
+        <v>43286.3276851852</v>
       </c>
       <c r="C195" s="3">
-        <v>43304.7031481481</v>
+        <v>43286.7002777778</v>
       </c>
       <c r="D195" s="3">
-        <v>43304.3295833333</v>
+        <v>43286.3236689815</v>
       </c>
       <c r="E195" s="3">
-        <v>43304.7013310185</v>
+        <v>43286.6948842593</v>
       </c>
       <c r="F195" s="3">
-        <v>43304.3263541667</v>
+        <v>43286.3389930556</v>
       </c>
       <c r="G195" s="3">
-        <v>43304.7031481481</v>
+        <v>43286.711875</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <v>43305.3308217593</v>
+        <v>43287.338912037</v>
       </c>
       <c r="B196" s="3">
-        <v>43305.3308217593</v>
+        <v>43287.338912037</v>
       </c>
       <c r="C196" s="3">
-        <v>43305.7024074074</v>
+        <v>43287.7187384259</v>
       </c>
       <c r="D196" s="3">
-        <v>43305.3297453704</v>
+        <v>43287.3265046296</v>
       </c>
       <c r="E196" s="3">
-        <v>43305.7075694444</v>
+        <v>43287.7030324074</v>
       </c>
       <c r="F196" s="3">
-        <v>43305.3404861111</v>
+        <v>43287.3436805556</v>
       </c>
       <c r="G196" s="3">
-        <v>43305.7175231481</v>
+        <v>43287.7175810185</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <v>43306.3259027778</v>
+        <v>43290.3369444444</v>
       </c>
       <c r="B197" s="3">
-        <v>43306.3259027778</v>
+        <v>43290.3369444444</v>
       </c>
       <c r="C197" s="3">
-        <v>43306.7055555556</v>
+        <v>43290.7118055556</v>
       </c>
       <c r="D197" s="3">
-        <v>43306.3271643519</v>
+        <v>43290.3437037037</v>
       </c>
       <c r="E197" s="3">
-        <v>43306.6982060185</v>
+        <v>43290.7188310185</v>
       </c>
       <c r="F197" s="3">
-        <v>43306.3234143518</v>
+        <v>43290.3372106481</v>
       </c>
       <c r="G197" s="3">
-        <v>43306.6989699074</v>
+        <v>43290.7146875</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <v>43307.3333449074</v>
+        <v>43291.3378240741</v>
       </c>
       <c r="B198" s="3">
-        <v>43307.3333449074</v>
+        <v>43291.3378240741</v>
       </c>
       <c r="C198" s="3">
-        <v>43307.7047453704</v>
+        <v>43291.7119212963</v>
       </c>
       <c r="D198" s="3">
-        <v>43307.3307986111</v>
+        <v>43291.3350694444</v>
       </c>
       <c r="E198" s="3">
-        <v>43307.7079513889</v>
+        <v>43291.7122453704</v>
       </c>
       <c r="F198" s="3">
-        <v>43307.3269444444</v>
+        <v>43291.3410648148</v>
       </c>
       <c r="G198" s="3">
-        <v>43307.7045023148</v>
+        <v>43291.7157060185</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <v>43308.3375810185</v>
+        <v>43292.3274189815</v>
       </c>
       <c r="B199" s="3">
-        <v>43308.3375810185</v>
+        <v>43292.3274189815</v>
       </c>
       <c r="C199" s="3">
-        <v>43308.7088425926</v>
+        <v>43292.7014236111</v>
       </c>
       <c r="D199" s="3">
-        <v>43308.324224537</v>
+        <v>43292.3321296296</v>
       </c>
       <c r="E199" s="3">
-        <v>43308.6984375</v>
+        <v>43292.7117013889</v>
       </c>
       <c r="F199" s="3">
-        <v>43308.3266087963</v>
+        <v>43292.3330324074</v>
       </c>
       <c r="G199" s="3">
-        <v>43308.7050925926</v>
+        <v>43292.7109722222</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <v>43311.3368287037</v>
+        <v>43293.3354976852</v>
       </c>
       <c r="B200" s="3">
-        <v>43311.3368287037</v>
+        <v>43293.3354976852</v>
       </c>
       <c r="C200" s="3">
-        <v>43311.7127893519</v>
+        <v>43293.7114351852</v>
       </c>
       <c r="D200" s="3">
-        <v>43311.3402083333</v>
+        <v>43293.3340393519</v>
       </c>
       <c r="E200" s="3">
-        <v>43311.7111342593</v>
+        <v>43293.7108680556</v>
       </c>
       <c r="F200" s="3">
-        <v>43311.3355787037</v>
+        <v>43293.3369444444</v>
       </c>
       <c r="G200" s="3">
-        <v>43311.707025463</v>
+        <v>43293.7153587963</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <v>43312.3346875</v>
+        <v>43294.3312152778</v>
       </c>
       <c r="B201" s="3">
-        <v>43312.3346875</v>
+        <v>43294.3312152778</v>
       </c>
       <c r="C201" s="3">
-        <v>43312.7055671296</v>
+        <v>43294.7095138889</v>
       </c>
       <c r="D201" s="3">
-        <v>43312.3350578704</v>
+        <v>43294.3319097222</v>
       </c>
       <c r="E201" s="3">
-        <v>43312.7052314815</v>
+        <v>43294.7079861111</v>
       </c>
       <c r="F201" s="3">
-        <v>43312.3359837963</v>
+        <v>43294.325150463</v>
       </c>
       <c r="G201" s="3">
-        <v>43312.7110763889</v>
+        <v>43294.6978703704</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <v>43313.3249189815</v>
+        <v>43297.334525463</v>
       </c>
       <c r="B202" s="3">
-        <v>43313.3249189815</v>
+        <v>43297.334525463</v>
       </c>
       <c r="C202" s="3">
-        <v>43313.7018634259</v>
+        <v>43297.7049305556</v>
       </c>
       <c r="D202" s="3">
-        <v>43313.3431134259</v>
+        <v>43297.3303587963</v>
       </c>
       <c r="E202" s="3">
-        <v>43313.7154976852</v>
+        <v>43297.7093287037</v>
       </c>
       <c r="F202" s="3">
-        <v>43313.3417708333</v>
+        <v>43297.3340046296</v>
       </c>
       <c r="G202" s="3">
-        <v>43313.716400463</v>
+        <v>43297.7043634259</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <v>43314.3278819444</v>
+        <v>43298.3357986111</v>
       </c>
       <c r="B203" s="3">
-        <v>43314.3278819444</v>
+        <v>43298.3357986111</v>
       </c>
       <c r="C203" s="3">
-        <v>43314.6987152778</v>
+        <v>43298.7139583333</v>
       </c>
       <c r="D203" s="3">
-        <v>43314.3239930556</v>
+        <v>43298.3279976852</v>
       </c>
       <c r="E203" s="3">
-        <v>43314.700462963</v>
+        <v>43298.7047222222</v>
       </c>
       <c r="F203" s="3">
-        <v>43314.3288310185</v>
+        <v>43298.33125</v>
       </c>
       <c r="G203" s="3">
-        <v>43314.7037152778</v>
+        <v>43298.710775463</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <v>43315.3343171296</v>
+        <v>43299.3278819444</v>
       </c>
       <c r="B204" s="3">
-        <v>43315.3343171296</v>
+        <v>43299.3278819444</v>
       </c>
       <c r="C204" s="3">
-        <v>43315.7093055556</v>
+        <v>43299.6995833333</v>
       </c>
       <c r="D204" s="3">
-        <v>43315.3252662037</v>
+        <v>43299.3415393519</v>
       </c>
       <c r="E204" s="3">
-        <v>43315.7023148148</v>
+        <v>43299.7191782407</v>
       </c>
       <c r="F204" s="3">
-        <v>43315.3366782407</v>
+        <v>43299.3379398148</v>
       </c>
       <c r="G204" s="3">
-        <v>43315.7075115741</v>
+        <v>43299.7096064815</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <v>43318.3356365741</v>
+        <v>43300.3433564815</v>
       </c>
       <c r="B205" s="3">
-        <v>43318.3356365741</v>
+        <v>43300.3433564815</v>
       </c>
       <c r="C205" s="3">
-        <v>43318.7136458333</v>
+        <v>43300.7176736111</v>
       </c>
       <c r="D205" s="3">
-        <v>43318.3236342593</v>
+        <v>43300.3233680556</v>
       </c>
       <c r="E205" s="3">
-        <v>43318.6983333333</v>
+        <v>43300.6964351852</v>
       </c>
       <c r="F205" s="3">
-        <v>43318.3377546296</v>
+        <v>43300.3318171296</v>
       </c>
       <c r="G205" s="3">
-        <v>43318.7149074074</v>
+        <v>43300.7085416667</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <v>43319.3239236111</v>
+        <v>43301.3428356481</v>
       </c>
       <c r="B206" s="3">
-        <v>43319.3239236111</v>
+        <v>43301.3428356481</v>
       </c>
       <c r="C206" s="3">
-        <v>43319.7015046296</v>
+        <v>43301.7165856482</v>
       </c>
       <c r="D206" s="3">
-        <v>43319.3293634259</v>
+        <v>43301.3264236111</v>
       </c>
       <c r="E206" s="3">
-        <v>43319.7066435185</v>
+        <v>43301.702662037</v>
       </c>
       <c r="F206" s="3">
-        <v>43319.3250347222</v>
+        <v>43301.3260185185</v>
       </c>
       <c r="G206" s="3">
-        <v>43319.6973842593</v>
+        <v>43301.6969328704</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <v>43320.3384375</v>
+        <v>43304.3281134259</v>
       </c>
       <c r="B207" s="3">
-        <v>43320.3384375</v>
+        <v>43304.3281134259</v>
       </c>
       <c r="C207" s="3">
-        <v>43320.7175115741</v>
+        <v>43304.7015856481</v>
       </c>
       <c r="D207" s="3">
-        <v>43320.3382638889</v>
+        <v>43304.3257638889</v>
       </c>
       <c r="E207" s="3">
-        <v>43320.7141319444</v>
+        <v>43304.7054282407</v>
       </c>
       <c r="F207" s="3">
-        <v>43320.3368518519</v>
+        <v>43304.3347222222</v>
       </c>
       <c r="G207" s="3">
-        <v>43320.7134606481</v>
+        <v>43304.7065509259</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>43321.3429513889</v>
+        <v>43305.3259722222</v>
       </c>
       <c r="B208" s="3">
-        <v>43321.3429513889</v>
+        <v>43305.3259722222</v>
       </c>
       <c r="C208" s="3">
-        <v>43321.7227662037</v>
+        <v>43305.6981828704</v>
       </c>
       <c r="D208" s="3">
-        <v>43321.3311226852</v>
+        <v>43305.3276736111</v>
       </c>
       <c r="E208" s="3">
-        <v>43321.7081597222</v>
+        <v>43305.7011226852</v>
       </c>
       <c r="F208" s="3">
-        <v>43321.3405671296</v>
+        <v>43305.3417824074</v>
       </c>
       <c r="G208" s="3">
-        <v>43321.7126388889</v>
+        <v>43305.7132523148</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>43322.327349537</v>
+        <v>43306.3422685185</v>
       </c>
       <c r="B209" s="3">
-        <v>43322.327349537</v>
+        <v>43306.3422685185</v>
       </c>
       <c r="C209" s="3">
-        <v>43322.7011342593</v>
+        <v>43306.7166435185</v>
       </c>
       <c r="D209" s="3">
-        <v>43322.3298726852</v>
+        <v>43306.3306597222</v>
       </c>
       <c r="E209" s="3">
-        <v>43322.7094560185</v>
+        <v>43306.7059953704</v>
       </c>
       <c r="F209" s="3">
-        <v>43322.3262384259</v>
+        <v>43306.3267824074</v>
       </c>
       <c r="G209" s="3">
-        <v>43322.7032407407</v>
+        <v>43306.7031828704</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>43325.3339699074</v>
+        <v>43307.3434375</v>
       </c>
       <c r="B210" s="3">
-        <v>43325.3339699074</v>
+        <v>43307.3434375</v>
       </c>
       <c r="C210" s="3">
-        <v>43325.713287037</v>
+        <v>43307.7206944444</v>
       </c>
       <c r="D210" s="3">
-        <v>43325.3435069444</v>
+        <v>43307.3402430556</v>
       </c>
       <c r="E210" s="3">
-        <v>43325.7198842593</v>
+        <v>43307.7152430556</v>
       </c>
       <c r="F210" s="3">
-        <v>43325.3376157407</v>
+        <v>43307.3273263889</v>
       </c>
       <c r="G210" s="3">
-        <v>43325.7168865741</v>
+        <v>43307.7026041667</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>43326.324837963</v>
+        <v>43308.3275810185</v>
       </c>
       <c r="B211" s="3">
-        <v>43326.324837963</v>
+        <v>43308.3275810185</v>
       </c>
       <c r="C211" s="3">
-        <v>43326.7046064815</v>
+        <v>43308.7010648148</v>
       </c>
       <c r="D211" s="3">
-        <v>43326.3243171296</v>
+        <v>43308.3300347222</v>
       </c>
       <c r="E211" s="3">
-        <v>43326.7037962963</v>
+        <v>43308.7020833333</v>
       </c>
       <c r="F211" s="3">
-        <v>43326.3344444444</v>
+        <v>43308.3277777778</v>
       </c>
       <c r="G211" s="3">
-        <v>43326.7067013889</v>
+        <v>43308.7003935185</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>43328.3349074074</v>
+        <v>43311.342662037</v>
       </c>
       <c r="B212" s="3">
-        <v>43328.3349074074</v>
+        <v>43311.342662037</v>
       </c>
       <c r="C212" s="3">
-        <v>43328.7065046296</v>
+        <v>43311.718287037</v>
       </c>
       <c r="D212" s="3">
-        <v>43328.3317476852</v>
+        <v>43311.3343402778</v>
       </c>
       <c r="E212" s="3">
-        <v>43328.70625</v>
+        <v>43311.7121875</v>
       </c>
       <c r="F212" s="3">
-        <v>43328.3272337963</v>
+        <v>43311.3290509259</v>
       </c>
       <c r="G212" s="3">
-        <v>43328.7065740741</v>
+        <v>43311.7069328704</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>43329.3344560185</v>
+        <v>43312.3319675926</v>
       </c>
       <c r="B213" s="3">
-        <v>43329.3344560185</v>
+        <v>43312.3319675926</v>
       </c>
       <c r="C213" s="3">
-        <v>43329.7138541667</v>
+        <v>43312.7054398148</v>
       </c>
       <c r="D213" s="3">
-        <v>43329.3328819444</v>
+        <v>43312.3398842593</v>
       </c>
       <c r="E213" s="3">
-        <v>43329.7037037037</v>
+        <v>43312.7182060185</v>
       </c>
       <c r="F213" s="3">
-        <v>43329.3419907407</v>
+        <v>43312.324837963</v>
       </c>
       <c r="G213" s="3">
-        <v>43329.713275463</v>
+        <v>43312.6976967593</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>43332.3427314815</v>
+        <v>43313.3244791667</v>
       </c>
       <c r="B214" s="3">
-        <v>43332.3427314815</v>
+        <v>43313.3244791667</v>
       </c>
       <c r="C214" s="3">
-        <v>43332.7166435185</v>
+        <v>43313.7035416667</v>
       </c>
       <c r="D214" s="3">
-        <v>43332.3278587963</v>
+        <v>43313.3274189815</v>
       </c>
       <c r="E214" s="3">
-        <v>43332.7047453704</v>
+        <v>43313.7006018519</v>
       </c>
       <c r="F214" s="3">
-        <v>43332.3402314815</v>
+        <v>43313.3395949074</v>
       </c>
       <c r="G214" s="3">
-        <v>43332.7140972222</v>
+        <v>43313.713912037</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>43333.3357638889</v>
+        <v>43314.3317708333</v>
       </c>
       <c r="B215" s="3">
-        <v>43333.3357638889</v>
+        <v>43314.3317708333</v>
       </c>
       <c r="C215" s="3">
-        <v>43333.7080555556</v>
+        <v>43314.7085300926</v>
       </c>
       <c r="D215" s="3">
-        <v>43333.3307986111</v>
+        <v>43314.3276967593</v>
       </c>
       <c r="E215" s="3">
-        <v>43333.7046643519</v>
+        <v>43314.7051736111</v>
       </c>
       <c r="F215" s="3">
-        <v>43333.3426388889</v>
+        <v>43314.3377546296</v>
       </c>
       <c r="G215" s="3">
-        <v>43333.7159722222</v>
+        <v>43314.7097337963</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>43334.3423842593</v>
+        <v>43315.3363194444</v>
       </c>
       <c r="B216" s="3">
-        <v>43334.3423842593</v>
+        <v>43315.3363194444</v>
       </c>
       <c r="C216" s="3">
-        <v>43334.7180555556</v>
+        <v>43315.7121180556</v>
       </c>
       <c r="D216" s="3">
-        <v>43334.3401967593</v>
+        <v>43315.3292592593</v>
       </c>
       <c r="E216" s="3">
-        <v>43334.7173148148</v>
+        <v>43315.7027777778</v>
       </c>
       <c r="F216" s="3">
-        <v>43334.3242939815</v>
+        <v>43315.3281597222</v>
       </c>
       <c r="G216" s="3">
-        <v>43334.6948958333</v>
+        <v>43315.7015972222</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>43335.3235069444</v>
+        <v>43318.3430787037</v>
       </c>
       <c r="B217" s="3">
-        <v>43335.3235069444</v>
+        <v>43318.3430787037</v>
       </c>
       <c r="C217" s="3">
-        <v>43335.6991550926</v>
+        <v>43318.7169212963</v>
       </c>
       <c r="D217" s="3">
-        <v>43335.3321296296</v>
+        <v>43318.3314351852</v>
       </c>
       <c r="E217" s="3">
-        <v>43335.7085648148</v>
+        <v>43318.7055208333</v>
       </c>
       <c r="F217" s="3">
-        <v>43335.3281018519</v>
+        <v>43318.3323842593</v>
       </c>
       <c r="G217" s="3">
-        <v>43335.7009722222</v>
+        <v>43318.7054976852</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>43336.3283333333</v>
+        <v>43319.3360416667</v>
       </c>
       <c r="B218" s="3">
-        <v>43336.3283333333</v>
+        <v>43319.3360416667</v>
       </c>
       <c r="C218" s="3">
-        <v>43336.7051736111</v>
+        <v>43319.7091666667</v>
       </c>
       <c r="D218" s="3">
-        <v>43336.3337268519</v>
+        <v>43319.3333680556</v>
       </c>
       <c r="E218" s="3">
-        <v>43336.7093634259</v>
+        <v>43319.709224537</v>
       </c>
       <c r="F218" s="3">
-        <v>43336.3307986111</v>
+        <v>43319.3409953704</v>
       </c>
       <c r="G218" s="3">
-        <v>43336.7053935185</v>
+        <v>43319.7146990741</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>43339.3326851852</v>
+        <v>43320.3267939815</v>
       </c>
       <c r="B219" s="3">
-        <v>43339.3326851852</v>
+        <v>43320.3267939815</v>
       </c>
       <c r="C219" s="3">
-        <v>43339.7038541667</v>
+        <v>43320.703900463</v>
       </c>
       <c r="D219" s="3">
-        <v>43339.3312152778</v>
+        <v>43320.3290972222</v>
       </c>
       <c r="E219" s="3">
-        <v>43339.7075115741</v>
+        <v>43320.7062962963</v>
       </c>
       <c r="F219" s="3">
-        <v>43339.3376041667</v>
+        <v>43320.3436805556</v>
       </c>
       <c r="G219" s="3">
-        <v>43339.7163194444</v>
+        <v>43320.7231712963</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>43340.3393287037</v>
+        <v>43321.3408333333</v>
       </c>
       <c r="B220" s="3">
-        <v>43340.3393287037</v>
+        <v>43321.3408333333</v>
       </c>
       <c r="C220" s="3">
-        <v>43340.710162037</v>
+        <v>43321.7180671296</v>
       </c>
       <c r="D220" s="3">
-        <v>43340.3272685185</v>
+        <v>43321.325474537</v>
       </c>
       <c r="E220" s="3">
-        <v>43340.6985416667</v>
+        <v>43321.6972106481</v>
       </c>
       <c r="F220" s="3">
-        <v>43340.3370601852</v>
+        <v>43321.3308564815</v>
       </c>
       <c r="G220" s="3">
-        <v>43340.7125462963</v>
+        <v>43321.7034259259</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>43341.3407175926</v>
+        <v>43322.3230092593</v>
       </c>
       <c r="B221" s="3">
-        <v>43341.3407175926</v>
+        <v>43322.3230092593</v>
       </c>
       <c r="C221" s="3">
-        <v>43341.7131134259</v>
+        <v>43322.6995023148</v>
       </c>
       <c r="D221" s="3">
-        <v>43341.3245949074</v>
+        <v>43322.3260300926</v>
       </c>
       <c r="E221" s="3">
-        <v>43341.7013078704</v>
+        <v>43322.7039467593</v>
       </c>
       <c r="F221" s="3">
-        <v>43341.34</v>
+        <v>43322.3426041667</v>
       </c>
       <c r="G221" s="3">
-        <v>43341.7140162037</v>
+        <v>43322.7215625</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>43342.3396643519</v>
+        <v>43325.3318865741</v>
       </c>
       <c r="B222" s="3">
-        <v>43342.3396643519</v>
+        <v>43325.3318865741</v>
       </c>
       <c r="C222" s="3">
-        <v>43342.7127199074</v>
+        <v>43325.7097800926</v>
       </c>
       <c r="D222" s="3">
-        <v>43342.3301388889</v>
+        <v>43325.3331365741</v>
       </c>
       <c r="E222" s="3">
-        <v>43342.7085300926</v>
+        <v>43325.7104166667</v>
       </c>
       <c r="F222" s="3">
-        <v>43342.3339930556</v>
+        <v>43325.3249537037</v>
       </c>
       <c r="G222" s="3">
-        <v>43342.7084375</v>
+        <v>43325.6960069444</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>43343.3386111111</v>
+        <v>43326.3290856481</v>
       </c>
       <c r="B223" s="3">
-        <v>43343.3386111111</v>
+        <v>43326.3290856481</v>
       </c>
       <c r="C223" s="3">
-        <v>43343.7147106482</v>
+        <v>43326.7030671296</v>
       </c>
       <c r="D223" s="3">
-        <v>43343.3407523148</v>
+        <v>43326.3425462963</v>
       </c>
       <c r="E223" s="3">
-        <v>43343.7166550926</v>
+        <v>43326.717974537</v>
       </c>
       <c r="F223" s="3">
-        <v>43343.3350578704</v>
+        <v>43326.3257060185</v>
       </c>
       <c r="G223" s="3">
-        <v>43343.7111805556</v>
+        <v>43326.7047453704</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2">
-        <v>43346.3313194444</v>
-      </c>
-      <c r="B224" s="3">
-        <v>43346.3313194444</v>
-      </c>
-      <c r="C224" s="3">
-        <v>43346.7036342593</v>
-      </c>
-      <c r="D224" s="3">
-        <v>43346.3240393519</v>
-      </c>
-      <c r="E224" s="3">
-        <v>43346.7001388889</v>
-      </c>
-      <c r="F224" s="3">
-        <v>43346.3237615741</v>
-      </c>
-      <c r="G224" s="3">
-        <v>43346.6973726852</v>
+      <c r="A224" s="4">
+        <v>43327</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>43347.3232638889</v>
+        <v>43328.3384837963</v>
       </c>
       <c r="B225" s="3">
-        <v>43347.3232638889</v>
+        <v>43328.3384837963</v>
       </c>
       <c r="C225" s="3">
-        <v>43347.6983101852</v>
+        <v>43328.7118287037</v>
       </c>
       <c r="D225" s="3">
-        <v>43347.3374768519</v>
+        <v>43328.33375</v>
       </c>
       <c r="E225" s="3">
-        <v>43347.7141087963</v>
+        <v>43328.7040625</v>
       </c>
       <c r="F225" s="3">
-        <v>43347.3377199074</v>
+        <v>43328.34</v>
       </c>
       <c r="G225" s="3">
-        <v>43347.7175115741</v>
+        <v>43328.7151157407</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>43348.342025463</v>
+        <v>43329.3299884259</v>
       </c>
       <c r="B226" s="3">
-        <v>43348.342025463</v>
+        <v>43329.3299884259</v>
       </c>
       <c r="C226" s="3">
-        <v>43348.7153587963</v>
+        <v>43329.705</v>
       </c>
       <c r="D226" s="3">
-        <v>43348.3309953704</v>
+        <v>43329.3288425926</v>
       </c>
       <c r="E226" s="3">
-        <v>43348.7020138889</v>
+        <v>43329.7013310185</v>
       </c>
       <c r="F226" s="3">
-        <v>43348.3354861111</v>
+        <v>43329.3406018519</v>
       </c>
       <c r="G226" s="3">
-        <v>43348.7101967593</v>
+        <v>43329.7178587963</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>43349.3351041667</v>
+        <v>43332.3328819444</v>
       </c>
       <c r="B227" s="3">
-        <v>43349.3351041667</v>
+        <v>43332.3328819444</v>
       </c>
       <c r="C227" s="3">
-        <v>43349.7122685185</v>
+        <v>43332.7105902778</v>
       </c>
       <c r="D227" s="3">
-        <v>43349.3318865741</v>
+        <v>43332.3302662037</v>
       </c>
       <c r="E227" s="3">
-        <v>43349.7038541667</v>
+        <v>43332.709224537</v>
       </c>
       <c r="F227" s="3">
-        <v>43349.3261111111</v>
+        <v>43332.3287037037</v>
       </c>
       <c r="G227" s="3">
-        <v>43349.7027430556</v>
+        <v>43332.7070138889</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>43350.3334722222</v>
+        <v>43333.3315046296</v>
       </c>
       <c r="B228" s="3">
-        <v>43350.3334722222</v>
+        <v>43333.3315046296</v>
       </c>
       <c r="C228" s="3">
-        <v>43350.7091898148</v>
+        <v>43333.7101157407</v>
       </c>
       <c r="D228" s="3">
-        <v>43350.3232060185</v>
+        <v>43333.3257986111</v>
       </c>
       <c r="E228" s="3">
-        <v>43350.6993865741</v>
+        <v>43333.6962615741</v>
       </c>
       <c r="F228" s="3">
-        <v>43350.3350347222</v>
+        <v>43333.3352314815</v>
       </c>
       <c r="G228" s="3">
-        <v>43350.7091435185</v>
+        <v>43333.7067708333</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>43353.3333564815</v>
+        <v>43334.3306828704</v>
       </c>
       <c r="B229" s="3">
-        <v>43353.3333564815</v>
+        <v>43334.3306828704</v>
       </c>
       <c r="C229" s="3">
-        <v>43353.7126851852</v>
+        <v>43334.7013425926</v>
       </c>
       <c r="D229" s="3">
-        <v>43353.335</v>
+        <v>43334.3301273148</v>
       </c>
       <c r="E229" s="3">
-        <v>43353.7101851852</v>
+        <v>43334.7025462963</v>
       </c>
       <c r="F229" s="3">
-        <v>43353.329212963</v>
+        <v>43334.335787037</v>
       </c>
       <c r="G229" s="3">
-        <v>43353.7086574074</v>
+        <v>43334.7142013889</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>43354.3259722222</v>
+        <v>43335.3414814815</v>
       </c>
       <c r="B230" s="3">
-        <v>43354.3259722222</v>
+        <v>43335.3414814815</v>
       </c>
       <c r="C230" s="3">
-        <v>43354.6988773148</v>
+        <v>43335.7212615741</v>
       </c>
       <c r="D230" s="3">
-        <v>43354.338587963</v>
+        <v>43335.324212963</v>
       </c>
       <c r="E230" s="3">
-        <v>43354.7182638889</v>
+        <v>43335.6998263889</v>
       </c>
       <c r="F230" s="3">
-        <v>43354.3343055556</v>
+        <v>43335.3431597222</v>
       </c>
       <c r="G230" s="3">
-        <v>43354.7060532407</v>
+        <v>43335.7204513889</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>43355.3254398148</v>
+        <v>43336.3352546296</v>
       </c>
       <c r="B231" s="3">
-        <v>43355.3254398148</v>
+        <v>43336.3352546296</v>
       </c>
       <c r="C231" s="3">
-        <v>43355.6971180556</v>
+        <v>43336.7080555556</v>
       </c>
       <c r="D231" s="3">
-        <v>43355.3315277778</v>
+        <v>43336.3248726852</v>
       </c>
       <c r="E231" s="3">
-        <v>43355.7057291667</v>
+        <v>43336.698912037</v>
       </c>
       <c r="F231" s="3">
-        <v>43355.3366087963</v>
+        <v>43336.3423032407</v>
       </c>
       <c r="G231" s="3">
-        <v>43355.7094444444</v>
+        <v>43336.7136111111</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>43356.3413078704</v>
+        <v>43339.3385416667</v>
       </c>
       <c r="B232" s="3">
-        <v>43356.3413078704</v>
+        <v>43339.3385416667</v>
       </c>
       <c r="C232" s="3">
-        <v>43356.7152199074</v>
+        <v>43339.7117939815</v>
       </c>
       <c r="D232" s="3">
-        <v>43356.329837963</v>
+        <v>43339.3325347222</v>
       </c>
       <c r="E232" s="3">
-        <v>43356.7062962963</v>
+        <v>43339.7083101852</v>
       </c>
       <c r="F232" s="3">
-        <v>43356.3255208333</v>
+        <v>43339.3263425926</v>
       </c>
       <c r="G232" s="3">
-        <v>43356.699375</v>
+        <v>43339.6993055556</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>43357.3411458333</v>
+        <v>43340.3382407407</v>
       </c>
       <c r="B233" s="3">
-        <v>43357.3411458333</v>
+        <v>43340.3382407407</v>
       </c>
       <c r="C233" s="3">
-        <v>43357.7159259259</v>
+        <v>43340.7112847222</v>
       </c>
       <c r="D233" s="3">
-        <v>43357.3362615741</v>
+        <v>43340.334212963</v>
       </c>
       <c r="E233" s="3">
-        <v>43357.7121527778</v>
+        <v>43340.7069328704</v>
       </c>
       <c r="F233" s="3">
-        <v>43357.3365625</v>
+        <v>43340.3321875</v>
       </c>
       <c r="G233" s="3">
-        <v>43357.7072222222</v>
+        <v>43340.7046296296</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <v>43360.338275463</v>
+        <v>43341.3393171296</v>
       </c>
       <c r="B234" s="3">
-        <v>43360.338275463</v>
+        <v>43341.3393171296</v>
       </c>
       <c r="C234" s="3">
-        <v>43360.7101388889</v>
+        <v>43341.7130787037</v>
       </c>
       <c r="D234" s="3">
-        <v>43360.3289930556</v>
+        <v>43341.3436921296</v>
       </c>
       <c r="E234" s="3">
-        <v>43360.6999884259</v>
+        <v>43341.7217939815</v>
       </c>
       <c r="F234" s="3">
-        <v>43360.3432986111</v>
+        <v>43341.3317824074</v>
       </c>
       <c r="G234" s="3">
-        <v>43360.7171990741</v>
+        <v>43341.7097800926</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <v>43361.3366435185</v>
+        <v>43342.3313310185</v>
       </c>
       <c r="B235" s="3">
-        <v>43361.3366435185</v>
+        <v>43342.3313310185</v>
       </c>
       <c r="C235" s="3">
-        <v>43361.7094212963</v>
+        <v>43342.7099074074</v>
       </c>
       <c r="D235" s="3">
-        <v>43361.3243981482</v>
+        <v>43342.3274768519</v>
       </c>
       <c r="E235" s="3">
-        <v>43361.7025810185</v>
+        <v>43342.7047106481</v>
       </c>
       <c r="F235" s="3">
-        <v>43361.328900463</v>
+        <v>43342.3359490741</v>
       </c>
       <c r="G235" s="3">
-        <v>43361.7028125</v>
+        <v>43342.7086226852</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <v>43362.3338773148</v>
+        <v>43343.3377662037</v>
       </c>
       <c r="B236" s="3">
-        <v>43362.3338773148</v>
+        <v>43343.3377662037</v>
       </c>
       <c r="C236" s="3">
-        <v>43362.7050462963</v>
+        <v>43343.7160648148</v>
       </c>
       <c r="D236" s="3">
-        <v>43362.3293981481</v>
+        <v>43343.3328703704</v>
       </c>
       <c r="E236" s="3">
-        <v>43362.7063425926</v>
+        <v>43343.709224537</v>
       </c>
       <c r="F236" s="3">
-        <v>43362.3332175926</v>
+        <v>43343.3292824074</v>
       </c>
       <c r="G236" s="3">
-        <v>43362.7060416667</v>
+        <v>43343.7046412037</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <v>43363.335150463</v>
+        <v>43346.3234837963</v>
       </c>
       <c r="B237" s="3">
-        <v>43363.335150463</v>
+        <v>43346.3234837963</v>
       </c>
       <c r="C237" s="3">
-        <v>43363.7097453704</v>
+        <v>43346.6956712963</v>
       </c>
       <c r="D237" s="3">
-        <v>43363.3387962963</v>
+        <v>43346.3238310185</v>
       </c>
       <c r="E237" s="3">
-        <v>43363.7174074074</v>
+        <v>43346.7002314815</v>
       </c>
       <c r="F237" s="3">
-        <v>43363.3234837963</v>
+        <v>43346.3258564815</v>
       </c>
       <c r="G237" s="3">
-        <v>43363.6951273148</v>
+        <v>43346.6981597222</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <v>43364.3247916667</v>
+        <v>43347.3349305556</v>
       </c>
       <c r="B238" s="3">
-        <v>43364.3247916667</v>
+        <v>43347.3349305556</v>
       </c>
       <c r="C238" s="3">
-        <v>43364.703287037</v>
+        <v>43347.7075347222</v>
       </c>
       <c r="D238" s="3">
-        <v>43364.3346180556</v>
+        <v>43347.3314930556</v>
       </c>
       <c r="E238" s="3">
-        <v>43364.7085532407</v>
+        <v>43347.7081134259</v>
       </c>
       <c r="F238" s="3">
-        <v>43364.3254050926</v>
+        <v>43347.3284027778</v>
       </c>
       <c r="G238" s="3">
-        <v>43364.6970486111</v>
+        <v>43347.7078819444</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <v>43367.3268055556</v>
+        <v>43348.3380787037</v>
       </c>
       <c r="B239" s="3">
-        <v>43367.3268055556</v>
+        <v>43348.3380787037</v>
       </c>
       <c r="C239" s="3">
-        <v>43367.6996064815</v>
+        <v>43348.71375</v>
       </c>
       <c r="D239" s="3">
-        <v>43367.3357175926</v>
+        <v>43348.3302083333</v>
       </c>
       <c r="E239" s="3">
-        <v>43367.7114351852</v>
+        <v>43348.7056018518</v>
       </c>
       <c r="F239" s="3">
-        <v>43367.3372106481</v>
+        <v>43348.3350694444</v>
       </c>
       <c r="G239" s="3">
-        <v>43367.7147685185</v>
+        <v>43348.7083680556</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <v>43368.3311805556</v>
+        <v>43349.3419560185</v>
       </c>
       <c r="B240" s="3">
-        <v>43368.3311805556</v>
+        <v>43349.3419560185</v>
       </c>
       <c r="C240" s="3">
-        <v>43368.7104513889</v>
+        <v>43349.7135532407</v>
       </c>
       <c r="D240" s="3">
-        <v>43368.3352662037</v>
+        <v>43349.3376157407</v>
       </c>
       <c r="E240" s="3">
-        <v>43368.7140046296</v>
+        <v>43349.7156597222</v>
       </c>
       <c r="F240" s="3">
-        <v>43368.3304976852</v>
+        <v>43349.3262037037</v>
       </c>
       <c r="G240" s="3">
-        <v>43368.7035416667</v>
+        <v>43349.698287037</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <v>43369.3343634259</v>
+        <v>43350.3285069444</v>
       </c>
       <c r="B241" s="3">
-        <v>43369.3343634259</v>
+        <v>43350.3285069444</v>
       </c>
       <c r="C241" s="3">
-        <v>43369.7115625</v>
+        <v>43350.6990162037</v>
       </c>
       <c r="D241" s="3">
-        <v>43369.3232523148</v>
+        <v>43350.3406481482</v>
       </c>
       <c r="E241" s="3">
-        <v>43369.6994560185</v>
+        <v>43350.7134027778</v>
       </c>
       <c r="F241" s="3">
-        <v>43369.324525463</v>
+        <v>43350.336712963</v>
       </c>
       <c r="G241" s="3">
-        <v>43369.6992592593</v>
+        <v>43350.7085532407</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
-        <v>43370.3306597222</v>
+        <v>43353.3353356481</v>
       </c>
       <c r="B242" s="3">
-        <v>43370.3306597222</v>
+        <v>43353.3353356481</v>
       </c>
       <c r="C242" s="3">
-        <v>43370.701875</v>
+        <v>43353.7127083333</v>
       </c>
       <c r="D242" s="3">
-        <v>43370.3436458333</v>
+        <v>43353.3296180556</v>
       </c>
       <c r="E242" s="3">
-        <v>43370.7206828704</v>
+        <v>43353.7016782407</v>
       </c>
       <c r="F242" s="3">
-        <v>43370.3369212963</v>
+        <v>43353.3324884259</v>
       </c>
       <c r="G242" s="3">
-        <v>43370.7163194444</v>
+        <v>43353.7054282407</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2">
-        <v>43371.3292708333</v>
+        <v>43354.3349652778</v>
       </c>
       <c r="B243" s="3">
-        <v>43371.3292708333</v>
+        <v>43354.3349652778</v>
       </c>
       <c r="C243" s="3">
-        <v>43371.7052893518</v>
+        <v>43354.7140740741</v>
       </c>
       <c r="D243" s="3">
-        <v>43371.3436574074</v>
+        <v>43354.3235185185</v>
       </c>
       <c r="E243" s="3">
-        <v>43371.7209722222</v>
+        <v>43354.7032523148</v>
       </c>
       <c r="F243" s="3">
-        <v>43371.3380324074</v>
+        <v>43354.3350115741</v>
       </c>
       <c r="G243" s="3">
-        <v>43371.7139467593</v>
+        <v>43354.7146643519</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2">
-        <v>43374.3434259259</v>
+        <v>43355.3271412037</v>
       </c>
       <c r="B244" s="3">
-        <v>43374.3434259259</v>
+        <v>43355.3271412037</v>
       </c>
       <c r="C244" s="3">
-        <v>43374.7165277778</v>
+        <v>43355.7056712963</v>
       </c>
       <c r="D244" s="3">
-        <v>43374.3288888889</v>
+        <v>43355.3312962963</v>
       </c>
       <c r="E244" s="3">
-        <v>43374.7014930556</v>
+        <v>43355.7052893518</v>
       </c>
       <c r="F244" s="3">
-        <v>43374.3415393519</v>
+        <v>43355.3418981481</v>
       </c>
       <c r="G244" s="3">
-        <v>43374.7173148148</v>
+        <v>43355.7160300926</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2">
-        <v>43375.3241666667</v>
+        <v>43356.3264583333</v>
       </c>
       <c r="B245" s="3">
-        <v>43375.3241666667</v>
+        <v>43356.3264583333</v>
       </c>
       <c r="C245" s="3">
-        <v>43375.7009722222</v>
+        <v>43356.6975231481</v>
       </c>
       <c r="D245" s="3">
-        <v>43375.3361226852</v>
+        <v>43356.3272800926</v>
       </c>
       <c r="E245" s="3">
-        <v>43375.7149768519</v>
+        <v>43356.7010648148</v>
       </c>
       <c r="F245" s="3">
-        <v>43375.3375</v>
+        <v>43356.3385069444</v>
       </c>
       <c r="G245" s="3">
-        <v>43375.7170601852</v>
+        <v>43356.7116550926</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2">
-        <v>43376.3268287037</v>
+        <v>43357.3230787037</v>
       </c>
       <c r="B246" s="3">
-        <v>43376.3268287037</v>
+        <v>43357.3230787037</v>
       </c>
       <c r="C246" s="3">
-        <v>43376.7020486111</v>
+        <v>43357.6988194444</v>
       </c>
       <c r="D246" s="3">
-        <v>43376.3434490741</v>
+        <v>43357.3241550926</v>
       </c>
       <c r="E246" s="3">
-        <v>43376.7221296296</v>
+        <v>43357.6968865741</v>
       </c>
       <c r="F246" s="3">
-        <v>43376.3261574074</v>
+        <v>43357.3372453704</v>
       </c>
       <c r="G246" s="3">
-        <v>43376.7035532407</v>
+        <v>43357.7075347222</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2">
-        <v>43377.3428935185</v>
+        <v>43360.3315856481</v>
       </c>
       <c r="B247" s="3">
-        <v>43377.3428935185</v>
+        <v>43360.3315856481</v>
       </c>
       <c r="C247" s="3">
-        <v>43377.7179166667</v>
+        <v>43360.703599537</v>
       </c>
       <c r="D247" s="3">
-        <v>43377.3412615741</v>
+        <v>43360.3338773148</v>
       </c>
       <c r="E247" s="3">
-        <v>43377.7136111111</v>
+        <v>43360.7111342593</v>
       </c>
       <c r="F247" s="3">
-        <v>43377.3299189815</v>
+        <v>43360.3311574074</v>
       </c>
       <c r="G247" s="3">
-        <v>43377.7050462963</v>
+        <v>43360.7038310185</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2">
-        <v>43378.3427083333</v>
+        <v>43361.3255092593</v>
       </c>
       <c r="B248" s="3">
-        <v>43378.3427083333</v>
+        <v>43361.3255092593</v>
       </c>
       <c r="C248" s="3">
-        <v>43378.7196064815</v>
+        <v>43361.7013310185</v>
       </c>
       <c r="D248" s="3">
-        <v>43378.3375578704</v>
+        <v>43361.336099537</v>
       </c>
       <c r="E248" s="3">
-        <v>43378.7141203704</v>
+        <v>43361.7132407407</v>
       </c>
       <c r="F248" s="3">
-        <v>43378.3415162037</v>
+        <v>43361.3235648148</v>
       </c>
       <c r="G248" s="3">
-        <v>43378.7169328704</v>
+        <v>43361.6962384259</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2">
-        <v>43381.3301967593</v>
+        <v>43362.3433449074</v>
       </c>
       <c r="B249" s="3">
-        <v>43381.3301967593</v>
+        <v>43362.3433449074</v>
       </c>
       <c r="C249" s="3">
-        <v>43381.7043634259</v>
+        <v>43362.7201273148</v>
       </c>
       <c r="D249" s="3">
-        <v>43381.3300694444</v>
+        <v>43362.3375462963</v>
       </c>
       <c r="E249" s="3">
-        <v>43381.7069675926</v>
+        <v>43362.7132175926</v>
       </c>
       <c r="F249" s="3">
-        <v>43381.3286111111</v>
+        <v>43362.3247106482</v>
       </c>
       <c r="G249" s="3">
-        <v>43381.7001967593</v>
+        <v>43362.7012037037</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2">
-        <v>43382.3317824074</v>
+        <v>43363.342037037</v>
       </c>
       <c r="B250" s="3">
-        <v>43382.3317824074</v>
+        <v>43363.342037037</v>
       </c>
       <c r="C250" s="3">
-        <v>43382.7045949074</v>
+        <v>43363.7134490741</v>
       </c>
       <c r="D250" s="3">
-        <v>43382.3272685185</v>
+        <v>43363.328287037</v>
       </c>
       <c r="E250" s="3">
-        <v>43382.6999768519</v>
+        <v>43363.7006018519</v>
       </c>
       <c r="F250" s="3">
-        <v>43382.3393402778</v>
+        <v>43363.3325578704</v>
       </c>
       <c r="G250" s="3">
-        <v>43382.7146180556</v>
+        <v>43363.7110532407</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2">
-        <v>43383.3411574074</v>
+        <v>43364.3231365741</v>
       </c>
       <c r="B251" s="3">
-        <v>43383.3411574074</v>
+        <v>43364.3231365741</v>
       </c>
       <c r="C251" s="3">
-        <v>43383.7134837963</v>
+        <v>43364.7022453704</v>
       </c>
       <c r="D251" s="3">
-        <v>43383.3292013889</v>
+        <v>43364.338275463</v>
       </c>
       <c r="E251" s="3">
-        <v>43383.7087268519</v>
+        <v>43364.7096064815</v>
       </c>
       <c r="F251" s="3">
-        <v>43383.3361805556</v>
+        <v>43364.3368287037</v>
       </c>
       <c r="G251" s="3">
-        <v>43383.7126736111</v>
+        <v>43364.7101273148</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2">
-        <v>43384.3346759259</v>
+        <v>43367.3435763889</v>
       </c>
       <c r="B252" s="3">
-        <v>43384.3346759259</v>
+        <v>43367.3435763889</v>
       </c>
       <c r="C252" s="3">
-        <v>43384.7120486111</v>
+        <v>43367.7222569444</v>
       </c>
       <c r="D252" s="3">
-        <v>43384.334212963</v>
+        <v>43367.3296875</v>
       </c>
       <c r="E252" s="3">
-        <v>43384.7128240741</v>
+        <v>43367.7074884259</v>
       </c>
       <c r="F252" s="3">
-        <v>43384.3243865741</v>
+        <v>43367.3289583333</v>
       </c>
       <c r="G252" s="3">
-        <v>43384.697650463</v>
+        <v>43367.704525463</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2">
-        <v>43385.3432986111</v>
+        <v>43368.335775463</v>
       </c>
       <c r="B253" s="3">
-        <v>43385.3432986111</v>
+        <v>43368.335775463</v>
       </c>
       <c r="C253" s="3">
-        <v>43385.7213194444</v>
+        <v>43368.710775463</v>
       </c>
       <c r="D253" s="3">
-        <v>43385.3303472222</v>
+        <v>43368.3341550926</v>
       </c>
       <c r="E253" s="3">
-        <v>43385.7071643519</v>
+        <v>43368.7105555556</v>
       </c>
       <c r="F253" s="3">
-        <v>43385.3332986111</v>
+        <v>43368.3272106481</v>
       </c>
       <c r="G253" s="3">
-        <v>43385.7066087963</v>
+        <v>43368.7003703704</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2">
-        <v>43388.3383564815</v>
+        <v>43369.3328009259</v>
       </c>
       <c r="B254" s="3">
-        <v>43388.3383564815</v>
+        <v>43369.3328009259</v>
       </c>
       <c r="C254" s="3">
-        <v>43388.7097106481</v>
+        <v>43369.7055324074</v>
       </c>
       <c r="D254" s="3">
-        <v>43388.3297569444</v>
+        <v>43369.3270486111</v>
       </c>
       <c r="E254" s="3">
-        <v>43388.7053240741</v>
+        <v>43369.7040740741</v>
       </c>
       <c r="F254" s="3">
-        <v>43388.3321527778</v>
+        <v>43369.3352430556</v>
       </c>
       <c r="G254" s="3">
-        <v>43388.7119907407</v>
+        <v>43369.7059143518</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2">
-        <v>43389.336099537</v>
+        <v>43370.3271412037</v>
       </c>
       <c r="B255" s="3">
-        <v>43389.336099537</v>
+        <v>43370.3271412037</v>
       </c>
       <c r="C255" s="3">
-        <v>43389.7125231481</v>
+        <v>43370.6988194444</v>
       </c>
       <c r="D255" s="3">
-        <v>43389.3359606481</v>
+        <v>43370.3332407407</v>
       </c>
       <c r="E255" s="3">
-        <v>43389.7121527778</v>
+        <v>43370.7079513889</v>
       </c>
       <c r="F255" s="3">
-        <v>43389.3343402778</v>
+        <v>43370.3349421296</v>
       </c>
       <c r="G255" s="3">
-        <v>43389.7086226852</v>
+        <v>43370.7112037037</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2">
-        <v>43390.3309722222</v>
+        <v>43371.3259143519</v>
       </c>
       <c r="B256" s="3">
-        <v>43390.3309722222</v>
+        <v>43371.3259143519</v>
       </c>
       <c r="C256" s="3">
-        <v>43390.7033101852</v>
+        <v>43371.7038541667</v>
       </c>
       <c r="D256" s="3">
-        <v>43390.3230555556</v>
+        <v>43371.3371643519</v>
       </c>
       <c r="E256" s="3">
-        <v>43390.6932523148</v>
+        <v>43371.7151273148</v>
       </c>
       <c r="F256" s="3">
-        <v>43390.337974537</v>
+        <v>43371.3346064815</v>
       </c>
       <c r="G256" s="3">
-        <v>43390.7133449074</v>
+        <v>43371.7075810185</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2">
-        <v>43391.3343518519</v>
+        <v>43374.3258217593</v>
       </c>
       <c r="B257" s="3">
-        <v>43391.3343518519</v>
+        <v>43374.3258217593</v>
       </c>
       <c r="C257" s="3">
-        <v>43391.7064930556</v>
+        <v>43374.7031597222</v>
       </c>
       <c r="D257" s="3">
-        <v>43391.3422106481</v>
+        <v>43374.3339351852</v>
       </c>
       <c r="E257" s="3">
-        <v>43391.720787037</v>
+        <v>43374.7064814815</v>
       </c>
       <c r="F257" s="3">
-        <v>43391.3352777778</v>
+        <v>43374.3373726852</v>
       </c>
       <c r="G257" s="3">
-        <v>43391.7078125</v>
+        <v>43374.715</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2">
-        <v>43392.3382407407</v>
+        <v>43375.3379861111</v>
       </c>
       <c r="B258" s="3">
-        <v>43392.3382407407</v>
+        <v>43375.3379861111</v>
       </c>
       <c r="C258" s="3">
-        <v>43392.7121990741</v>
+        <v>43375.7134953704</v>
       </c>
       <c r="D258" s="3">
-        <v>43392.3430092593</v>
+        <v>43375.3377546296</v>
       </c>
       <c r="E258" s="3">
-        <v>43392.7208217593</v>
+        <v>43375.7159027778</v>
       </c>
       <c r="F258" s="3">
-        <v>43392.3247453704</v>
+        <v>43375.3244444444</v>
       </c>
       <c r="G258" s="3">
-        <v>43392.6966666667</v>
+        <v>43375.7019097222</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2">
-        <v>43395.3393055556</v>
+        <v>43376.337037037</v>
       </c>
       <c r="B259" s="3">
-        <v>43395.3393055556</v>
+        <v>43376.337037037</v>
       </c>
       <c r="C259" s="3">
-        <v>43395.7169328704</v>
+        <v>43376.7072222222</v>
       </c>
       <c r="D259" s="3">
-        <v>43395.3317361111</v>
+        <v>43376.3245717593</v>
       </c>
       <c r="E259" s="3">
-        <v>43395.7079166667</v>
+        <v>43376.6972685185</v>
       </c>
       <c r="F259" s="3">
-        <v>43395.3355092593</v>
+        <v>43376.3366898148</v>
       </c>
       <c r="G259" s="3">
-        <v>43395.7073148148</v>
+        <v>43376.7153472222</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2">
-        <v>43396.3246527778</v>
+        <v>43377.3383680556</v>
       </c>
       <c r="B260" s="3">
-        <v>43396.3246527778</v>
+        <v>43377.3383680556</v>
       </c>
       <c r="C260" s="3">
-        <v>43396.6974074074</v>
+        <v>43377.716400463</v>
       </c>
       <c r="D260" s="3">
-        <v>43396.3365509259</v>
+        <v>43377.3343865741</v>
       </c>
       <c r="E260" s="3">
-        <v>43396.7154513889</v>
+        <v>43377.7099189815</v>
       </c>
       <c r="F260" s="3">
-        <v>43396.3365972222</v>
+        <v>43377.3376967593</v>
       </c>
       <c r="G260" s="3">
-        <v>43396.7073148148</v>
+        <v>43377.7123611111</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2">
-        <v>43397.3331944444</v>
+        <v>43378.3249189815</v>
       </c>
       <c r="B261" s="3">
-        <v>43397.3331944444</v>
+        <v>43378.3249189815</v>
       </c>
       <c r="C261" s="3">
-        <v>43397.7075347222</v>
+        <v>43378.7040277778</v>
       </c>
       <c r="D261" s="3">
-        <v>43397.3292592593</v>
+        <v>43378.3409143519</v>
       </c>
       <c r="E261" s="3">
-        <v>43397.6997569444</v>
+        <v>43378.7168865741</v>
       </c>
       <c r="F261" s="3">
-        <v>43397.3262384259</v>
+        <v>43378.3296990741</v>
       </c>
       <c r="G261" s="3">
-        <v>43397.7002430556</v>
+        <v>43378.6999768519</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2">
-        <v>43398.3253703704</v>
+        <v>43381.3271412037</v>
       </c>
       <c r="B262" s="3">
-        <v>43398.3253703704</v>
+        <v>43381.3271412037</v>
       </c>
       <c r="C262" s="3">
-        <v>43398.7049652778</v>
+        <v>43381.7002662037</v>
       </c>
       <c r="D262" s="3">
-        <v>43398.3323842593</v>
+        <v>43381.335625</v>
       </c>
       <c r="E262" s="3">
-        <v>43398.7042013889</v>
+        <v>43381.7139699074</v>
       </c>
       <c r="F262" s="3">
-        <v>43398.3372222222</v>
+        <v>43381.3241550926</v>
       </c>
       <c r="G262" s="3">
-        <v>43398.7104513889</v>
+        <v>43381.6973611111</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2">
-        <v>43399.3246643519</v>
+        <v>43382.3408333333</v>
       </c>
       <c r="B263" s="3">
-        <v>43399.3246643519</v>
+        <v>43382.3408333333</v>
       </c>
       <c r="C263" s="3">
-        <v>43399.6948263889</v>
+        <v>43382.7122916667</v>
       </c>
       <c r="D263" s="3">
-        <v>43399.3404513889</v>
+        <v>43382.3368865741</v>
       </c>
       <c r="E263" s="3">
-        <v>43399.7147916667</v>
+        <v>43382.7090740741</v>
       </c>
       <c r="F263" s="3">
-        <v>43399.3277662037</v>
+        <v>43382.334849537</v>
       </c>
       <c r="G263" s="3">
-        <v>43399.705162037</v>
+        <v>43382.7078009259</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2">
-        <v>43402.3259953704</v>
+        <v>43383.331724537</v>
       </c>
       <c r="B264" s="3">
-        <v>43402.3259953704</v>
+        <v>43383.331724537</v>
       </c>
       <c r="C264" s="3">
-        <v>43402.6969560185</v>
+        <v>43383.7099652778</v>
       </c>
       <c r="D264" s="3">
-        <v>43402.34</v>
+        <v>43383.3252893519</v>
       </c>
       <c r="E264" s="3">
-        <v>43402.7153240741</v>
+        <v>43383.6984375</v>
       </c>
       <c r="F264" s="3">
-        <v>43402.3425</v>
+        <v>43383.3258680556</v>
       </c>
       <c r="G264" s="3">
-        <v>43402.7176273148</v>
+        <v>43383.7045601852</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2">
-        <v>43403.3335185185</v>
+        <v>43384.3247222222</v>
       </c>
       <c r="B265" s="3">
-        <v>43403.3335185185</v>
+        <v>43384.3247222222</v>
       </c>
       <c r="C265" s="3">
-        <v>43403.7074884259</v>
+        <v>43384.7044907407</v>
       </c>
       <c r="D265" s="3">
-        <v>43403.326412037</v>
+        <v>43384.3231481481</v>
       </c>
       <c r="E265" s="3">
-        <v>43403.7052893518</v>
+        <v>43384.6999884259</v>
       </c>
       <c r="F265" s="3">
-        <v>43403.3283680556</v>
+        <v>43384.3269097222</v>
       </c>
       <c r="G265" s="3">
-        <v>43403.7041087963</v>
+        <v>43384.6970717593</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2">
-        <v>43404.3335416667</v>
+        <v>43385.3286111111</v>
       </c>
       <c r="B266" s="3">
-        <v>43404.3335416667</v>
+        <v>43385.3286111111</v>
       </c>
       <c r="C266" s="3">
-        <v>43404.7111805556</v>
+        <v>43385.6991666667</v>
       </c>
       <c r="D266" s="3">
-        <v>43404.323900463</v>
+        <v>43385.3430208333</v>
       </c>
       <c r="E266" s="3">
-        <v>43404.702962963</v>
+        <v>43385.7207407407</v>
       </c>
       <c r="F266" s="3">
-        <v>43404.3412731482</v>
+        <v>43385.3411342593</v>
       </c>
       <c r="G266" s="3">
-        <v>43404.7166319444</v>
+        <v>43385.7203009259</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2">
-        <v>43405.3405902778</v>
+        <v>43388.3364930556</v>
       </c>
       <c r="B267" s="3">
-        <v>43405.3405902778</v>
+        <v>43388.3364930556</v>
       </c>
       <c r="C267" s="3">
-        <v>43405.7118981481</v>
+        <v>43388.7142361111</v>
       </c>
       <c r="D267" s="3">
-        <v>43405.3305092593</v>
+        <v>43388.3287962963</v>
       </c>
       <c r="E267" s="3">
-        <v>43405.7038310185</v>
+        <v>43388.7036111111</v>
       </c>
       <c r="F267" s="3">
-        <v>43405.3432291667</v>
+        <v>43388.3408796296</v>
       </c>
       <c r="G267" s="3">
-        <v>43405.7214814815</v>
+        <v>43388.713912037</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2">
-        <v>43406.3242592593</v>
+        <v>43389.3258101852</v>
       </c>
       <c r="B268" s="3">
-        <v>43406.3242592593</v>
+        <v>43389.3258101852</v>
       </c>
       <c r="C268" s="3">
-        <v>43406.6975462963</v>
+        <v>43389.6993055556</v>
       </c>
       <c r="D268" s="3">
-        <v>43406.3350578704</v>
+        <v>43389.3245138889</v>
       </c>
       <c r="E268" s="3">
-        <v>43406.7056828704</v>
+        <v>43389.701724537</v>
       </c>
       <c r="F268" s="3">
-        <v>43406.336712963</v>
+        <v>43389.3340046296</v>
       </c>
       <c r="G268" s="3">
-        <v>43406.7109606481</v>
+        <v>43389.7074189815</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2">
-        <v>43409.3262962963</v>
+        <v>43390.323900463</v>
       </c>
       <c r="B269" s="3">
-        <v>43409.3262962963</v>
+        <v>43390.323900463</v>
       </c>
       <c r="C269" s="3">
-        <v>43409.7025347222</v>
+        <v>43390.7010069444</v>
       </c>
       <c r="D269" s="3">
-        <v>43409.3246064815</v>
+        <v>43390.3425925926</v>
       </c>
       <c r="E269" s="3">
-        <v>43409.6959375</v>
+        <v>43390.7179050926</v>
       </c>
       <c r="F269" s="3">
-        <v>43409.3312847222</v>
+        <v>43390.3413541667</v>
       </c>
       <c r="G269" s="3">
-        <v>43409.7048263889</v>
+        <v>43390.7202430556</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2">
-        <v>43410.3256828704</v>
+        <v>43391.3255671296</v>
       </c>
       <c r="B270" s="3">
-        <v>43410.3256828704</v>
+        <v>43391.3255671296</v>
       </c>
       <c r="C270" s="3">
-        <v>43410.700625</v>
+        <v>43391.6964583333</v>
       </c>
       <c r="D270" s="3">
-        <v>43410.3302777778</v>
+        <v>43391.3366319444</v>
       </c>
       <c r="E270" s="3">
-        <v>43410.7034143519</v>
+        <v>43391.7105092593</v>
       </c>
       <c r="F270" s="3">
-        <v>43410.3323842593</v>
+        <v>43391.3246180556</v>
       </c>
       <c r="G270" s="3">
-        <v>43410.706400463</v>
+        <v>43391.6973726852</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2">
-        <v>43411.3409143519</v>
+        <v>43392.3322569444</v>
       </c>
       <c r="B271" s="3">
-        <v>43411.3409143519</v>
+        <v>43392.3322569444</v>
       </c>
       <c r="C271" s="3">
-        <v>43411.7193981481</v>
+        <v>43392.7114930556</v>
       </c>
       <c r="D271" s="3">
-        <v>43411.3314467593</v>
+        <v>43392.3393402778</v>
       </c>
       <c r="E271" s="3">
-        <v>43411.7086574074</v>
+        <v>43392.7162152778</v>
       </c>
       <c r="F271" s="3">
-        <v>43411.3260648148</v>
+        <v>43392.3309837963</v>
       </c>
       <c r="G271" s="3">
-        <v>43411.7049074074</v>
+        <v>43392.7094444444</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2">
-        <v>43412.3369097222</v>
+        <v>43395.3366782407</v>
       </c>
       <c r="B272" s="3">
-        <v>43412.3369097222</v>
+        <v>43395.3366782407</v>
       </c>
       <c r="C272" s="3">
-        <v>43412.7110532407</v>
+        <v>43395.7069328704</v>
       </c>
       <c r="D272" s="3">
-        <v>43412.3359953704</v>
+        <v>43395.3416898148</v>
       </c>
       <c r="E272" s="3">
-        <v>43412.7062384259</v>
+        <v>43395.7190046296</v>
       </c>
       <c r="F272" s="3">
-        <v>43412.3235763889</v>
+        <v>43395.3402662037</v>
       </c>
       <c r="G272" s="3">
-        <v>43412.6963657407</v>
+        <v>43395.7115509259</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2">
-        <v>43413.3291435185</v>
+        <v>43396.3427430556</v>
       </c>
       <c r="B273" s="3">
-        <v>43413.3291435185</v>
+        <v>43396.3427430556</v>
       </c>
       <c r="C273" s="3">
-        <v>43413.7086226852</v>
+        <v>43396.7148726852</v>
       </c>
       <c r="D273" s="3">
-        <v>43413.3414583333</v>
+        <v>43396.3373148148</v>
       </c>
       <c r="E273" s="3">
-        <v>43413.7211111111</v>
+        <v>43396.7099189815</v>
       </c>
       <c r="F273" s="3">
-        <v>43413.3280439815</v>
+        <v>43396.3385185185</v>
       </c>
       <c r="G273" s="3">
-        <v>43413.7041782407</v>
+        <v>43396.7124884259</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2">
-        <v>43416.3432175926</v>
+        <v>43397.3320138889</v>
       </c>
       <c r="B274" s="3">
-        <v>43416.3432175926</v>
+        <v>43397.3320138889</v>
       </c>
       <c r="C274" s="3">
-        <v>43416.7206597222</v>
+        <v>43397.7087037037</v>
       </c>
       <c r="D274" s="3">
-        <v>43416.3427546296</v>
+        <v>43397.338275463</v>
       </c>
       <c r="E274" s="3">
-        <v>43416.7130092593</v>
+        <v>43397.7111111111</v>
       </c>
       <c r="F274" s="3">
-        <v>43416.3261226852</v>
+        <v>43397.3296180556</v>
       </c>
       <c r="G274" s="3">
-        <v>43416.6971296296</v>
+        <v>43397.7058217593</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2">
-        <v>43417.3388888889</v>
+        <v>43398.3327083333</v>
       </c>
       <c r="B275" s="3">
-        <v>43417.3388888889</v>
+        <v>43398.3327083333</v>
       </c>
       <c r="C275" s="3">
-        <v>43417.7144328704</v>
+        <v>43398.7083912037</v>
       </c>
       <c r="D275" s="3">
-        <v>43417.3284027778</v>
+        <v>43398.3233333333</v>
       </c>
       <c r="E275" s="3">
-        <v>43417.7074189815</v>
+        <v>43398.7013310185</v>
       </c>
       <c r="F275" s="3">
-        <v>43417.3317708333</v>
+        <v>43398.3268171296</v>
       </c>
       <c r="G275" s="3">
-        <v>43417.7087962963</v>
+        <v>43398.6996412037</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2">
-        <v>43418.3418518519</v>
+        <v>43399.3418055556</v>
       </c>
       <c r="B276" s="3">
-        <v>43418.3418518519</v>
+        <v>43399.3418055556</v>
       </c>
       <c r="C276" s="3">
-        <v>43418.7176041667</v>
+        <v>43399.7214236111</v>
       </c>
       <c r="D276" s="3">
-        <v>43418.3278703704</v>
+        <v>43399.3362731481</v>
       </c>
       <c r="E276" s="3">
-        <v>43418.7050231481</v>
+        <v>43399.7106712963</v>
       </c>
       <c r="F276" s="3">
-        <v>43418.3424537037</v>
+        <v>43399.3354050926</v>
       </c>
       <c r="G276" s="3">
-        <v>43418.7135763889</v>
+        <v>43399.7075810185</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2">
-        <v>43419.3298263889</v>
+        <v>43402.3425347222</v>
       </c>
       <c r="B277" s="3">
-        <v>43419.3298263889</v>
+        <v>43402.3425347222</v>
       </c>
       <c r="C277" s="3">
-        <v>43419.7014814815</v>
+        <v>43402.7136921296</v>
       </c>
       <c r="D277" s="3">
-        <v>43419.3237731481</v>
+        <v>43402.3233101852</v>
       </c>
       <c r="E277" s="3">
-        <v>43419.6968865741</v>
+        <v>43402.7002777778</v>
       </c>
       <c r="F277" s="3">
-        <v>43419.3331712963</v>
+        <v>43402.3425925926</v>
       </c>
       <c r="G277" s="3">
-        <v>43419.7103819444</v>
+        <v>43402.7224189815</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2">
-        <v>43420.3392013889</v>
+        <v>43403.3236342593</v>
       </c>
       <c r="B278" s="3">
-        <v>43420.3392013889</v>
+        <v>43403.3236342593</v>
       </c>
       <c r="C278" s="3">
-        <v>43420.7136458333</v>
+        <v>43403.6946180556</v>
       </c>
       <c r="D278" s="3">
-        <v>43420.3429166667</v>
+        <v>43403.3304282407</v>
       </c>
       <c r="E278" s="3">
-        <v>43420.715625</v>
+        <v>43403.7018981481</v>
       </c>
       <c r="F278" s="3">
-        <v>43420.3306018518</v>
+        <v>43403.3340393519</v>
       </c>
       <c r="G278" s="3">
-        <v>43420.7030555556</v>
+        <v>43403.7105208333</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2">
-        <v>43423.325150463</v>
+        <v>43404.3379050926</v>
       </c>
       <c r="B279" s="3">
-        <v>43423.325150463</v>
+        <v>43404.3379050926</v>
       </c>
       <c r="C279" s="3">
-        <v>43423.7010300926</v>
+        <v>43404.7146875</v>
       </c>
       <c r="D279" s="3">
-        <v>43423.3335532407</v>
+        <v>43404.333599537</v>
       </c>
       <c r="E279" s="3">
-        <v>43423.7072685185</v>
+        <v>43404.7084143519</v>
       </c>
       <c r="F279" s="3">
-        <v>43423.3430555556</v>
+        <v>43404.3284490741</v>
       </c>
       <c r="G279" s="3">
-        <v>43423.7205092593</v>
+        <v>43404.7080555556</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2">
-        <v>43424.3366550926</v>
+        <v>43405.323287037</v>
       </c>
       <c r="B280" s="3">
-        <v>43424.3366550926</v>
+        <v>43405.323287037</v>
       </c>
       <c r="C280" s="3">
-        <v>43424.7162731482</v>
+        <v>43405.6980902778</v>
       </c>
       <c r="D280" s="3">
-        <v>43424.3235300926</v>
+        <v>43405.3253703704</v>
       </c>
       <c r="E280" s="3">
-        <v>43424.702650463</v>
+        <v>43405.6986921296</v>
       </c>
       <c r="F280" s="3">
-        <v>43424.3247569444</v>
+        <v>43405.3434606481</v>
       </c>
       <c r="G280" s="3">
-        <v>43424.7021990741</v>
+        <v>43405.7225115741</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2">
-        <v>43425.336724537</v>
+        <v>43406.324525463</v>
       </c>
       <c r="B281" s="3">
-        <v>43425.336724537</v>
+        <v>43406.324525463</v>
       </c>
       <c r="C281" s="3">
-        <v>43425.7132407407</v>
+        <v>43406.7008912037</v>
       </c>
       <c r="D281" s="3">
-        <v>43425.3409837963</v>
+        <v>43406.3339583333</v>
       </c>
       <c r="E281" s="3">
-        <v>43425.7188425926</v>
+        <v>43406.7127199074</v>
       </c>
       <c r="F281" s="3">
-        <v>43425.3309606481</v>
+        <v>43406.3264351852</v>
       </c>
       <c r="G281" s="3">
-        <v>43425.7101273148</v>
+        <v>43406.7034837963</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2">
-        <v>43426.3357638889</v>
+        <v>43409.3266666667</v>
       </c>
       <c r="B282" s="3">
-        <v>43426.3357638889</v>
+        <v>43409.3266666667</v>
       </c>
       <c r="C282" s="3">
-        <v>43426.7082175926</v>
+        <v>43409.6988541667</v>
       </c>
       <c r="D282" s="3">
-        <v>43426.3310648148</v>
+        <v>43409.3374421296</v>
       </c>
       <c r="E282" s="3">
-        <v>43426.7082638889</v>
+        <v>43409.7154050926</v>
       </c>
       <c r="F282" s="3">
-        <v>43426.3382407407</v>
+        <v>43409.3408912037</v>
       </c>
       <c r="G282" s="3">
-        <v>43426.7178240741</v>
+        <v>43409.7166087963</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2">
-        <v>43427.325775463</v>
+        <v>43410.3413425926</v>
       </c>
       <c r="B283" s="3">
-        <v>43427.325775463</v>
+        <v>43410.3413425926</v>
       </c>
       <c r="C283" s="3">
-        <v>43427.7018865741</v>
+        <v>43410.7124537037</v>
       </c>
       <c r="D283" s="3">
-        <v>43427.3348958333</v>
+        <v>43410.3334490741</v>
       </c>
       <c r="E283" s="3">
-        <v>43427.7058912037</v>
+        <v>43410.7123726852</v>
       </c>
       <c r="F283" s="3">
-        <v>43427.3342824074</v>
+        <v>43410.3386458333</v>
       </c>
       <c r="G283" s="3">
-        <v>43427.7062268518</v>
+        <v>43410.7149189815</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2">
-        <v>43430.330787037</v>
+        <v>43411.3260532407</v>
       </c>
       <c r="B284" s="3">
-        <v>43430.330787037</v>
+        <v>43411.3260532407</v>
       </c>
       <c r="C284" s="3">
-        <v>43430.7050810185</v>
+        <v>43411.6996527778</v>
       </c>
       <c r="D284" s="3">
-        <v>43430.3362731481</v>
+        <v>43411.3338078704</v>
       </c>
       <c r="E284" s="3">
-        <v>43430.7122222222</v>
+        <v>43411.7044097222</v>
       </c>
       <c r="F284" s="3">
-        <v>43430.3346527778</v>
+        <v>43411.331875</v>
       </c>
       <c r="G284" s="3">
-        <v>43430.7121527778</v>
+        <v>43411.7058680556</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2">
-        <v>43431.3258796296</v>
+        <v>43412.3354513889</v>
       </c>
       <c r="B285" s="3">
-        <v>43431.3258796296</v>
+        <v>43412.3354513889</v>
       </c>
       <c r="C285" s="3">
-        <v>43431.7000115741</v>
+        <v>43412.7092592593</v>
       </c>
       <c r="D285" s="3">
-        <v>43431.3288425926</v>
+        <v>43412.3264814815</v>
       </c>
       <c r="E285" s="3">
-        <v>43431.7078587963</v>
+        <v>43412.7061805556</v>
       </c>
       <c r="F285" s="3">
-        <v>43431.3350810185</v>
+        <v>43412.3278819444</v>
       </c>
       <c r="G285" s="3">
-        <v>43431.7116666667</v>
+        <v>43412.7051736111</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2">
-        <v>43432.3277314815</v>
+        <v>43413.3334606482</v>
       </c>
       <c r="B286" s="3">
-        <v>43432.3277314815</v>
+        <v>43413.3334606482</v>
       </c>
       <c r="C286" s="3">
-        <v>43432.6994097222</v>
+        <v>43413.7129282407</v>
       </c>
       <c r="D286" s="3">
-        <v>43432.337662037</v>
+        <v>43413.3412268519</v>
       </c>
       <c r="E286" s="3">
-        <v>43432.7107175926</v>
+        <v>43413.7166782407</v>
       </c>
       <c r="F286" s="3">
-        <v>43432.339212963</v>
+        <v>43413.3410185185</v>
       </c>
       <c r="G286" s="3">
-        <v>43432.7118171296</v>
+        <v>43413.7185532407</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2">
-        <v>43433.3362152778</v>
+        <v>43416.3412037037</v>
       </c>
       <c r="B287" s="3">
-        <v>43433.3362152778</v>
+        <v>43416.3412037037</v>
       </c>
       <c r="C287" s="3">
-        <v>43433.7120717593</v>
+        <v>43416.7177893519</v>
       </c>
       <c r="D287" s="3">
-        <v>43433.3285069444</v>
+        <v>43416.3355092593</v>
       </c>
       <c r="E287" s="3">
-        <v>43433.7020023148</v>
+        <v>43416.7072569444</v>
       </c>
       <c r="F287" s="3">
-        <v>43433.3378587963</v>
+        <v>43416.3394675926</v>
       </c>
       <c r="G287" s="3">
-        <v>43433.7104976852</v>
+        <v>43416.7138773148</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2">
-        <v>43437.3313541667</v>
+        <v>43417.3304976852</v>
       </c>
       <c r="B288" s="3">
-        <v>43437.3313541667</v>
+        <v>43417.3304976852</v>
       </c>
       <c r="C288" s="3">
-        <v>43437.707662037</v>
+        <v>43417.7021875</v>
       </c>
       <c r="D288" s="3">
-        <v>43437.3331712963</v>
+        <v>43417.3388773148</v>
       </c>
       <c r="E288" s="3">
-        <v>43437.708912037</v>
+        <v>43417.7106597222</v>
       </c>
       <c r="F288" s="3">
-        <v>43437.3418402778</v>
+        <v>43417.324537037</v>
       </c>
       <c r="G288" s="3">
-        <v>43437.714537037</v>
+        <v>43417.6992361111</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2">
-        <v>43438.3387615741</v>
+        <v>43418.3283912037</v>
       </c>
       <c r="B289" s="3">
-        <v>43438.3387615741</v>
+        <v>43418.3283912037</v>
       </c>
       <c r="C289" s="3">
-        <v>43438.7157523148</v>
+        <v>43418.7003819444</v>
       </c>
       <c r="D289" s="3">
-        <v>43438.3314351852</v>
+        <v>43418.3374768519</v>
       </c>
       <c r="E289" s="3">
-        <v>43438.7058796296</v>
+        <v>43418.7160763889</v>
       </c>
       <c r="F289" s="3">
-        <v>43438.3305439815</v>
+        <v>43418.3267013889</v>
       </c>
       <c r="G289" s="3">
-        <v>43438.7046990741</v>
+        <v>43418.7059837963</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2">
-        <v>43439.3369560185</v>
+        <v>43419.3303125</v>
       </c>
       <c r="B290" s="3">
-        <v>43439.3369560185</v>
+        <v>43419.3303125</v>
       </c>
       <c r="C290" s="3">
-        <v>43439.708287037</v>
+        <v>43419.7068171296</v>
       </c>
       <c r="D290" s="3">
-        <v>43439.3288078704</v>
+        <v>43419.326099537</v>
       </c>
       <c r="E290" s="3">
-        <v>43439.7073263889</v>
+        <v>43419.7002777778</v>
       </c>
       <c r="F290" s="3">
-        <v>43439.3243981482</v>
+        <v>43419.3347106481</v>
       </c>
       <c r="G290" s="3">
-        <v>43439.7005208333</v>
+        <v>43419.7065740741</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2">
-        <v>43440.3235069444</v>
+        <v>43420.3374884259</v>
       </c>
       <c r="B291" s="3">
-        <v>43440.3235069444</v>
+        <v>43420.3374884259</v>
       </c>
       <c r="C291" s="3">
-        <v>43440.6974884259</v>
+        <v>43420.7148958333</v>
       </c>
       <c r="D291" s="3">
-        <v>43440.3329166667</v>
+        <v>43420.3327893519</v>
       </c>
       <c r="E291" s="3">
-        <v>43440.7109027778</v>
+        <v>43420.7110532407</v>
       </c>
       <c r="F291" s="3">
-        <v>43440.3352662037</v>
+        <v>43420.3430671296</v>
       </c>
       <c r="G291" s="3">
-        <v>43440.7136689815</v>
+        <v>43420.7182291667</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2">
-        <v>43441.3295486111</v>
+        <v>43423.330474537</v>
       </c>
       <c r="B292" s="3">
-        <v>43441.3295486111</v>
+        <v>43423.330474537</v>
       </c>
       <c r="C292" s="3">
-        <v>43441.7089467593</v>
+        <v>43423.705625</v>
       </c>
       <c r="D292" s="3">
-        <v>43441.3285532407</v>
+        <v>43423.3289583333</v>
       </c>
       <c r="E292" s="3">
-        <v>43441.7011689815</v>
+        <v>43423.7010532407</v>
       </c>
       <c r="F292" s="3">
-        <v>43441.3247569444</v>
+        <v>43423.337337963</v>
       </c>
       <c r="G292" s="3">
-        <v>43441.7002662037</v>
+        <v>43423.7163657407</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>43424.3246759259</v>
+      </c>
+      <c r="B293" s="3">
+        <v>43424.3246759259</v>
+      </c>
+      <c r="C293" s="3">
+        <v>43424.6977083333</v>
+      </c>
+      <c r="D293" s="3">
+        <v>43424.3239236111</v>
+      </c>
+      <c r="E293" s="3">
+        <v>43424.6991782407</v>
+      </c>
+      <c r="F293" s="3">
+        <v>43424.3313078704</v>
+      </c>
+      <c r="G293" s="3">
+        <v>43424.7079050926</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>43425.3250231482</v>
+      </c>
+      <c r="B294" s="3">
+        <v>43425.3250231482</v>
+      </c>
+      <c r="C294" s="3">
+        <v>43425.700474537</v>
+      </c>
+      <c r="D294" s="3">
+        <v>43425.3387615741</v>
+      </c>
+      <c r="E294" s="3">
+        <v>43425.714525463</v>
+      </c>
+      <c r="F294" s="3">
+        <v>43425.3434259259</v>
+      </c>
+      <c r="G294" s="3">
+        <v>43425.7219675926</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>43426.3384953704</v>
+      </c>
+      <c r="B295" s="3">
+        <v>43426.3384953704</v>
+      </c>
+      <c r="C295" s="3">
+        <v>43426.7091435185</v>
+      </c>
+      <c r="D295" s="3">
+        <v>43426.3254282407</v>
+      </c>
+      <c r="E295" s="3">
+        <v>43426.7046990741</v>
+      </c>
+      <c r="F295" s="3">
+        <v>43426.3388194444</v>
+      </c>
+      <c r="G295" s="3">
+        <v>43426.7175115741</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>43427.3359490741</v>
+      </c>
+      <c r="B296" s="3">
+        <v>43427.3359490741</v>
+      </c>
+      <c r="C296" s="3">
+        <v>43427.7096064815</v>
+      </c>
+      <c r="D296" s="3">
+        <v>43427.3273958333</v>
+      </c>
+      <c r="E296" s="3">
+        <v>43427.702037037</v>
+      </c>
+      <c r="F296" s="3">
+        <v>43427.3243981482</v>
+      </c>
+      <c r="G296" s="3">
+        <v>43427.7033796296</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>43430.3374884259</v>
+      </c>
+      <c r="B297" s="3">
+        <v>43430.3374884259</v>
+      </c>
+      <c r="C297" s="3">
+        <v>43430.713900463</v>
+      </c>
+      <c r="D297" s="3">
+        <v>43430.3315509259</v>
+      </c>
+      <c r="E297" s="3">
+        <v>43430.7048958333</v>
+      </c>
+      <c r="F297" s="3">
+        <v>43430.3419444444</v>
+      </c>
+      <c r="G297" s="3">
+        <v>43430.7136805556</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>43431.3229282407</v>
+      </c>
+      <c r="B298" s="3">
+        <v>43431.3229282407</v>
+      </c>
+      <c r="C298" s="3">
+        <v>43431.7009143519</v>
+      </c>
+      <c r="D298" s="3">
+        <v>43431.3407175926</v>
+      </c>
+      <c r="E298" s="3">
+        <v>43431.7196064815</v>
+      </c>
+      <c r="F298" s="3">
+        <v>43431.325</v>
+      </c>
+      <c r="G298" s="3">
+        <v>43431.7017013889</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>43432.3386574074</v>
+      </c>
+      <c r="B299" s="3">
+        <v>43432.3386574074</v>
+      </c>
+      <c r="C299" s="3">
+        <v>43432.7131597222</v>
+      </c>
+      <c r="D299" s="3">
+        <v>43432.3436689815</v>
+      </c>
+      <c r="E299" s="3">
+        <v>43432.7147337963</v>
+      </c>
+      <c r="F299" s="3">
+        <v>43432.3436226852</v>
+      </c>
+      <c r="G299" s="3">
+        <v>43432.7162615741</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>43433.3255555556</v>
+      </c>
+      <c r="B300" s="3">
+        <v>43433.3255555556</v>
+      </c>
+      <c r="C300" s="3">
+        <v>43433.7039699074</v>
+      </c>
+      <c r="D300" s="3">
+        <v>43433.3277662037</v>
+      </c>
+      <c r="E300" s="3">
+        <v>43433.7055555556</v>
+      </c>
+      <c r="F300" s="3">
+        <v>43433.330474537</v>
+      </c>
+      <c r="G300" s="3">
+        <v>43433.7017476852</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="4">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>43437.3240393519</v>
+      </c>
+      <c r="B302" s="3">
+        <v>43437.3240393519</v>
+      </c>
+      <c r="C302" s="3">
+        <v>43437.6949537037</v>
+      </c>
+      <c r="D302" s="3">
+        <v>43437.3381481481</v>
+      </c>
+      <c r="E302" s="3">
+        <v>43437.7149884259</v>
+      </c>
+      <c r="F302" s="3">
+        <v>43437.3430092593</v>
+      </c>
+      <c r="G302" s="3">
+        <v>43437.7221412037</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>43438.3244212963</v>
+      </c>
+      <c r="B303" s="3">
+        <v>43438.3244212963</v>
+      </c>
+      <c r="C303" s="3">
+        <v>43438.6954513889</v>
+      </c>
+      <c r="D303" s="3">
+        <v>43438.3251273148</v>
+      </c>
+      <c r="E303" s="3">
+        <v>43438.6956134259</v>
+      </c>
+      <c r="F303" s="3">
+        <v>43438.3309606481</v>
+      </c>
+      <c r="G303" s="3">
+        <v>43438.705474537</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>43439.3242708333</v>
+      </c>
+      <c r="B304" s="3">
+        <v>43439.3242708333</v>
+      </c>
+      <c r="C304" s="3">
+        <v>43439.7036111111</v>
+      </c>
+      <c r="D304" s="3">
+        <v>43439.3422800926</v>
+      </c>
+      <c r="E304" s="3">
+        <v>43439.7133333333</v>
+      </c>
+      <c r="F304" s="3">
+        <v>43439.331400463</v>
+      </c>
+      <c r="G304" s="3">
+        <v>43439.7096875</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>43440.3249305556</v>
+      </c>
+      <c r="B305" s="3">
+        <v>43440.3249305556</v>
+      </c>
+      <c r="C305" s="3">
+        <v>43440.6977662037</v>
+      </c>
+      <c r="D305" s="3">
+        <v>43440.3402777778</v>
+      </c>
+      <c r="E305" s="3">
+        <v>43440.7187152778</v>
+      </c>
+      <c r="F305" s="3">
+        <v>43440.3315509259</v>
+      </c>
+      <c r="G305" s="3">
+        <v>43440.7065856481</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>43441.3383449074</v>
+      </c>
+      <c r="B306" s="3">
+        <v>43441.3383449074</v>
+      </c>
+      <c r="C306" s="3">
+        <v>43441.7169791667</v>
+      </c>
+      <c r="D306" s="3">
+        <v>43441.3424189815</v>
+      </c>
+      <c r="E306" s="3">
+        <v>43441.7144097222</v>
+      </c>
+      <c r="F306" s="3">
+        <v>43441.3420601852</v>
+      </c>
+      <c r="G306" s="3">
+        <v>43441.7128240741</v>
       </c>
     </row>
   </sheetData>
